--- a/outputs/bst_list/search.xlsx
+++ b/outputs/bst_list/search.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.999993739649653e-06</v>
+        <v>2.125045284628868e-06</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.500057108700275e-07</v>
+        <v>8.750357665121555e-07</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.079943316057324e-07</v>
+        <v>7.500057108700275e-07</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.080088835209608e-07</v>
+        <v>6.25033862888813e-07</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.041000359691679e-06</v>
+        <v>7.92031642049551e-07</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.041000359691679e-06</v>
+        <v>7.499475032091141e-07</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.124994014389813e-06</v>
+        <v>8.330098353326321e-07</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.874992787837982e-06</v>
+        <v>2.04198295250535e-06</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.166001311503351e-06</v>
+        <v>7.92031642049551e-07</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.00000761449337e-06</v>
+        <v>5.830079317092896e-07</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.500057108700275e-07</v>
+        <v>5.00003807246685e-07</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.90998456068337e-07</v>
+        <v>5.00003807246685e-07</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.67001586407423e-07</v>
+        <v>5.41971530765295e-07</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.920025382190943e-07</v>
+        <v>6.67001586407423e-07</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.749921107664704e-07</v>
+        <v>6.25033862888813e-07</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.041000359691679e-06</v>
+        <v>6.67001586407423e-07</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.083011738955975e-06</v>
+        <v>1.499953214079142e-06</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.00000761449337e-06</v>
+        <v>7.919734343886375e-07</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.125008566305041e-06</v>
+        <v>7.910421118140221e-07</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.041000359691679e-06</v>
+        <v>7.909839041531086e-07</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.124994014389813e-06</v>
+        <v>7.909839041531086e-07</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.125008566305041e-06</v>
+        <v>7.910421118140221e-07</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.124994014389813e-06</v>
+        <v>8.330098353326321e-07</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.374995918013155e-06</v>
+        <v>8.749775588512421e-07</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.207998138852417e-06</v>
+        <v>8.750357665121555e-07</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.999930625781417e-07</v>
+        <v>1.667009200900793e-06</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.082997187040746e-06</v>
+        <v>9.579816833138466e-07</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.416992745362222e-06</v>
+        <v>1.00000761449337e-06</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.45800004247576e-06</v>
+        <v>1.00000761449337e-06</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.374995918013155e-06</v>
+        <v>1.00000761449337e-06</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.291002263315022e-06</v>
+        <v>1.042033545672894e-06</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.499996869824827e-06</v>
+        <v>1.042033545672894e-06</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.749998773448169e-06</v>
+        <v>1.250009518116713e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.291002263315022e-06</v>
+        <v>1.166015863418579e-06</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.334003172814846e-06</v>
+        <v>1.833017449826002e-06</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.45800004247576e-06</v>
+        <v>1.167005393654108e-06</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.708001946099102e-06</v>
+        <v>1.250009518116713e-06</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.749998773448169e-06</v>
+        <v>1.250009518116713e-06</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.665990566834807e-06</v>
+        <v>1.250009518116713e-06</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.334003172814846e-06</v>
+        <v>1.291977241635323e-06</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.958003849722445e-06</v>
+        <v>1.375039573758841e-06</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.958003849722445e-06</v>
+        <v>1.333013642579317e-06</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.832988345995545e-06</v>
+        <v>1.459033228456974e-06</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.87499972525984e-06</v>
+        <v>1.458043698221445e-06</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.87499972525984e-06</v>
+        <v>1.417007297277451e-06</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.708001946099102e-06</v>
+        <v>1.457985490560532e-06</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.958003849722445e-06</v>
+        <v>1.457985490560532e-06</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.916007022373378e-06</v>
+        <v>1.541979145258665e-06</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.04100797418505e-06</v>
+        <v>1.541979145258665e-06</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.957989297807217e-06</v>
+        <v>1.540989615023136e-06</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.000000677071512e-06</v>
+        <v>1.58301554620266e-06</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.209009835496545e-06</v>
+        <v>1.58301554620266e-06</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.45800765696913e-06</v>
+        <v>1.750013325363398e-06</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.33299215324223e-06</v>
+        <v>2.457993105053902e-06</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.125001628883183e-06</v>
+        <v>1.709035132080317e-06</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.749998773448169e-06</v>
+        <v>1.709035132080317e-06</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.375003532506526e-06</v>
+        <v>1.708045601844788e-06</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.291999408043921e-06</v>
+        <v>1.750013325363398e-06</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.291999408043921e-06</v>
+        <v>1.750013325363398e-06</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.417000359855592e-06</v>
+        <v>1.792039256542921e-06</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.417000359855592e-06</v>
+        <v>2.541986759752035e-06</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.542001311667264e-06</v>
+        <v>1.875043381005526e-06</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.33299215324223e-06</v>
+        <v>1.874985173344612e-06</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.374988980591297e-06</v>
+        <v>1.874985173344612e-06</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.749991836026311e-06</v>
+        <v>2.167013008147478e-06</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.000000677071512e-06</v>
+        <v>2.083019353449345e-06</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.625005436129868e-06</v>
+        <v>2.833025064319372e-06</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.749991836026311e-06</v>
+        <v>2.125045284628868e-06</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.832995960488915e-06</v>
+        <v>2.125045284628868e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.667002263478935e-06</v>
+        <v>2.124987076967955e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.666987711563706e-06</v>
+        <v>2.167013008147478e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.999993739649653e-06</v>
+        <v>2.167013008147478e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.792003215290606e-06</v>
+        <v>2.250017132610083e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.917004167102277e-06</v>
+        <v>2.374988980591297e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.917004167102277e-06</v>
+        <v>2.249958924949169e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.208005753345788e-06</v>
+        <v>2.250017132610083e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.499997546896338e-06</v>
+        <v>2.62499088421464e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.124994691461325e-06</v>
+        <v>2.500019036233425e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.291992470622063e-06</v>
+        <v>2.500019036233425e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.291992470622063e-06</v>
+        <v>2.500019036233425e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.249995643272996e-06</v>
+        <v>2.500019036233425e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.125009243376553e-06</v>
+        <v>2.500019036233425e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.16700607072562e-06</v>
+        <v>2.541986759752035e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.3329997677356e-06</v>
+        <v>2.625049091875553e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.290988388471305e-06</v>
+        <v>2.66695860773325e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.459004801698029e-06</v>
+        <v>2.62499088421464e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.499997546896338e-06</v>
+        <v>2.707995008677244e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.457986167632043e-06</v>
+        <v>2.62499088421464e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.334003849886358e-06</v>
+        <v>2.62499088421464e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.457986167632043e-06</v>
+        <v>2.708984538912773e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.000008291564882e-06</v>
+        <v>2.667016815394163e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.834000042639673e-06</v>
+        <v>2.750020939856768e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.834000042639673e-06</v>
+        <v>3.62499849870801e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.665991243906319e-06</v>
+        <v>2.957996912300587e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.667009877972305e-06</v>
+        <v>2.958986442536116e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.083005478605628e-06</v>
+        <v>3.124994691461325e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.458000719547272e-06</v>
+        <v>3.082968760281801e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.083005478605628e-06</v>
+        <v>3.708002623170614e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.875000402331352e-06</v>
+        <v>3.04199056699872e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.833003574982285e-06</v>
+        <v>3.084016498178244e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.833003574982285e-06</v>
+        <v>3.124994691461325e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.000001354143023e-06</v>
+        <v>3.167020622640848e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.04199818149209e-06</v>
+        <v>3.167020622640848e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.832989023067057e-06</v>
+        <v>3.167020622640848e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.000001354143023e-06</v>
+        <v>3.124994691461325e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.04199818149209e-06</v>
+        <v>3.165972884744406e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.000001354143023e-06</v>
+        <v>4.00003045797348e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.833003574982285e-06</v>
+        <v>3.207998815923929e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.125002305954695e-06</v>
+        <v>3.499968443065882e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.332992830313742e-06</v>
+        <v>3.583962097764015e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.417001036927104e-06</v>
+        <v>4.166038706898689e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.916997229680419e-06</v>
+        <v>3.458000719547272e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.500005161389709e-06</v>
+        <v>3.459048457443714e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.458008334040642e-06</v>
+        <v>3.458000719547272e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.875000402331352e-06</v>
+        <v>3.458000719547272e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.542008926160634e-06</v>
+        <v>3.458000719547272e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.332992830313742e-06</v>
+        <v>3.584020305424929e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.582994733937085e-06</v>
+        <v>3.62499849870801e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.375004209578037e-06</v>
+        <v>3.5830307751894e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.624991561286151e-06</v>
+        <v>3.666034899652004e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.540997906588018e-06</v>
+        <v>3.667024429887533e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.458008334040642e-06</v>
+        <v>3.708002623170614e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.667002940550447e-06</v>
+        <v>3.750028554350138e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.749992513097823e-06</v>
+        <v>4.584027919918299e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.250003257766366e-06</v>
+        <v>3.790948539972305e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.000008968636394e-06</v>
+        <v>3.708002623170614e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.49999060947448e-06</v>
+        <v>3.834022209048271e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.832996637560427e-06</v>
+        <v>3.750028554350138e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.04200579598546e-06</v>
+        <v>4.124944098293781e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.207999492995441e-06</v>
+        <v>4.041008651256561e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.04200579598546e-06</v>
+        <v>4.041008651256561e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.375011824071407e-06</v>
+        <v>4.082976374775171e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.875008016824722e-06</v>
+        <v>4.04199818149209e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.49999060947448e-06</v>
+        <v>4.04199818149209e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.667002940550447e-06</v>
+        <v>4.041008651256561e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.999994416721165e-06</v>
+        <v>4.792003892362118e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.584006430581212e-06</v>
+        <v>4.207948222756386e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.083013093098998e-06</v>
+        <v>4.125002305954695e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.04200579598546e-06</v>
+        <v>4.292000085115433e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.124995368532836e-06</v>
+        <v>4.875008016824722e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.458997864276171e-06</v>
+        <v>4.250032361596823e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.33400452695787e-06</v>
+        <v>4.208006430417299e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.458001396618783e-06</v>
+        <v>4.334026016294956e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.333000444807112e-06</v>
+        <v>4.375004209578037e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.207999492995441e-06</v>
+        <v>4.417030140757561e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.999994416721165e-06</v>
+        <v>4.332978278398514e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.291003617458045e-06</v>
+        <v>5.165988113731146e-06</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.583002348430455e-06</v>
+        <v>4.375004209578037e-06</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.583002348430455e-06</v>
+        <v>4.499976057559252e-06</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.458001396618783e-06</v>
+        <v>4.540954250842333e-06</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.458001396618783e-06</v>
+        <v>5.665991920977831e-06</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.125009920448065e-06</v>
+        <v>4.500034265220165e-06</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.54099096916616e-06</v>
+        <v>4.666042514145374e-06</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.791996954940259e-06</v>
+        <v>5.249981768429279e-06</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.750000127591193e-06</v>
+        <v>4.66697383671999e-06</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.624999175779521e-06</v>
+        <v>4.708999767899513e-06</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.708003300242126e-06</v>
+        <v>4.708999767899513e-06</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.375004209578037e-06</v>
+        <v>5.417037755250931e-06</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.417001036927104e-06</v>
+        <v>4.875008016824722e-06</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.708003300242126e-06</v>
+        <v>4.708010237663984e-06</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6.333008059300482e-06</v>
+        <v>4.875008016824722e-06</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.49999822396785e-06</v>
+        <v>4.792003892362118e-06</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>6.20899663772434e-06</v>
+        <v>4.958012141287327e-06</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.832989700138569e-06</v>
+        <v>4.791014362126589e-06</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>6.000002031214535e-06</v>
+        <v>5.624955520033836e-06</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>6.125002983026206e-06</v>
+        <v>4.874949809163809e-06</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.916997906751931e-06</v>
+        <v>5.00003807246685e-06</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>6.207992555573583e-06</v>
+        <v>5.709007382392883e-06</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6.166999810375273e-06</v>
+        <v>5.125009920448065e-06</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6.041998858563602e-06</v>
+        <v>4.916044417768717e-06</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>6.458009011112154e-06</v>
+        <v>5.749985575675964e-06</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6.208007107488811e-06</v>
+        <v>5.292007699608803e-06</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>6.415997631847858e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>6.665999535471201e-06</v>
+        <v>6.04201341047883e-06</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>6.583999493159354e-06</v>
+        <v>5.292007699608803e-06</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>6.625006790272892e-06</v>
+        <v>5.208014044910669e-06</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>6.624992238357663e-06</v>
+        <v>6.125017534941435e-06</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>6.50000583846122e-06</v>
+        <v>5.416979547590017e-06</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.999994416721165e-06</v>
+        <v>5.416979547590017e-06</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6.750007742084563e-06</v>
+        <v>6.208021659404039e-06</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>7.125010597519577e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6.542002665810287e-06</v>
+        <v>5.416048225015402e-06</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6.542002665810287e-06</v>
+        <v>6.167043466120958e-06</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>5.458015948534012e-06</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6.916001439094543e-06</v>
+        <v>5.500041879713535e-06</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>6.249989382922649e-06</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>7.208000170066953e-06</v>
+        <v>5.708017852157354e-06</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>6.95799826644361e-06</v>
+        <v>5.540961865335703e-06</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6.707996362820268e-06</v>
+        <v>6.332993507385254e-06</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6.999995093792677e-06</v>
+        <v>5.62501372769475e-06</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>5.791021976619959e-06</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>7.291004294529557e-06</v>
+        <v>6.499991286545992e-06</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6.95799826644361e-06</v>
+        <v>5.874957423657179e-06</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6.290996680036187e-06</v>
+        <v>5.874957423657179e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6.958012818358839e-06</v>
+        <v>6.458023563027382e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>7.458002073690295e-06</v>
+        <v>5.749985575675964e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>7.208000170066953e-06</v>
+        <v>5.875015631318092e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>7.416994776576757e-06</v>
+        <v>6.58305361866951e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7.041991921141744e-06</v>
+        <v>5.917041562497616e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>5.957961548119783e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>7.457987521775067e-06</v>
+        <v>6.624963134527206e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>7.624999852851033e-06</v>
+        <v>6.04201341047883e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>5.875015631318092e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>6.457994459196925e-06</v>
+        <v>6.082991603761911e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>6.125017534941435e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>7.791997632011771e-06</v>
+        <v>6.708025466650724e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7.957991329021752e-06</v>
+        <v>6.207963451743126e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7.666007149964571e-06</v>
+        <v>6.040965672582388e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6.166999810375273e-06</v>
+        <v>6.916990969330072e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>7.790993549861014e-06</v>
+        <v>6.040965672582388e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>8.332994184456766e-06</v>
+        <v>6.041023880243301e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>8.083006832748652e-06</v>
+        <v>6.249989382922649e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>7.875001756474376e-06</v>
+        <v>6.125017534941435e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6.041998858563602e-06</v>
+        <v>6.333983037620783e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>7.833004929125309e-06</v>
+        <v>6.416987162083387e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>8.41599830891937e-06</v>
+        <v>6.334041245281696e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>8.12498910818249e-06</v>
+        <v>6.292015314102173e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>7.875001756474376e-06</v>
+        <v>7.166992872953415e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.54099858365953e-06</v>
+        <v>6.416987162083387e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>8.000002708286047e-06</v>
+        <v>6.332993507385254e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>8.165996405296028e-06</v>
+        <v>7.208029273897409e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>8.457995136268437e-06</v>
+        <v>6.499991286545992e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>7.95800588093698e-06</v>
+        <v>6.542017217725515e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6.125002983026206e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>7.875001756474376e-06</v>
+        <v>6.459013093262911e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>8.332994184456766e-06</v>
+        <v>6.624963134527206e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>7.916998583823442e-06</v>
+        <v>7.207971066236496e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>8.083006832748652e-06</v>
+        <v>6.458023563027382e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>8.332994184456766e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>8.708011591807008e-06</v>
+        <v>6.542017217725515e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>8.041999535635114e-06</v>
+        <v>6.458023563027382e-06</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>8.167000487446785e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>8.291011909022927e-06</v>
+        <v>6.832997314631939e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>9.082999895326793e-06</v>
+        <v>6.832997314631939e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>8.500006515532732e-06</v>
+        <v>7.416994776576757e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>8.792005246505141e-06</v>
+        <v>6.874965038150549e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>7.166992872953415e-06</v>
+        <v>6.792019121348858e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>8.791990694589913e-06</v>
+        <v>7.499998901039362e-06</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>8.709001122042537e-06</v>
+        <v>6.832997314631939e-06</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>9.12499672267586e-06</v>
+        <v>7.458031177520752e-06</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>8.832997991703451e-06</v>
+        <v>6.875023245811462e-06</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>7.0420210249722e-06</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>8.95801349543035e-06</v>
+        <v>7.665948942303658e-06</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>8.875009370967746e-06</v>
+        <v>6.958027370274067e-06</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>9.249997674487531e-06</v>
+        <v>6.999995093792677e-06</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>9.000010322779417e-06</v>
+        <v>7.750000804662704e-06</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>7.457987521775067e-06</v>
+        <v>6.957969162613153e-06</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>9.084003977477551e-06</v>
+        <v>7.790978997945786e-06</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>8.917006198316813e-06</v>
+        <v>7.082999218255281e-06</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>9.374998626299202e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>8.666000212542713e-06</v>
+        <v>7.166003342717886e-06</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>9.625000529922545e-06</v>
+        <v>7.082999218255281e-06</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>7.95800588093698e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9.249997674487531e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8.750008419156075e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>9.41600592341274e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>9.458002750761807e-06</v>
+        <v>7.458031177520752e-06</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>9.416995453648269e-06</v>
+        <v>7.540977094322443e-06</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>9.791998309083283e-06</v>
+        <v>7.416994776576757e-06</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>9.791998309083283e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>8.417002391070127e-06</v>
+        <v>7.417052984237671e-06</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>9.625000529922545e-06</v>
+        <v>7.416005246341228e-06</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>9.291004971601069e-06</v>
+        <v>7.540977094322443e-06</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>9.791998309083283e-06</v>
+        <v>8.167000487446785e-06</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>9.875002433545887e-06</v>
+        <v>7.62502895668149e-06</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>9.416995453648269e-06</v>
+        <v>7.458962500095367e-06</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>8.791990694589913e-06</v>
+        <v>8.333998266607523e-06</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>9.957992006093264e-06</v>
+        <v>7.542024832218885e-06</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>9.583003702573478e-06</v>
+        <v>7.791037205606699e-06</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>9.708994184620678e-06</v>
+        <v>7.875030860304832e-06</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9.750001481734216e-06</v>
+        <v>7.70896440371871e-06</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1.0124989785254e-05</v>
+        <v>7.750000804662704e-06</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1.02500052889809e-05</v>
+        <v>7.832946721464396e-06</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>9.499999578110874e-06</v>
+        <v>7.833004929125309e-06</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>8.749993867240846e-06</v>
+        <v>8.790986612439156e-06</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.020899799186736e-05</v>
+        <v>7.709022611379623e-06</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1.02500052889809e-05</v>
+        <v>8.583010639995337e-06</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1.012500433716923e-05</v>
+        <v>7.957976777106524e-06</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>8.709001122042537e-06</v>
+        <v>8.624978363513947e-06</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1.029099803417921e-05</v>
+        <v>7.957976777106524e-06</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>9.499999578110874e-06</v>
+        <v>7.958034984767437e-06</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1.024999073706567e-05</v>
+        <v>8.125032763928175e-06</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>9.12499672267586e-06</v>
+        <v>8.124974556267262e-06</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1.058299676515162e-05</v>
+        <v>8.750008419156075e-06</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1.079199137166142e-05</v>
+        <v>8.125032763928175e-06</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>1.000000338535756e-05</v>
+        <v>8.874980267137289e-06</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>1.049999264068902e-05</v>
+        <v>8.124974556267262e-06</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1.07910018414259e-05</v>
+        <v>8.917006198316813e-06</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1.045799581333995e-05</v>
+        <v>8.250004611909389e-06</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>8.457995136268437e-06</v>
+        <v>8.250004611909389e-06</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1.049999264068902e-05</v>
+        <v>8.500006515532732e-06</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1.083299866877496e-05</v>
+        <v>8.417002391070127e-06</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1.07910018414259e-05</v>
+        <v>9.041978046298027e-06</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>8.41599830891937e-06</v>
+        <v>8.332950528711081e-06</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1.129200973082334e-05</v>
+        <v>8.375034667551517e-06</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1.10830005723983e-05</v>
+        <v>9.166018571704626e-06</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1.066700497176498e-05</v>
+        <v>8.541974239051342e-06</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>1.10830005723983e-05</v>
+        <v>8.500006515532732e-06</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>1.124999835155904e-05</v>
+        <v>9.165960364043713e-06</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>1.087501004803926e-05</v>
+        <v>8.541974239051342e-06</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>1.116700877901167e-05</v>
+        <v>9.082956239581108e-06</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>1.095799962058663e-05</v>
+        <v>8.70897201821208e-06</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>1.09999964479357e-05</v>
+        <v>8.66700429469347e-06</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>1.004099613055587e-05</v>
+        <v>8.834002073854208e-06</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>1.154099300038069e-05</v>
+        <v>8.791976142674685e-06</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.145800342783332e-05</v>
+        <v>9.500014130026102e-06</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>1.120899105444551e-05</v>
+        <v>8.70897201821208e-06</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>1.145798887591809e-05</v>
+        <v>9.417010005563498e-06</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>1.154199708253145e-05</v>
+        <v>9.042036253958941e-06</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>1.033299486152828e-05</v>
+        <v>9.750016033649445e-06</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>9.167008101940155e-06</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>1.175000215880573e-05</v>
+        <v>9.416020475327969e-06</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>1.137499930337071e-05</v>
+        <v>9.624985978007317e-06</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>9.833005606196821e-06</v>
+        <v>9.249954018741846e-06</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>1.17499876068905e-05</v>
+        <v>9.999959729611874e-06</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>1.183300628326833e-05</v>
+        <v>9.292038157582283e-06</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>1.075000909622759e-05</v>
+        <v>9.917013812810183e-06</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>8.957998943515122e-06</v>
+        <v>9.500014130026102e-06</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1.195799268316478e-05</v>
+        <v>9.958981536328793e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>9.415962267667055e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1.120798697229475e-05</v>
+        <v>1.020799390971661e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>1.175000215880573e-05</v>
+        <v>9.374984074383974e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>1.220800913870335e-05</v>
+        <v>1.024996163323522e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>1.191699993796647e-05</v>
+        <v>9.666022378951311e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>1.220799458678812e-05</v>
+        <v>1.033296575769782e-05</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>1.024996163323522e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>1.116599014494568e-05</v>
+        <v>9.457988198846579e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>1.224999141413718e-05</v>
+        <v>1.029099803417921e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>1.233299553859979e-05</v>
+        <v>1.029198756441474e-05</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>9.70897963270545e-06</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>1.249999331776053e-05</v>
+        <v>1.024996163323522e-05</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>1.254200469702482e-05</v>
+        <v>9.749957825988531e-06</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>1.179199898615479e-05</v>
+        <v>1.033401349559426e-05</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>4.75000124424696e-05</v>
+        <v>9.709037840366364e-06</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>1.27079983940348e-05</v>
+        <v>1.054198946803808e-05</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>1.204200088977814e-05</v>
+        <v>1.050002174451947e-05</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>1.241599966306239e-05</v>
+        <v>9.916955605149269e-06</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>1.087499549612403e-05</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>1.150000025518239e-05</v>
+        <v>1.062499359250069e-05</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>1.291699300054461e-05</v>
+        <v>9.999959729611874e-06</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>1.216700184158981e-05</v>
+        <v>1.062499359250069e-05</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>1.29590043798089e-05</v>
+        <v>1.016596797853708e-05</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>1.308300124946982e-05</v>
+        <v>1.06669613160193e-05</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>1.27500097732991e-05</v>
+        <v>1.020898343995214e-05</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>1.308300124946982e-05</v>
+        <v>1.025001984089613e-05</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>1.312499807681888e-05</v>
+        <v>1.025001984089613e-05</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>1.17499876068905e-05</v>
+        <v>1.00419856607914e-05</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>1.333300315309316e-05</v>
+        <v>1.029198756441474e-05</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>1.300001167692244e-05</v>
+        <v>1.041701762005687e-05</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>1.095799962058663e-05</v>
+        <v>1.041695941239595e-05</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>1.324999902863055e-05</v>
+        <v>1.037499168887734e-05</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>1.341600727755576e-05</v>
+        <v>1.045799581333995e-05</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>1.191699993796647e-05</v>
+        <v>1.054099993780255e-05</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>1.35000009322539e-05</v>
+        <v>1.06669613160193e-05</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>1.329199585597962e-05</v>
+        <v>1.066701952368021e-05</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>1.075002364814281e-05</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>1.362500188406557e-05</v>
+        <v>1.070799771696329e-05</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>1.324999902863055e-05</v>
+        <v>1.075002364814281e-05</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>1.220799458678812e-05</v>
+        <v>1.07499654404819e-05</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>1.370800600852817e-05</v>
+        <v>1.095898915082216e-05</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>1.291598891839385e-05</v>
+        <v>1.087499549612403e-05</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>1.379199966322631e-05</v>
+        <v>1.070904545485973e-05</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>1.34579895529896e-05</v>
+        <v>1.083302777260542e-05</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>1.345800410490483e-05</v>
+        <v>1.100002555176616e-05</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>1.35000009322539e-05</v>
+        <v>1.100002555176616e-05</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>1.366699871141464e-05</v>
+        <v>1.099996734410524e-05</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>1.379101013299078e-05</v>
+        <v>1.091603189706802e-05</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>1.38340110424906e-05</v>
+        <v>1.116597559303045e-05</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>1.258299744222313e-05</v>
+        <v>1.120899105444551e-05</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1.216698728967458e-05</v>
+        <v>1.104199327528477e-05</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>1.391601108480245e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>1.404200156684965e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>1.404101203661412e-05</v>
+        <v>1.11670233309269e-05</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>1.400000473950058e-05</v>
+        <v>1.11670233309269e-05</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>1.400000473950058e-05</v>
+        <v>1.129199517890811e-05</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>1.420800981577486e-05</v>
+        <v>1.149997115135193e-05</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>1.416700251866132e-05</v>
+        <v>1.150002935901284e-05</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>1.433301076758653e-05</v>
+        <v>1.145899295806885e-05</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>1.404200156684965e-05</v>
+        <v>1.129100564867258e-05</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>1.420800981577486e-05</v>
+        <v>1.145800342783332e-05</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>1.37089955387637e-05</v>
+        <v>1.166696893051267e-05</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>1.416698796674609e-05</v>
+        <v>1.137499930337071e-05</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>1.079199137166142e-05</v>
+        <v>1.137499930337071e-05</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>1.458301267120987e-05</v>
+        <v>1.154199708253145e-05</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>1.441700442228466e-05</v>
+        <v>1.145899295806885e-05</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>1.404200156684965e-05</v>
+        <v>1.166597940027714e-05</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>1.487501140218228e-05</v>
+        <v>1.170800533145666e-05</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>1.416700251866132e-05</v>
+        <v>1.158402301371098e-05</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>1.312499807681888e-05</v>
+        <v>1.166702713817358e-05</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>1.441700442228466e-05</v>
+        <v>1.179100945591927e-05</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>1.458301267120987e-05</v>
+        <v>1.174997305497527e-05</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>1.116600469686091e-05</v>
+        <v>1.18750031106174e-05</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>1.495800097472966e-05</v>
+        <v>1.200003316625953e-05</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1.479199272580445e-05</v>
+        <v>1.18750031106174e-05</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>1.312501262873411e-05</v>
+        <v>1.18339667096734e-05</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1.412500569131225e-05</v>
+        <v>1.183402491733432e-05</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>1.483300002291799e-05</v>
+        <v>1.199997495859861e-05</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1.329201040789485e-05</v>
+        <v>1.183297717943788e-05</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>1.508300192654133e-05</v>
+        <v>1.191702904179692e-05</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1.500001235399395e-05</v>
+        <v>1.208396861329675e-05</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>1.345800410490483e-05</v>
+        <v>1.216598320752382e-05</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>1.420799526385963e-05</v>
+        <v>1.216703094542027e-05</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>1.516699558123946e-05</v>
+        <v>1.237500691786408e-05</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>1.545899431221187e-05</v>
+        <v>1.216703094542027e-05</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1.512501330580562e-05</v>
+        <v>1.224997686222196e-05</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1.504199462942779e-05</v>
+        <v>1.245900057256222e-05</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>1.533298927824944e-05</v>
+        <v>1.237500691786408e-05</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>1.375000283587724e-05</v>
+        <v>1.233298098668456e-05</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>1.54169974848628e-05</v>
+        <v>1.237500691786408e-05</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>1.537500065751374e-05</v>
+        <v>1.2334028724581e-05</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>1.337499998044223e-05</v>
+        <v>1.24999787658453e-05</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>1.5208002878353e-05</v>
+        <v>1.237494871020317e-05</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>1.550000160932541e-05</v>
+        <v>1.24999787658453e-05</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>1.587498991284519e-05</v>
+        <v>1.254200469702482e-05</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>1.550000160932541e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>1.295800029765815e-05</v>
+        <v>1.254200469702482e-05</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>1.466600224375725e-05</v>
+        <v>1.250003697350621e-05</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>1.570800668559968e-05</v>
+        <v>1.279200660064816e-05</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>1.583300763741136e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>1.562500256113708e-05</v>
+        <v>1.266604522243142e-05</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>1.575000351294875e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>1.62920041475445e-05</v>
+        <v>1.279200660064816e-05</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>1.612500636838377e-05</v>
+        <v>1.299998257309198e-05</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>1.35000009322539e-05</v>
+        <v>1.491699367761612e-05</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>1.166701258625835e-05</v>
+        <v>1.312501262873411e-05</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>1.166699803434312e-05</v>
+        <v>1.283397432416677e-05</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>1.162500120699406e-05</v>
+        <v>1.291697844862938e-05</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>1.179199898615479e-05</v>
+        <v>1.308397622779012e-05</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1.170799077954143e-05</v>
+        <v>1.320894807577133e-05</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>1.179199898615479e-05</v>
+        <v>1.308298669755459e-05</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>1.183300628326833e-05</v>
+        <v>1.295795664191246e-05</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>1.191699993796647e-05</v>
+        <v>1.299998257309198e-05</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>1.212500501424074e-05</v>
+        <v>1.312501262873411e-05</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>1.191599585581571e-05</v>
+        <v>1.316698035225272e-05</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>1.29590043798089e-05</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>1.908300328068435e-05</v>
+        <v>1.316698035225272e-05</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>1.258299744222313e-05</v>
+        <v>1.324998447671533e-05</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>1.308300124946982e-05</v>
+        <v>1.345894997939467e-05</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>1.308300124946982e-05</v>
+        <v>1.32079585455358e-05</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>1.27079983940348e-05</v>
+        <v>1.333403633907437e-05</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>1.299999712500721e-05</v>
+        <v>1.329102087765932e-05</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>1.324999902863055e-05</v>
+        <v>1.345900818705559e-05</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>1.295800029765815e-05</v>
+        <v>1.337501453235745e-05</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>1.308399077970535e-05</v>
+        <v>1.350004458799958e-05</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>1.341599272564054e-05</v>
+        <v>1.341698225587606e-05</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>1.291600347030908e-05</v>
+        <v>1.362495822831988e-05</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>1.324999902863055e-05</v>
+        <v>1.374998828396201e-05</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>1.34579895529896e-05</v>
+        <v>1.35839800350368e-05</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>1.295800029765815e-05</v>
+        <v>1.345796044915915e-05</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>1.354100822936743e-05</v>
+        <v>1.37080205604434e-05</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>1.308400533162057e-05</v>
+        <v>1.366698415949941e-05</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>1.341701135970652e-05</v>
+        <v>1.379102468490601e-05</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>1.37089955387637e-05</v>
+        <v>1.37080205604434e-05</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>1.320900628343225e-05</v>
+        <v>1.379201421514153e-05</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>1.379199966322631e-05</v>
+        <v>1.379201421514153e-05</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>1.299999712500721e-05</v>
+        <v>1.383299240842462e-05</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>1.34579895529896e-05</v>
+        <v>1.395901199430227e-05</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>1.379199966322631e-05</v>
+        <v>1.399999018758535e-05</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>1.395800791215152e-05</v>
+        <v>1.399999018758535e-05</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>1.362500188406557e-05</v>
+        <v>1.399999018758535e-05</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>1.383299240842462e-05</v>
+        <v>1.391599653288722e-05</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>1.354199775960296e-05</v>
+        <v>1.404201611876488e-05</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>1.420899934601039e-05</v>
+        <v>1.420901389792562e-05</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>1.37089955387637e-05</v>
+        <v>1.429195981472731e-05</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>1.370800600852817e-05</v>
+        <v>1.408299431204796e-05</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>1.416599843651056e-05</v>
+        <v>1.420901389792562e-05</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>1.35830050567165e-05</v>
+        <v>1.43329962156713e-05</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>1.370800600852817e-05</v>
+        <v>1.42499920912087e-05</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>1.35830050567165e-05</v>
+        <v>1.429195981472731e-05</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>1.375000283587724e-05</v>
+        <v>1.43329962156713e-05</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>1.370799145661294e-05</v>
+        <v>1.449999399483204e-05</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>1.366699871141464e-05</v>
+        <v>1.437496393918991e-05</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>1.375000283587724e-05</v>
+        <v>1.975003397092223e-05</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>1.404200156684965e-05</v>
+        <v>1.520902151241899e-05</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>1.379099558107555e-05</v>
+        <v>1.487502595409751e-05</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>1.391700061503798e-05</v>
+        <v>1.474999589845538e-05</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>1.395899744238704e-05</v>
+        <v>1.47090177051723e-05</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>1.399999018758535e-05</v>
+        <v>1.462502405047417e-05</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>1.404200156684965e-05</v>
+        <v>1.47920218296349e-05</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>1.916699693538249e-05</v>
+        <v>1.479097409173846e-05</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>1.391700061503798e-05</v>
+        <v>1.512502785772085e-05</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>1.35000009322539e-05</v>
+        <v>1.533300383016467e-05</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>1.808399974834174e-05</v>
+        <v>1.504202373325825e-05</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>1.454100129194558e-05</v>
+        <v>1.487502595409751e-05</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>1.416599843651056e-05</v>
+        <v>1.545797567814589e-05</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>1.429200347047299e-05</v>
+        <v>1.529103610664606e-05</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>1.43750075949356e-05</v>
+        <v>1.516699558123946e-05</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>1.42499920912087e-05</v>
+        <v>1.508399145677686e-05</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>1.429099938832223e-05</v>
+        <v>1.520896330475807e-05</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>1.416599843651056e-05</v>
+        <v>1.570797758176923e-05</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>1.445900124963373e-05</v>
+        <v>1.583294942975044e-05</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>1.450000854674727e-05</v>
+        <v>1.625000732019544e-05</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>1.450000854674727e-05</v>
+        <v>1.579202944412827e-05</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>1.491699367761612e-05</v>
+        <v>1.600000541657209e-05</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>1.441698987036943e-05</v>
+        <v>1.637497916817665e-05</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>1.433301076758653e-05</v>
+        <v>1.637497916817665e-05</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>1.445799716748297e-05</v>
+        <v>1.566699938848615e-05</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>1.454200537409633e-05</v>
+        <v>1.600000541657209e-05</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>1.450000854674727e-05</v>
+        <v>1.591601176187396e-05</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>1.454100129194558e-05</v>
+        <v>1.625000732019544e-05</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>1.775000419002026e-05</v>
+        <v>1.625000732019544e-05</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>1.87090045074001e-05</v>
+        <v>1.579098170623183e-05</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>1.737500133458525e-05</v>
+        <v>1.600000541657209e-05</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>1.96250039152801e-05</v>
+        <v>1.575000351294875e-05</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>1.908298872876912e-05</v>
+        <v>1.600000541657209e-05</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>1.958299253601581e-05</v>
+        <v>1.579103991389275e-05</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>1.687499752733856e-05</v>
+        <v>1.566600985825062e-05</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>1.487499685026705e-05</v>
+        <v>1.579202944412827e-05</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>1.975000486709177e-05</v>
+        <v>1.641595736145973e-05</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>1.96250039152801e-05</v>
+        <v>1.608399907127023e-05</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>1.950000296346843e-05</v>
+        <v>1.649995101615787e-05</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>1.891599094960839e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>1.666700700297952e-05</v>
+        <v>1.641700509935617e-05</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>2.000000677071512e-05</v>
+        <v>1.658400287851691e-05</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>1.775000419002026e-05</v>
+        <v>1.67079851962626e-05</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>1.550000160932541e-05</v>
+        <v>1.654197694733739e-05</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>1.995901402551681e-05</v>
+        <v>1.600000541657209e-05</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>1.800000609364361e-05</v>
+        <v>1.604098360985518e-05</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>1.624999276828021e-05</v>
+        <v>1.625000732019544e-05</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>2.01660004677251e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>1.787500514183193e-05</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>1.795799471437931e-05</v>
+        <v>1.658400287851691e-05</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>5.995799438096583e-05</v>
+        <v>1.629203325137496e-05</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>1.958300708793104e-05</v>
+        <v>1.633301144465804e-05</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>2.004200359806418e-05</v>
+        <v>1.612497726455331e-05</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>1.658299879636616e-05</v>
+        <v>1.629203325137496e-05</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>2.049999602604657e-05</v>
+        <v>1.612497726455331e-05</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>1.916699693538249e-05</v>
+        <v>1.612497726455331e-05</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>2.033400232903659e-05</v>
+        <v>1.633400097489357e-05</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>1.925000105984509e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>2.041600237134844e-05</v>
+        <v>1.65420351549983e-05</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>2.024999412242323e-05</v>
+        <v>1.654098741710186e-05</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>2.03749950742349e-05</v>
+        <v>1.649995101615787e-05</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>2.062499697785825e-05</v>
+        <v>1.733395038172603e-05</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>1.887499820441008e-05</v>
+        <v>1.662503927946091e-05</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>2.066600427497178e-05</v>
+        <v>1.658301334828138e-05</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>1.987500581890345e-05</v>
+        <v>1.666601747274399e-05</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>1.666699245106429e-05</v>
+        <v>1.662503927946091e-05</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>2.104099257849157e-05</v>
+        <v>1.687498297542334e-05</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>1.975000486709177e-05</v>
+        <v>1.666700700297952e-05</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>2.087501343339682e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>1.991700264625251e-05</v>
+        <v>1.679197885096073e-05</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>2.058300015050918e-05</v>
+        <v>1.67079851962626e-05</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>1.849999534897506e-05</v>
+        <v>1.679197885096073e-05</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>2.025000867433846e-05</v>
+        <v>1.679203705862164e-05</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>1.912500010803342e-05</v>
+        <v>1.691700890660286e-05</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>2.03749950742349e-05</v>
+        <v>1.695903483778238e-05</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>1.766700006555766e-05</v>
+        <v>1.691596116870642e-05</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>1.695800165180117e-05</v>
+        <v>1.691695069894195e-05</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>2.129100903403014e-05</v>
+        <v>1.700001303106546e-05</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>2.074999792966992e-05</v>
+        <v>1.754198456183076e-05</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>2.145799226127565e-05</v>
+        <v>1.762498868629336e-05</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>1.699999847915024e-05</v>
+        <v>1.766701461747289e-05</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>2.000000677071512e-05</v>
+        <v>1.758302096277475e-05</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>2.087499888148159e-05</v>
+        <v>1.745799090713263e-05</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>1.929201243910939e-05</v>
+        <v>1.716695260256529e-05</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>2.1166997612454e-05</v>
+        <v>1.762504689395428e-05</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>2.000000677071512e-05</v>
+        <v>1.754198456183076e-05</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>2.154200046788901e-05</v>
+        <v>1.762504689395428e-05</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>1.96250039152801e-05</v>
+        <v>1.737498678267002e-05</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>2.154200046788901e-05</v>
+        <v>1.745799090713263e-05</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>2.029100141953677e-05</v>
+        <v>1.737498678267002e-05</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>2.212499384768307e-05</v>
+        <v>1.733400858938694e-05</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>2.066700835712254e-05</v>
+        <v>1.758395228534937e-05</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>2.220799797214568e-05</v>
+        <v>1.750001683831215e-05</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>2.087499888148159e-05</v>
+        <v>1.762498868629336e-05</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>2.19999928958714e-05</v>
+        <v>1.73329608514905e-05</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>1.954099570866674e-05</v>
+        <v>1.758296275511384e-05</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>2.179198781959713e-05</v>
+        <v>1.745804911479354e-05</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>1.858299947343767e-05</v>
+        <v>1.758302096277475e-05</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>2.220799797214568e-05</v>
+        <v>1.766701461747289e-05</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>2.137498813681304e-05</v>
+        <v>1.741602318361402e-05</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>2.195799606852233e-05</v>
+        <v>1.758296275511384e-05</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>2.062501152977347e-05</v>
+        <v>1.791701652109623e-05</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>2.249999670311809e-05</v>
+        <v>1.783401239663363e-05</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>2.137500268872827e-05</v>
+        <v>1.804198836907744e-05</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>1.70419953064993e-05</v>
+        <v>1.795799471437931e-05</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>2.137500268872827e-05</v>
+        <v>1.837499439716339e-05</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>2.233299892395735e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>2.016698999796063e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>2.237499575130641e-05</v>
+        <v>1.870800042524934e-05</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>2.091699570883065e-05</v>
+        <v>1.887499820441008e-05</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>2.224999479949474e-05</v>
+        <v>1.837499439716339e-05</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>2.054200740531087e-05</v>
+        <v>1.879205228760839e-05</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>2.249999670311809e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>2.066699380520731e-05</v>
+        <v>1.895800232887268e-05</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>2.237499575130641e-05</v>
+        <v>1.895905006676912e-05</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>2.1166997612454e-05</v>
+        <v>2.858397783711553e-05</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>2.241699257865548e-05</v>
+        <v>1.937500201165676e-05</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>2.283300273120403e-05</v>
+        <v>1.883297227323055e-05</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>2.016698999796063e-05</v>
+        <v>1.904100645333529e-05</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>2.291701093781739e-05</v>
+        <v>1.879199407994747e-05</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>2.158299321308732e-05</v>
+        <v>1.949997385963798e-05</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>2.300000051036477e-05</v>
+        <v>1.933297608047724e-05</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>2.091600617859513e-05</v>
+        <v>1.904100645333529e-05</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>2.012499317061156e-05</v>
+        <v>1.999997766688466e-05</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>2.316699828952551e-05</v>
+        <v>1.970800803974271e-05</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>2.19999928958714e-05</v>
+        <v>1.970800803974271e-05</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>2.320800558663905e-05</v>
+        <v>1.895800232887268e-05</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>2.19169887714088e-05</v>
+        <v>1.90829741768539e-05</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>2.29580036830157e-05</v>
+        <v>1.829100074246526e-05</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>2.175000554416329e-05</v>
+        <v>1.908303238451481e-05</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>2.312500146217644e-05</v>
+        <v>1.879100454971194e-05</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>2.174999099224806e-05</v>
+        <v>1.854199217632413e-05</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>2.266600495204329e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>2.175000554416329e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>2.258300082758069e-05</v>
+        <v>1.850002445280552e-05</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>2.187500649597496e-05</v>
+        <v>1.866702223196626e-05</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>2.233299892395735e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>2.379200304858387e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>2.108298940584064e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>2.370899892412126e-05</v>
+        <v>1.85410026460886e-05</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>2.141599543392658e-05</v>
+        <v>1.858401810750365e-05</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>2.170899824704975e-05</v>
+        <v>1.870898995548487e-05</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>2.166601188946515e-05</v>
+        <v>1.858297036960721e-05</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>2.174999099224806e-05</v>
+        <v>1.870800042524934e-05</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>2.395799674559385e-05</v>
+        <v>1.879100454971194e-05</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>2.262499765492976e-05</v>
+        <v>1.870898995548487e-05</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>2.345800749026239e-05</v>
+        <v>1.870800042524934e-05</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>2.249999670311809e-05</v>
+        <v>1.887499820441008e-05</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>2.399999357294291e-05</v>
+        <v>1.879199407994747e-05</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>2.283399226143956e-05</v>
+        <v>1.8834020011127e-05</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>2.370800939388573e-05</v>
+        <v>1.89170241355896e-05</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>2.245900395791978e-05</v>
+        <v>1.891696592792869e-05</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>2.158299321308732e-05</v>
+        <v>1.891696592792869e-05</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>2.274999860674143e-05</v>
+        <v>1.89170241355896e-05</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>2.233299892395735e-05</v>
+        <v>1.899997005239129e-05</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>2.254200808238238e-05</v>
+        <v>1.904199598357081e-05</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>2.404100087005645e-05</v>
+        <v>1.899997005239129e-05</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>2.28749995585531e-05</v>
+        <v>1.912500010803342e-05</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>2.420799864921719e-05</v>
+        <v>1.916702603921294e-05</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>2.300000051036477e-05</v>
+        <v>1.912500010803342e-05</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>2.379198849666864e-05</v>
+        <v>1.920800423249602e-05</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>2.283300273120403e-05</v>
+        <v>1.924997195601463e-05</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>2.44999973801896e-05</v>
+        <v>1.937500201165676e-05</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>2.279200998600572e-05</v>
+        <v>1.950003206729889e-05</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>1.808301021810621e-05</v>
+        <v>1.929100835695863e-05</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>1.779200101736933e-05</v>
+        <v>1.933396561071277e-05</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>1.783299376256764e-05</v>
+        <v>1.949997385963798e-05</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>1.804200292099267e-05</v>
+        <v>1.945800613611937e-05</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>1.908300328068435e-05</v>
+        <v>1.95419997908175e-05</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>2.254200808238238e-05</v>
+        <v>1.975003397092223e-05</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>1.895800232887268e-05</v>
+        <v>1.958303619176149e-05</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>1.87499972525984e-05</v>
+        <v>1.958402572199702e-05</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>1.870800042524934e-05</v>
+        <v>1.966702984645963e-05</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>1.995799539145082e-05</v>
+        <v>2.958299592137337e-05</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>2.516599488444626e-05</v>
+        <v>2.170802326872945e-05</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>1.970799348782748e-05</v>
+        <v>2.012494951486588e-05</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>1.95419997908175e-05</v>
+        <v>1.995800994336605e-05</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>1.950000296346843e-05</v>
+        <v>2.037500962615013e-05</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>1.904099190142006e-05</v>
+        <v>2.000003587454557e-05</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>1.970800803974271e-05</v>
+        <v>2.037500962615013e-05</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>1.945800613611937e-05</v>
+        <v>2.029200550168753e-05</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>1.937500201165676e-05</v>
+        <v>2.666603541001678e-05</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>1.950000296346843e-05</v>
+        <v>2.049998147413135e-05</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>1.966700074262917e-05</v>
+        <v>2.058397512882948e-05</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>1.920798968058079e-05</v>
+        <v>2.033298369497061e-05</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>1.975000486709177e-05</v>
+        <v>2.070801565423608e-05</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>2.000000677071512e-05</v>
+        <v>2.054095966741443e-05</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>1.937500201165676e-05</v>
+        <v>2.09159916266799e-05</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>1.937500201165676e-05</v>
+        <v>2.095801755785942e-05</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>1.962498936336488e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>1.95419997908175e-05</v>
+        <v>2.049998147413135e-05</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>1.933300518430769e-05</v>
+        <v>2.070801565423608e-05</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>1.945800613611937e-05</v>
+        <v>5.208299262449145e-05</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>1.941599475685507e-05</v>
+        <v>2.354104071855545e-05</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>1.966700074262917e-05</v>
+        <v>2.083397703245282e-05</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>2.487500023562461e-05</v>
+        <v>2.058298559859395e-05</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>2.424999547656626e-05</v>
+        <v>2.045900328084826e-05</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>2.399999357294291e-05</v>
+        <v>2.054200740531087e-05</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>2.604200562927872e-05</v>
+        <v>2.054101787507534e-05</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>2.229199162684381e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>2.62079993262887e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>2.512500213924795e-05</v>
+        <v>2.083298750221729e-05</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>2.608299837447703e-05</v>
+        <v>2.070801565423608e-05</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>2.44999973801896e-05</v>
+        <v>2.066697925329208e-05</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>2.554099773988128e-05</v>
+        <v>2.066598972305655e-05</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>2.024999412242323e-05</v>
+        <v>2.070795744657516e-05</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>1.916699693538249e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>1.916599285323173e-05</v>
+        <v>2.091703936457634e-05</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>1.933400926645845e-05</v>
+        <v>2.087501343339682e-05</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>1.929199788719416e-05</v>
+        <v>2.108403714373708e-05</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>1.94160093087703e-05</v>
+        <v>2.083298750221729e-05</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>1.958299253601581e-05</v>
+        <v>2.170901279896498e-05</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>1.950000296346843e-05</v>
+        <v>2.104102168232203e-05</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>2.558299456723034e-05</v>
+        <v>2.112501533702016e-05</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>2.679100725799799e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>2.416700590401888e-05</v>
+        <v>2.129195490851998e-05</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>2.720799238886684e-05</v>
+        <v>2.108397893607616e-05</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>2.591700467746705e-05</v>
+        <v>2.112501533702016e-05</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>2.583299647085369e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>2.72089964710176e-05</v>
+        <v>2.129195490851998e-05</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>2.337500336579978e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>2.575000689830631e-05</v>
+        <v>2.120796125382185e-05</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>2.237499575130641e-05</v>
+        <v>2.12920131161809e-05</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>2.587499329820275e-05</v>
+        <v>2.12920131161809e-05</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>2.687500091269612e-05</v>
+        <v>2.12920131161809e-05</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>2.774999302346259e-05</v>
+        <v>2.30839941650629e-05</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>2.699998731259257e-05</v>
+        <v>2.104195300489664e-05</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>2.637501165736467e-05</v>
+        <v>2.141698496416211e-05</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>2.554198727011681e-05</v>
+        <v>2.133398083969951e-05</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>2.745800884440541e-05</v>
+        <v>2.150004729628563e-05</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>2.554200182203203e-05</v>
+        <v>2.158305142074823e-05</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>2.72920005954802e-05</v>
+        <v>2.166599733754992e-05</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>2.27919954340905e-05</v>
+        <v>2.145802136510611e-05</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>2.749999111983925e-05</v>
+        <v>2.154195681214333e-05</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>2.312500146217644e-05</v>
+        <v>2.162496093660593e-05</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>2.595900150481611e-05</v>
+        <v>2.162501914426684e-05</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>2.387500717304647e-05</v>
+        <v>2.166698686778545e-05</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>2.758299524430186e-05</v>
+        <v>2.166599733754992e-05</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>2.712500281631947e-05</v>
+        <v>2.162501914426684e-05</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>2.595799742266536e-05</v>
+        <v>2.170901279896498e-05</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>2.762500662356615e-05</v>
+        <v>2.174999099224806e-05</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>2.358300844207406e-05</v>
+        <v>2.174999099224806e-05</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>2.783400123007596e-05</v>
+        <v>2.19169887714088e-05</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>2.745799429249018e-05</v>
+        <v>2.687500091269612e-05</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>2.64169939327985e-05</v>
+        <v>2.900004619732499e-05</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>2.79160012723878e-05</v>
+        <v>2.662499900907278e-05</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>2.750000567175448e-05</v>
+        <v>2.916698576882482e-05</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>2.46250128839165e-05</v>
+        <v>2.883403794839978e-05</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>2.583299647085369e-05</v>
+        <v>2.433295594528317e-05</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>2.624999615363777e-05</v>
+        <v>2.804194809868932e-05</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>2.791700535453856e-05</v>
+        <v>2.887501614168286e-05</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>2.645800122991204e-05</v>
+        <v>2.800003858283162e-05</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>2.583301102276891e-05</v>
+        <v>2.979196142405272e-05</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>2.841699460987002e-05</v>
+        <v>3.033300163224339e-05</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>2.345800749026239e-05</v>
+        <v>2.408301224932075e-05</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>2.691699774004519e-05</v>
+        <v>2.333300653845072e-05</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>2.72920005954802e-05</v>
+        <v>2.30839941650629e-05</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>2.745799429249018e-05</v>
+        <v>2.266699448227882e-05</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>2.849999873433262e-05</v>
+        <v>2.258300082758069e-05</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>2.829100412782282e-05</v>
+        <v>2.316600875928998e-05</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>2.624999615363777e-05</v>
+        <v>2.254097489640117e-05</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>2.866701106540859e-05</v>
+        <v>2.304196823388338e-05</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>2.829200820997357e-05</v>
+        <v>2.27079726755619e-05</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>2.499998663552105e-05</v>
+        <v>2.237502485513687e-05</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>2.87910079350695e-05</v>
+        <v>2.31250305660069e-05</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>2.841699460987002e-05</v>
+        <v>2.26249685510993e-05</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>2.491699706297368e-05</v>
+        <v>2.291699638590217e-05</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>2.87080038106069e-05</v>
+        <v>2.337503246963024e-05</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>2.770801074802876e-05</v>
+        <v>2.26249685510993e-05</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>2.712500281631947e-05</v>
+        <v>2.283300273120403e-05</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>2.879099338315427e-05</v>
+        <v>2.283399226143956e-05</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>2.408299769740552e-05</v>
+        <v>2.270803088322282e-05</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>2.775000757537782e-05</v>
+        <v>3.016699338331819e-05</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>2.758300979621708e-05</v>
+        <v>2.50829616561532e-05</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>2.724998921621591e-05</v>
+        <v>2.999999560415745e-05</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>2.925000444520265e-05</v>
+        <v>2.495798980817199e-05</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>2.908300666604191e-05</v>
+        <v>2.883304841816425e-05</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>2.400000812485814e-05</v>
+        <v>3.033300163224339e-05</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>2.916599623858929e-05</v>
+        <v>2.808298449963331e-05</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>2.8041991754435e-05</v>
+        <v>2.845795825123787e-05</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>2.779198985081166e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>2.941698767244816e-05</v>
+        <v>3.024999750778079e-05</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>2.829100412782282e-05</v>
+        <v>3.029097570106387e-05</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>2.733299334067851e-05</v>
+        <v>2.837501233443618e-05</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>2.966700412798673e-05</v>
+        <v>2.887501614168286e-05</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>2.791700535453856e-05</v>
+        <v>3.008299972862005e-05</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>2.61249952018261e-05</v>
+        <v>2.608296927064657e-05</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>2.937499084509909e-05</v>
+        <v>2.362497616559267e-05</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>2.912500349339098e-05</v>
+        <v>2.391601447016001e-05</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>2.766599936876446e-05</v>
+        <v>2.379098441451788e-05</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>2.974999370053411e-05</v>
+        <v>2.770900027826428e-05</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>2.883300476241857e-05</v>
+        <v>2.97080259770155e-05</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>2.79160012723878e-05</v>
+        <v>2.916698576882482e-05</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>2.812499587889761e-05</v>
+        <v>2.858298830688e-05</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>2.937500539701432e-05</v>
+        <v>3.108300734311342e-05</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>2.787499397527426e-05</v>
+        <v>3.125000512227416e-05</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>2.845900598913431e-05</v>
+        <v>2.891704207286239e-05</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>2.841699460987002e-05</v>
+        <v>3.070803359150887e-05</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>2.654100535437465e-05</v>
+        <v>3.066699719056487e-05</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>3.029200888704509e-05</v>
+        <v>3.166601527482271e-05</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>2.983299782499671e-05</v>
+        <v>3.112503327429295e-05</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>2.79580126516521e-05</v>
+        <v>3.054202534258366e-05</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>2.72920005954802e-05</v>
+        <v>3.062497125938535e-05</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>2.791700535453856e-05</v>
+        <v>2.995901741087437e-05</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>3.041699528694153e-05</v>
+        <v>3.14170029014349e-05</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>2.812499587889761e-05</v>
+        <v>2.566701732575893e-05</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>2.687498636078089e-05</v>
+        <v>3.14170029014349e-05</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>3.020800068043172e-05</v>
+        <v>3.129203105345368e-05</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>2.887500158976763e-05</v>
+        <v>3.012496745213866e-05</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>2.879099338315427e-05</v>
+        <v>2.895796205848455e-05</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>2.879199746530503e-05</v>
+        <v>3.154098521918058e-05</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>2.616700658109039e-05</v>
+        <v>3.045803168788552e-05</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>2.866699651349336e-05</v>
+        <v>2.949999179691076e-05</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>2.950000634882599e-05</v>
+        <v>3.170798299834132e-05</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>2.941700222436339e-05</v>
+        <v>3.179197665303946e-05</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>3.029200888704509e-05</v>
+        <v>3.041699528694153e-05</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>2.516600943636149e-05</v>
+        <v>2.941599814221263e-05</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>3.075000131502748e-05</v>
+        <v>3.191601717844605e-05</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>2.841700916178524e-05</v>
+        <v>3.200001083314419e-05</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>2.841700916178524e-05</v>
+        <v>2.954102819785476e-05</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>3.079199814237654e-05</v>
+        <v>2.937501994892955e-05</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>3.079199814237654e-05</v>
+        <v>3.200001083314419e-05</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>2.974999370053411e-05</v>
+        <v>3.195798490196466e-05</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>2.854199556168169e-05</v>
+        <v>3.020802978426218e-05</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>3.095799183938652e-05</v>
+        <v>3.187498077750206e-05</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>3.091699909418821e-05</v>
+        <v>2.958299592137337e-05</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>2.891600888688117e-05</v>
+        <v>3.229198046028614e-05</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>2.875000063795596e-05</v>
+        <v>2.941599814221263e-05</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>3.133299469482154e-05</v>
+        <v>3.116700099781156e-05</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>2.87080038106069e-05</v>
+        <v>3.129203105345368e-05</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>2.862499968614429e-05</v>
+        <v>3.250001464039087e-05</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>3.120799374300987e-05</v>
+        <v>3.012496745213866e-05</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>3.124999057035893e-05</v>
+        <v>2.975005190819502e-05</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>2.970799687318504e-05</v>
+        <v>3.249995643272996e-05</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>2.762499207165092e-05</v>
+        <v>3.337499219924212e-05</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>2.366599801462144e-05</v>
+        <v>3.258301876485348e-05</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>2.312500146217644e-05</v>
+        <v>3.112503327429295e-05</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>2.28749995585531e-05</v>
+        <v>2.954201772809029e-05</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>2.72920005954802e-05</v>
+        <v>3.233301686123013e-05</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>2.516699896659702e-05</v>
+        <v>3.279198426753283e-05</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>2.400000812485814e-05</v>
+        <v>3.291602479293942e-05</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>2.641600440256298e-05</v>
+        <v>3.295799251645803e-05</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>2.949999179691076e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>2.420801320113242e-05</v>
+        <v>2.387497806921601e-05</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>2.466700971126556e-05</v>
+        <v>2.37500062212348e-05</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>2.46250128839165e-05</v>
+        <v>2.408295404165983e-05</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>2.454199420753866e-05</v>
+        <v>2.949999179691076e-05</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>2.474999928381294e-05</v>
+        <v>2.520903944969177e-05</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>2.458399103488773e-05</v>
+        <v>2.504204167053103e-05</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>2.416700590401888e-05</v>
+        <v>2.945802407339215e-05</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>2.458400558680296e-05</v>
+        <v>2.841599052771926e-05</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>2.483300340827554e-05</v>
+        <v>2.575002145022154e-05</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>2.433398913126439e-05</v>
+        <v>2.504204167053103e-05</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>2.416699135210365e-05</v>
+        <v>2.600002335384488e-05</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>2.441700780764222e-05</v>
+        <v>2.529204357415438e-05</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>2.429200685583055e-05</v>
+        <v>2.591701922938228e-05</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>2.454199420753866e-05</v>
+        <v>2.525001764297485e-05</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>2.462499833200127e-05</v>
+        <v>2.566701732575893e-05</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>2.437501098029315e-05</v>
+        <v>2.600002335384488e-05</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>3.229100548196584e-05</v>
+        <v>3.062497125938535e-05</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>3.262500104028732e-05</v>
+        <v>3.141694469377398e-05</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>3.133299469482154e-05</v>
+        <v>2.54589831456542e-05</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>2.941700222436339e-05</v>
+        <v>2.541695721447468e-05</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>3.250000008847564e-05</v>
+        <v>2.55000195465982e-05</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>3.070798993576318e-05</v>
+        <v>3.375002415850759e-05</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>3.116700099781156e-05</v>
+        <v>3.379205008968711e-05</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>3.245798870921135e-05</v>
+        <v>3.362499410286546e-05</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>3.283299156464636e-05</v>
+        <v>3.033300163224339e-05</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>2.624999615363777e-05</v>
+        <v>3.070896491408348e-05</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>2.366700209677219e-05</v>
+        <v>3.391597419977188e-05</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>2.379200304858387e-05</v>
+        <v>3.366702003404498e-05</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>2.391700400039554e-05</v>
+        <v>3.341701813042164e-05</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>2.391599991824478e-05</v>
+        <v>3.283395199105144e-05</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>2.750000567175448e-05</v>
+        <v>3.054202534258366e-05</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>3.145799564663321e-05</v>
+        <v>3.404205199331045e-05</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>3.166700480505824e-05</v>
+        <v>3.137503517791629e-05</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>3.241699596401304e-05</v>
+        <v>2.475001383572817e-05</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>3.15000070258975e-05</v>
+        <v>2.491596387699246e-05</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>2.9875009204261e-05</v>
+        <v>2.491695340722799e-05</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>3.095899592153728e-05</v>
+        <v>2.48750438913703e-05</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>3.491700044833124e-05</v>
+        <v>2.495798980817199e-05</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>3.358299727551639e-05</v>
+        <v>3.129197284579277e-05</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>3.362500865478069e-05</v>
+        <v>3.450002986937761e-05</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>3.337500675115734e-05</v>
+        <v>3.399996785447001e-05</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>2.770801074802876e-05</v>
+        <v>3.145798109471798e-05</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>3.349999315105379e-05</v>
+        <v>3.458402352407575e-05</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>3.39170073857531e-05</v>
+        <v>3.441597800701857e-05</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>3.358299727551639e-05</v>
+        <v>3.454199759289622e-05</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>3.262500104028732e-05</v>
+        <v>3.987498348578811e-05</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>3.320800897199661e-05</v>
+        <v>3.441702574491501e-05</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>3.083299088757485e-05</v>
+        <v>3.270804882049561e-05</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>3.412499791011214e-05</v>
+        <v>3.133300924673676e-05</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>3.399999695830047e-05</v>
+        <v>3.491598181426525e-05</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>3.404199378564954e-05</v>
+        <v>3.208301495760679e-05</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>3.320800897199661e-05</v>
+        <v>3.241602098569274e-05</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>3.341599949635565e-05</v>
+        <v>3.374996595084667e-05</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>3.083300543949008e-05</v>
+        <v>3.50000336766243e-05</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>3.445800393819809e-05</v>
+        <v>3.487500362098217e-05</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>3.408300108276308e-05</v>
+        <v>3.237498458474874e-05</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>3.412499791011214e-05</v>
+        <v>2.979201963171363e-05</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>3.091699909418821e-05</v>
+        <v>3.512500552460551e-05</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>3.145799564663321e-05</v>
+        <v>3.516598371788859e-05</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>3.454100806266069e-05</v>
+        <v>3.566604573279619e-05</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>3.320899850223213e-05</v>
+        <v>3.604200901463628e-05</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>3.470800584182143e-05</v>
+        <v>2.987496554851532e-05</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>3.462500171735883e-05</v>
+        <v>3.499997546896338e-05</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>3.38749960064888e-05</v>
+        <v>3.533303970471025e-05</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>3.208300040569156e-05</v>
+        <v>3.525003558024764e-05</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>3.079100861214101e-05</v>
+        <v>3.554200520738959e-05</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>3.266699786763638e-05</v>
+        <v>3.541703335940838e-05</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>3.466699854470789e-05</v>
+        <v>3.320799442008138e-05</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>3.491700044833124e-05</v>
+        <v>3.145798109471798e-05</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>3.495800774544477e-05</v>
+        <v>3.549997927621007e-05</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>3.495799319352955e-05</v>
+        <v>3.483297768980265e-05</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>3.554199065547436e-05</v>
+        <v>3.333302447572351e-05</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>3.329200262669474e-05</v>
+        <v>3.162497887387872e-05</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>3.083299088757485e-05</v>
+        <v>3.362499410286546e-05</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>3.358400135766715e-05</v>
+        <v>3.60840349458158e-05</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>3.499999002087861e-05</v>
+        <v>3.579194890335202e-05</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>3.195900353603065e-05</v>
+        <v>4.591699689626694e-05</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>3.13749915221706e-05</v>
+        <v>3.420794382691383e-05</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>3.508399822749197e-05</v>
+        <v>3.0792027246207e-05</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>3.504099731799215e-05</v>
+        <v>3.604200901463628e-05</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>3.450000076554716e-05</v>
+        <v>3.575003938749433e-05</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>3.39170073857531e-05</v>
+        <v>3.608397673815489e-05</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>3.191700670868158e-05</v>
+        <v>3.616703907027841e-05</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>3.49589972756803e-05</v>
+        <v>3.595801535993814e-05</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>3.537500742822886e-05</v>
+        <v>3.616599133238196e-05</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>3.650000144261867e-05</v>
+        <v>3.620801726356149e-05</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>3.191700670868158e-05</v>
+        <v>3.32500203512609e-05</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>3.129200194962323e-05</v>
+        <v>3.241701051592827e-05</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>3.37919918820262e-05</v>
+        <v>3.591703716665506e-05</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>3.39580001309514e-05</v>
+        <v>3.570894477888942e-05</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>2.925000444520265e-05</v>
+        <v>3.650004509836435e-05</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>3.366699093021452e-05</v>
+        <v>3.654195461422205e-05</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>3.57089884346351e-05</v>
+        <v>3.662501694634557e-05</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>3.5834003938362e-05</v>
+        <v>3.649998689070344e-05</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>3.545900108292699e-05</v>
+        <v>3.658299101516604e-05</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>3.624999953899533e-05</v>
+        <v>3.674998879432678e-05</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>3.570900298655033e-05</v>
+        <v>3.25420405715704e-05</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>3.416699473746121e-05</v>
+        <v>3.475003177300096e-05</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>3.262500104028732e-05</v>
+        <v>3.662501694634557e-05</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>3.408400516491383e-05</v>
+        <v>3.487500362098217e-05</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>3.512500552460551e-05</v>
+        <v>3.67500470019877e-05</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>2.720901102293283e-05</v>
+        <v>3.691698657348752e-05</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>3.624999953899533e-05</v>
+        <v>3.704201662912965e-05</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>3.591700806282461e-05</v>
+        <v>3.724999260157347e-05</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>3.633300366345793e-05</v>
+        <v>3.695901250466704e-05</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>3.620800271164626e-05</v>
+        <v>3.699999069795012e-05</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>3.541700425557792e-05</v>
+        <v>3.704102709889412e-05</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>3.345799632370472e-05</v>
+        <v>3.491702955216169e-05</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>3.537499287631363e-05</v>
+        <v>3.254198236390948e-05</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>3.524999192450196e-05</v>
+        <v>3.712496254593134e-05</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>3.599999763537198e-05</v>
+        <v>3.691599704325199e-05</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>3.512499097269028e-05</v>
+        <v>3.708299482241273e-05</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>3.491700044833124e-05</v>
+        <v>3.295799251645803e-05</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>3.537499287631363e-05</v>
+        <v>3.516598371788859e-05</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>3.454199759289622e-05</v>
+        <v>3.699999069795012e-05</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>3.22499981848523e-05</v>
+        <v>3.720796667039394e-05</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>3.55829979525879e-05</v>
+        <v>3.516697324812412e-05</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>3.691700112540275e-05</v>
+        <v>3.737496444955468e-05</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>3.683299291878939e-05</v>
+        <v>3.683398244902492e-05</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>3.662500239443034e-05</v>
+        <v>3.745796857401729e-05</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>3.687500429805368e-05</v>
+        <v>3.73750226572156e-05</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>3.679200017359108e-05</v>
+        <v>3.741600085049868e-05</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>3.316599759273231e-05</v>
+        <v>3.758299862965941e-05</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>3.250000008847564e-05</v>
+        <v>3.745901631191373e-05</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>3.54999938281253e-05</v>
+        <v>3.745796857401729e-05</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>3.645899414550513e-05</v>
+        <v>3.858300624415278e-05</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>3.808399196714163e-05</v>
+        <v>3.62499849870801e-05</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>3.720801032613963e-05</v>
+        <v>3.766600275412202e-05</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>2.937499084509909e-05</v>
+        <v>3.683299291878939e-05</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>3.500000457279384e-05</v>
+        <v>3.774999640882015e-05</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>3.716599894687533e-05</v>
+        <v>3.779103280976415e-05</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>3.704200207721442e-05</v>
+        <v>3.787502646446228e-05</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>3.737499355338514e-05</v>
+        <v>3.783399006351829e-05</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>3.71249916497618e-05</v>
+        <v>3.770797047764063e-05</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>2.941700222436339e-05</v>
+        <v>3.799999831244349e-05</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>2.741700154729187e-05</v>
+        <v>3.699999069795012e-05</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>2.758399932645261e-05</v>
+        <v>2.862501423805952e-05</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>3.516700235195458e-05</v>
+        <v>2.804200630635023e-05</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>2.858399238903075e-05</v>
+        <v>3.129098331555724e-05</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>3.845899482257664e-05</v>
+        <v>3.020797157660127e-05</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>4.141699173487723e-05</v>
+        <v>2.887501614168286e-05</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>3.004200698342174e-05</v>
+        <v>2.929201582446694e-05</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>2.941599814221263e-05</v>
+        <v>2.979201963171363e-05</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>3.783300053328276e-05</v>
+        <v>3.954203566536307e-05</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>2.904199936892837e-05</v>
+        <v>2.979196142405272e-05</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>2.929200127255172e-05</v>
+        <v>2.912501804530621e-05</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>2.895800571423024e-05</v>
+        <v>3.020797157660127e-05</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>3.46249871654436e-05</v>
+        <v>4.145799903199077e-05</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>3.05419962387532e-05</v>
+        <v>3.070797538384795e-05</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>2.929099719040096e-05</v>
+        <v>2.991699147969484e-05</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>3.170799755025655e-05</v>
+        <v>3.083399496972561e-05</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>3.599999763537198e-05</v>
+        <v>3.033300163224339e-05</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>3.71249916497618e-05</v>
+        <v>3.004097379744053e-05</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>3.816701064351946e-05</v>
+        <v>2.983299782499671e-05</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>3.662498784251511e-05</v>
+        <v>3.075000131502748e-05</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>3.450000076554716e-05</v>
+        <v>4.316697595641017e-05</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>3.720801032613963e-05</v>
+        <v>3.791699418798089e-05</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>3.799999831244349e-05</v>
+        <v>3.966700751334429e-05</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>3.845799074042588e-05</v>
+        <v>3.758299862965941e-05</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>3.837500116787851e-05</v>
+        <v>3.93329537473619e-05</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>3.837498661596328e-05</v>
+        <v>3.983295755460858e-05</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>3.279199881944805e-05</v>
+        <v>3.975001163780689e-05</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>2.799999492708594e-05</v>
+        <v>3.945804201066494e-05</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>2.804100222419947e-05</v>
+        <v>3.333296626806259e-05</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>2.820800000336021e-05</v>
+        <v>2.904096618294716e-05</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>3.416699473746121e-05</v>
+        <v>2.90830503217876e-05</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>3.741700493264943e-05</v>
+        <v>2.908299211412668e-05</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>3.55829979525879e-05</v>
+        <v>2.929195761680603e-05</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>3.237499913666397e-05</v>
+        <v>3.56250093318522e-05</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>3.15000070258975e-05</v>
+        <v>3.666698466986418e-05</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>3.700000524986535e-05</v>
+        <v>4.000001354143023e-05</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>2.95409990940243e-05</v>
+        <v>5.070795305073261e-05</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>2.999999560415745e-05</v>
+        <v>3.67500470019877e-05</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>3.954200656153262e-05</v>
+        <v>3.999995533376932e-05</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>3.100000321865082e-05</v>
+        <v>3.129203105345368e-05</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>3.012499655596912e-05</v>
+        <v>3.10409814119339e-05</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>3.670899604912847e-05</v>
+        <v>3.312499029561877e-05</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>3.404199378564954e-05</v>
+        <v>3.0792027246207e-05</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>2.979199052788317e-05</v>
+        <v>3.158301115036011e-05</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>3.066699719056487e-05</v>
+        <v>3.070896491408348e-05</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>3.937499423045665e-05</v>
+        <v>4.074996104463935e-05</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>3.033300163224339e-05</v>
+        <v>3.191700670868158e-05</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>3.041700983885676e-05</v>
+        <v>3.170798299834132e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>3.033400571439415e-05</v>
+        <v>3.14170029014349e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>3.066600766032934e-05</v>
+        <v>3.091699909418821e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/bst_list/search.xlsx
+++ b/outputs/bst_list/search.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.125045284628868e-06</v>
+        <v>2.04198295250535e-06</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.750357665121555e-07</v>
+        <v>6.249756552278996e-07</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.500057108700275e-07</v>
+        <v>5.839974619448185e-07</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.25033862888813e-07</v>
+        <v>5.839974619448185e-07</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.92031642049551e-07</v>
+        <v>7.910421118140221e-07</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.499475032091141e-07</v>
+        <v>8.330098353326321e-07</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.330098353326321e-07</v>
+        <v>8.33999365568161e-07</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.04198295250535e-06</v>
+        <v>2.124987076967955e-06</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.92031642049551e-07</v>
+        <v>7.910421118140221e-07</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.830079317092896e-07</v>
+        <v>6.249756552278996e-07</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.00003807246685e-07</v>
+        <v>5.830079317092896e-07</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.00003807246685e-07</v>
+        <v>6.249756552278996e-07</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.41971530765295e-07</v>
+        <v>5.420297384262085e-07</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.67001586407423e-07</v>
+        <v>6.249756552278996e-07</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.25033862888813e-07</v>
+        <v>6.249756552278996e-07</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.67001586407423e-07</v>
+        <v>6.660120561718941e-07</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.499953214079142e-06</v>
+        <v>7.079797796905041e-07</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.919734343886375e-07</v>
+        <v>7.92031642049551e-07</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.910421118140221e-07</v>
+        <v>7.500057108700275e-07</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.909839041531086e-07</v>
+        <v>7.919734343886375e-07</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.909839041531086e-07</v>
+        <v>8.33999365568161e-07</v>
       </c>
     </row>
     <row r="23">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.330098353326321e-07</v>
+        <v>8.834002073854208e-06</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8.749775588512421e-07</v>
+        <v>2.791988663375378e-06</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8.750357665121555e-07</v>
+        <v>2.749962732195854e-06</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.667009200900793e-06</v>
+        <v>2.62499088421464e-06</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.579816833138466e-07</v>
+        <v>2.917018719017506e-06</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.00000761449337e-06</v>
+        <v>2.709042746573687e-06</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.00000761449337e-06</v>
+        <v>2.790999133139849e-06</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.00000761449337e-06</v>
+        <v>2.999964635819197e-06</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.042033545672894e-06</v>
+        <v>2.958986442536116e-06</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.042033545672894e-06</v>
+        <v>2.874992787837982e-06</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.250009518116713e-06</v>
+        <v>3.374996595084667e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.166015863418579e-06</v>
+        <v>3.00002284348011e-06</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.833017449826002e-06</v>
+        <v>3.374996595084667e-06</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.167005393654108e-06</v>
+        <v>3.291002940386534e-06</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.250009518116713e-06</v>
+        <v>3.415974788367748e-06</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.250009518116713e-06</v>
+        <v>3.499968443065882e-06</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.250009518116713e-06</v>
+        <v>3.291992470622063e-06</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.291977241635323e-06</v>
+        <v>3.541994374245405e-06</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.375039573758841e-06</v>
+        <v>4.00003045797348e-06</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.333013642579317e-06</v>
+        <v>3.582972567528486e-06</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.459033228456974e-06</v>
+        <v>3.584020305424929e-06</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.458043698221445e-06</v>
+        <v>4.249974153935909e-06</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.417007297277451e-06</v>
+        <v>3.875000402331352e-06</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.457985490560532e-06</v>
+        <v>3.833032678812742e-06</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.457985490560532e-06</v>
+        <v>4.292000085115433e-06</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.541979145258665e-06</v>
+        <v>4.04199818149209e-06</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.541979145258665e-06</v>
+        <v>4.292000085115433e-06</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.540989615023136e-06</v>
+        <v>4.333967808634043e-06</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.58301554620266e-06</v>
+        <v>4.333036486059427e-06</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.58301554620266e-06</v>
+        <v>4.541012458503246e-06</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.750013325363398e-06</v>
+        <v>4.667032044380903e-06</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.457993105053902e-06</v>
+        <v>4.749977961182594e-06</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.709035132080317e-06</v>
+        <v>5.332985892891884e-06</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.709035132080317e-06</v>
+        <v>5.00003807246685e-06</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.708045601844788e-06</v>
+        <v>5.00003807246685e-06</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.750013325363398e-06</v>
+        <v>5.082983989268541e-06</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.750013325363398e-06</v>
+        <v>5.082983989268541e-06</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.792039256542921e-06</v>
+        <v>5.209003575146198e-06</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.541986759752035e-06</v>
+        <v>5.208014044910669e-06</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.875043381005526e-06</v>
+        <v>5.375011824071407e-06</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.874985173344612e-06</v>
+        <v>5.415990017354488e-06</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.874985173344612e-06</v>
+        <v>5.458015948534012e-06</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.167013008147478e-06</v>
+        <v>6.916001439094543e-06</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.083019353449345e-06</v>
+        <v>6.04201341047883e-06</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.833025064319372e-06</v>
+        <v>5.959009286016226e-06</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.125045284628868e-06</v>
+        <v>6.082991603761911e-06</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.125045284628868e-06</v>
+        <v>6.082991603761911e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.124987076967955e-06</v>
+        <v>6.166985258460045e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.167013008147478e-06</v>
+        <v>6.249989382922649e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.167013008147478e-06</v>
+        <v>6.375019438564777e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.250017132610083e-06</v>
+        <v>6.332993507385254e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.374988980591297e-06</v>
+        <v>3.595801535993814e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.249958924949169e-06</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.250017132610083e-06</v>
+        <v>5.791021976619959e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.62499088421464e-06</v>
+        <v>2.916960511356592e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.500019036233425e-06</v>
+        <v>2.499960828572512e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.500019036233425e-06</v>
+        <v>2.542044967412949e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.500019036233425e-06</v>
+        <v>2.540997229516506e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.500019036233425e-06</v>
+        <v>2.708984538912773e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.500019036233425e-06</v>
+        <v>2.541986759752035e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.541986759752035e-06</v>
+        <v>2.62499088421464e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.625049091875553e-06</v>
+        <v>2.500019036233425e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.66695860773325e-06</v>
+        <v>2.58302316069603e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.62499088421464e-06</v>
+        <v>2.707995008677244e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.708984538912773e-06</v>
+        <v>2.750020939856768e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.667016815394163e-06</v>
+        <v>2.750020939856768e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.750020939856768e-06</v>
+        <v>2.790999133139849e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.62499849870801e-06</v>
+        <v>2.999964635819197e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.957996912300587e-06</v>
+        <v>2.917018719017506e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.958986442536116e-06</v>
+        <v>2.833025064319372e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.124994691461325e-06</v>
+        <v>2.999964635819197e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.082968760281801e-06</v>
+        <v>3.00002284348011e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.708002623170614e-06</v>
+        <v>3.00002284348011e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.04199056699872e-06</v>
+        <v>2.999964635819197e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.084016498178244e-06</v>
+        <v>3.00002284348011e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.124994691461325e-06</v>
+        <v>3.082968760281801e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.167020622640848e-06</v>
+        <v>3.00002284348011e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.167020622640848e-06</v>
+        <v>3.041001036763191e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.167020622640848e-06</v>
+        <v>3.291992470622063e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.124994691461325e-06</v>
+        <v>3.042048774659634e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.00003045797348e-06</v>
+        <v>3.124994691461325e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.207998815923929e-06</v>
+        <v>3.165972884744406e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.499968443065882e-06</v>
+        <v>3.665976691991091e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.583962097764015e-06</v>
+        <v>3.458990249782801e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.166038706898689e-06</v>
+        <v>3.417022526264191e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.459048457443714e-06</v>
+        <v>3.333028871566057e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.458000719547272e-06</v>
+        <v>3.541004844009876e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.458000719547272e-06</v>
+        <v>3.374996595084667e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.458000719547272e-06</v>
+        <v>3.417022526264191e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.584020305424929e-06</v>
+        <v>3.499968443065882e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.5830307751894e-06</v>
+        <v>3.708002623170614e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.666034899652004e-06</v>
+        <v>3.541994374245405e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.667024429887533e-06</v>
+        <v>3.584020305424929e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.708002623170614e-06</v>
+        <v>3.541004844009876e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.750028554350138e-06</v>
+        <v>3.500026650726795e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.584027919918299e-06</v>
+        <v>3.749970346689224e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.790948539972305e-06</v>
+        <v>3.62499849870801e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.708002623170614e-06</v>
+        <v>3.791996277868748e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.834022209048271e-06</v>
+        <v>3.62499849870801e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.750028554350138e-06</v>
+        <v>3.666034899652004e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.124944098293781e-06</v>
+        <v>4.374946001917124e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.041008651256561e-06</v>
+        <v>4.00003045797348e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.041008651256561e-06</v>
+        <v>4.084024112671614e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.082976374775171e-06</v>
+        <v>3.916968125849962e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.04199818149209e-06</v>
+        <v>3.875000402331352e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.04199818149209e-06</v>
+        <v>3.958004526793957e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.041008651256561e-06</v>
+        <v>3.875000402331352e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.792003892362118e-06</v>
+        <v>3.958994057029486e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.207948222756386e-06</v>
+        <v>4.04199818149209e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.125002305954695e-06</v>
+        <v>4.04199818149209e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.292000085115433e-06</v>
+        <v>4.125002305954695e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.875008016824722e-06</v>
+        <v>3.999972250312567e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.250032361596823e-06</v>
+        <v>4.208006430417299e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.208006430417299e-06</v>
+        <v>4.125002305954695e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.334026016294956e-06</v>
+        <v>4.083034582436085e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.375004209578037e-06</v>
+        <v>4.291010554879904e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.417030140757561e-06</v>
+        <v>4.166970029473305e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.332978278398514e-06</v>
+        <v>4.166038706898689e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.165988113731146e-06</v>
+        <v>4.29095234721899e-06</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.375004209578037e-06</v>
+        <v>4.458008334040642e-06</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.499976057559252e-06</v>
+        <v>4.333036486059427e-06</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.540954250842333e-06</v>
+        <v>4.417030140757561e-06</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.665991920977831e-06</v>
+        <v>4.458008334040642e-06</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.500034265220165e-06</v>
+        <v>4.374946001917124e-06</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.666042514145374e-06</v>
+        <v>4.375004209578037e-06</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.249981768429279e-06</v>
+        <v>4.58303838968277e-06</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.66697383671999e-06</v>
+        <v>4.417030140757561e-06</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.708999767899513e-06</v>
+        <v>4.66697383671999e-06</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.708999767899513e-06</v>
+        <v>4.500034265220165e-06</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.417037755250931e-06</v>
+        <v>4.582980182021856e-06</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.875008016824722e-06</v>
+        <v>4.541012458503246e-06</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.708010237663984e-06</v>
+        <v>4.792003892362118e-06</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.875008016824722e-06</v>
+        <v>4.541012458503246e-06</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.792003892362118e-06</v>
+        <v>4.499976057559252e-06</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.958012141287327e-06</v>
+        <v>4.665984306484461e-06</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.791014362126589e-06</v>
+        <v>4.66697383671999e-06</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.624955520033836e-06</v>
+        <v>4.833040293306112e-06</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.874949809163809e-06</v>
+        <v>4.667032044380903e-06</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.00003807246685e-06</v>
+        <v>4.708010237663984e-06</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.709007382392883e-06</v>
+        <v>4.916975740343332e-06</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.125009920448065e-06</v>
+        <v>4.792003892362118e-06</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.916044417768717e-06</v>
+        <v>4.792003892362118e-06</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.749985575675964e-06</v>
+        <v>4.790956154465675e-06</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.292007699608803e-06</v>
+        <v>5.083042196929455e-06</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.499983672052622e-06</v>
+        <v>5.375011824071407e-06</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>6.04201341047883e-06</v>
+        <v>5.082983989268541e-06</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.292007699608803e-06</v>
+        <v>5.250039976090193e-06</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.208014044910669e-06</v>
+        <v>5.417037755250931e-06</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>6.125017534941435e-06</v>
+        <v>5.333975423127413e-06</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.416979547590017e-06</v>
+        <v>5.292007699608803e-06</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.416979547590017e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6.208021659404039e-06</v>
+        <v>5.415990017354488e-06</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.499983672052622e-06</v>
+        <v>5.208945367485285e-06</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.416048225015402e-06</v>
+        <v>5.249981768429279e-06</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6.167043466120958e-06</v>
+        <v>5.332985892891884e-06</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.458015948534012e-06</v>
+        <v>5.417037755250931e-06</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.500041879713535e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6.249989382922649e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.708017852157354e-06</v>
+        <v>5.416048225015402e-06</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.540961865335703e-06</v>
+        <v>5.417037755250931e-06</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6.332993507385254e-06</v>
+        <v>5.375011824071407e-06</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.62501372769475e-06</v>
+        <v>5.458015948534012e-06</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.791021976619959e-06</v>
+        <v>5.417037755250931e-06</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6.499991286545992e-06</v>
+        <v>5.542009603232145e-06</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.874957423657179e-06</v>
+        <v>5.542009603232145e-06</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.874957423657179e-06</v>
+        <v>5.749985575675964e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6.458023563027382e-06</v>
+        <v>5.665991920977831e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.749985575675964e-06</v>
+        <v>5.833979230374098e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.875015631318092e-06</v>
+        <v>5.66698145121336e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6.58305361866951e-06</v>
+        <v>5.58304600417614e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.917041562497616e-06</v>
+        <v>5.832989700138569e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.957961548119783e-06</v>
+        <v>5.62501372769475e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>6.624963134527206e-06</v>
+        <v>5.833047907799482e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6.04201341047883e-06</v>
+        <v>5.709007382392883e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.875015631318092e-06</v>
+        <v>5.915993824601173e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>6.082991603761911e-06</v>
+        <v>5.833979230374098e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>6.125017534941435e-06</v>
+        <v>5.915993824601173e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>6.708025466650724e-06</v>
+        <v>5.832989700138569e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>6.207963451743126e-06</v>
+        <v>5.833979230374098e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6.040965672582388e-06</v>
+        <v>6.082991603761911e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6.916990969330072e-06</v>
+        <v>6.08398113399744e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>6.040965672582388e-06</v>
+        <v>6.124959327280521e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6.041023880243301e-06</v>
+        <v>5.916983354836702e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6.249989382922649e-06</v>
+        <v>6.209011189639568e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6.125017534941435e-06</v>
+        <v>6.333051715046167e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6.333983037620783e-06</v>
+        <v>6.08398113399744e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.416987162083387e-06</v>
+        <v>6.04201341047883e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6.334041245281696e-06</v>
+        <v>6.249989382922649e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6.292015314102173e-06</v>
+        <v>6.207963451743126e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>7.166992872953415e-06</v>
+        <v>6.292015314102173e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.416987162083387e-06</v>
+        <v>6.250047590583563e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>6.332993507385254e-06</v>
+        <v>6.208021659404039e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>7.208029273897409e-06</v>
+        <v>6.124959327280521e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>6.499991286545992e-06</v>
+        <v>6.416987162083387e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>6.542017217725515e-06</v>
+        <v>6.374961230903864e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>6.209011189639568e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6.459013093262911e-06</v>
+        <v>6.375019438564777e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6.624963134527206e-06</v>
+        <v>6.333983037620783e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>7.207971066236496e-06</v>
+        <v>6.291957106441259e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6.458023563027382e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>6.415997631847858e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6.542017217725515e-06</v>
+        <v>6.332993507385254e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2298,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>6.415997631847858e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6.832997314631939e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6.832997314631939e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>7.416994776576757e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6.874965038150549e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6.792019121348858e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>6.707967258989811e-06</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6.832997314631939e-06</v>
+        <v>6.790971383452415e-06</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7.458031177520752e-06</v>
+        <v>7.124966941773891e-06</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>6.875023245811462e-06</v>
+        <v>6.832997314631939e-06</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7.0420210249722e-06</v>
+        <v>6.790971383452415e-06</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7.665948942303658e-06</v>
+        <v>6.957969162613153e-06</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>6.958027370274067e-06</v>
+        <v>6.792019121348858e-06</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>6.999995093792677e-06</v>
+        <v>6.875023245811462e-06</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7.750000804662704e-06</v>
+        <v>7.166992872953415e-06</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>6.957969162613153e-06</v>
+        <v>6.916001439094543e-06</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>7.790978997945786e-06</v>
+        <v>6.958027370274067e-06</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7.082999218255281e-06</v>
+        <v>6.916001439094543e-06</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7.249996997416019e-06</v>
+        <v>7.125025149434805e-06</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>7.166003342717886e-06</v>
+        <v>6.999995093792677e-06</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7.082999218255281e-06</v>
+        <v>7.0420210249722e-06</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>7.249996997416019e-06</v>
+        <v>7.166003342717886e-06</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>7.249996997416019e-06</v>
+        <v>7.124966941773891e-06</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>7.125025149434805e-06</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>7.249996997416019e-06</v>
+        <v>7.291964720934629e-06</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>7.458031177520752e-06</v>
+        <v>7.125025149434805e-06</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>7.540977094322443e-06</v>
+        <v>7.499998901039362e-06</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>7.416994776576757e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>7.249996997416019e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>7.417052984237671e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>7.416005246341228e-06</v>
+        <v>7.458031177520752e-06</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>7.540977094322443e-06</v>
+        <v>7.416005246341228e-06</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>8.167000487446785e-06</v>
+        <v>7.833994459360838e-06</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>7.62502895668149e-06</v>
+        <v>7.583992555737495e-06</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>7.458962500095367e-06</v>
+        <v>8.125032763928175e-06</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>8.333998266607523e-06</v>
+        <v>7.708033081144094e-06</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>7.542024832218885e-06</v>
+        <v>7.750000804662704e-06</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>7.791037205606699e-06</v>
+        <v>7.70896440371871e-06</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>7.875030860304832e-06</v>
+        <v>7.833004929125309e-06</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>7.70896440371871e-06</v>
+        <v>7.583003025501966e-06</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>7.750000804662704e-06</v>
+        <v>7.624970749020576e-06</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>7.832946721464396e-06</v>
+        <v>7.833994459360838e-06</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>7.833004929125309e-06</v>
+        <v>8.500006515532732e-06</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>8.790986612439156e-06</v>
+        <v>7.70896440371871e-06</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>7.709022611379623e-06</v>
+        <v>7.834052667021751e-06</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>8.583010639995337e-06</v>
+        <v>7.833004929125309e-06</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>7.957976777106524e-06</v>
+        <v>8.000002708286047e-06</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>8.624978363513947e-06</v>
+        <v>7.833004929125309e-06</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7.957976777106524e-06</v>
+        <v>8.040980901569128e-06</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>7.958034984767437e-06</v>
+        <v>8.584000170230865e-06</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>8.125032763928175e-06</v>
+        <v>8.167000487446785e-06</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>8.124974556267262e-06</v>
+        <v>8.166010957211256e-06</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>8.750008419156075e-06</v>
+        <v>8.250004611909389e-06</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>8.125032763928175e-06</v>
+        <v>8.124974556267262e-06</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>8.874980267137289e-06</v>
+        <v>8.167000487446785e-06</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>8.124974556267262e-06</v>
+        <v>8.209026418626308e-06</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>8.917006198316813e-06</v>
+        <v>8.250004611909389e-06</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>8.250004611909389e-06</v>
+        <v>8.417002391070127e-06</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>8.250004611909389e-06</v>
+        <v>8.583010639995337e-06</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>8.500006515532732e-06</v>
+        <v>8.457980584353209e-06</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>8.417002391070127e-06</v>
+        <v>8.291972335427999e-06</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>9.041978046298027e-06</v>
+        <v>9.084003977477551e-06</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>8.332950528711081e-06</v>
+        <v>8.458038792014122e-06</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>8.375034667551517e-06</v>
+        <v>8.542032446712255e-06</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>9.166018571704626e-06</v>
+        <v>8.790986612439156e-06</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>8.541974239051342e-06</v>
+        <v>8.584000170230865e-06</v>
       </c>
     </row>
     <row r="299">
@@ -2834,7 +2834,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>9.165960364043713e-06</v>
+        <v>8.707982487976551e-06</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>8.541974239051342e-06</v>
+        <v>8.542032446712255e-06</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>9.082956239581108e-06</v>
+        <v>8.582952432334423e-06</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>8.70897201821208e-06</v>
+        <v>8.750008419156075e-06</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>8.66700429469347e-06</v>
+        <v>8.583010639995337e-06</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>8.834002073854208e-06</v>
+        <v>8.62503657117486e-06</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>8.791976142674685e-06</v>
+        <v>8.958973921835423e-06</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>9.500014130026102e-06</v>
+        <v>8.791976142674685e-06</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>8.70897201821208e-06</v>
+        <v>8.707982487976551e-06</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>9.417010005563498e-06</v>
+        <v>9.33394767343998e-06</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>9.042036253958941e-06</v>
+        <v>8.874980267137289e-06</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>9.750016033649445e-06</v>
+        <v>9.833020158112049e-06</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>9.167008101940155e-06</v>
+        <v>9.499955922365189e-06</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>9.416020475327969e-06</v>
+        <v>9.124982170760632e-06</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>9.624985978007317e-06</v>
+        <v>9.917013812810183e-06</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>9.249954018741846e-06</v>
+        <v>9.207986295223236e-06</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>9.999959729611874e-06</v>
+        <v>9.417010005563498e-06</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>9.292038157582283e-06</v>
+        <v>9.166018571704626e-06</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>9.917013812810183e-06</v>
+        <v>9.20804450288415e-06</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>9.500014130026102e-06</v>
+        <v>9.25001222640276e-06</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>9.958981536328793e-06</v>
+        <v>9.207986295223236e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>9.415962267667055e-06</v>
+        <v>9.62504418566823e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1.020799390971661e-05</v>
+        <v>9.25001222640276e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>9.374984074383974e-06</v>
+        <v>9.375042282044888e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>1.024996163323522e-05</v>
+        <v>9.707990102469921e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>9.666022378951311e-06</v>
+        <v>9.750016033649445e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>1.033296575769782e-05</v>
+        <v>9.25001222640276e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>1.024996163323522e-05</v>
+        <v>9.790994226932526e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>9.457988198846579e-06</v>
+        <v>9.374984074383974e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>1.029099803417921e-05</v>
+        <v>1.00419856607914e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>1.029198756441474e-05</v>
+        <v>9.459035936743021e-06</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>9.70897963270545e-06</v>
+        <v>9.457988198846579e-06</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>1.024996163323522e-05</v>
+        <v>9.583018254488707e-06</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>9.749957825988531e-06</v>
+        <v>9.542040061205626e-06</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>1.033401349559426e-05</v>
+        <v>9.707990102469921e-06</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>9.709037840366364e-06</v>
+        <v>9.70897963270545e-06</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>1.054198946803808e-05</v>
+        <v>9.749957825988531e-06</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>1.050002174451947e-05</v>
+        <v>9.66701190918684e-06</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>9.916955605149269e-06</v>
+        <v>9.875046089291573e-06</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>1.087499549612403e-05</v>
+        <v>9.750016033649445e-06</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>1.062499359250069e-05</v>
+        <v>9.832961950451136e-06</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>9.999959729611874e-06</v>
+        <v>9.874987881630659e-06</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>1.062499359250069e-05</v>
+        <v>9.833020158112049e-06</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>1.016596797853708e-05</v>
+        <v>9.665964171290398e-06</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>1.06669613160193e-05</v>
+        <v>1.058401539921761e-05</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>1.020898343995214e-05</v>
+        <v>1.008302206173539e-05</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>1.025001984089613e-05</v>
+        <v>9.833020158112049e-06</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>1.025001984089613e-05</v>
+        <v>9.91596607491374e-06</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>1.00419856607914e-05</v>
+        <v>9.874987881630659e-06</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>1.029198756441474e-05</v>
+        <v>9.917013812810183e-06</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>1.041701762005687e-05</v>
+        <v>9.874987881630659e-06</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>1.041695941239595e-05</v>
+        <v>9.917013812810183e-06</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>1.037499168887734e-05</v>
+        <v>1.00419856607914e-05</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>1.045799581333995e-05</v>
+        <v>1.008395338431001e-05</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>1.054099993780255e-05</v>
+        <v>1.004204386845231e-05</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>1.06669613160193e-05</v>
+        <v>1.0124989785254e-05</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>1.066701952368021e-05</v>
+        <v>1.008395338431001e-05</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>1.075002364814281e-05</v>
+        <v>1.016701571643353e-05</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>1.070799771696329e-05</v>
+        <v>1.033302396535873e-05</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>1.075002364814281e-05</v>
+        <v>1.037499168887734e-05</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>1.07499654404819e-05</v>
+        <v>1.033302396535873e-05</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>1.095898915082216e-05</v>
+        <v>1.045799581333995e-05</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>1.087499549612403e-05</v>
+        <v>1.033296575769782e-05</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>1.070904545485973e-05</v>
+        <v>1.049996353685856e-05</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>1.083302777260542e-05</v>
+        <v>1.050002174451947e-05</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>1.100002555176616e-05</v>
+        <v>1.033296575769782e-05</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>1.100002555176616e-05</v>
+        <v>1.062499359250069e-05</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>1.099996734410524e-05</v>
+        <v>1.07499654404819e-05</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>1.091603189706802e-05</v>
+        <v>1.062499359250069e-05</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>1.116597559303045e-05</v>
+        <v>1.058302586898208e-05</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>1.120899105444551e-05</v>
+        <v>1.06669613160193e-05</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1.104199327528477e-05</v>
+        <v>1.070898724719882e-05</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>1.112499739974737e-05</v>
+        <v>1.291697844862938e-05</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>1.112499739974737e-05</v>
+        <v>1.083395909518003e-05</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>1.11670233309269e-05</v>
+        <v>1.087499549612403e-05</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>1.11670233309269e-05</v>
+        <v>1.141702523455024e-05</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>1.129199517890811e-05</v>
+        <v>1.095799962058663e-05</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>1.149997115135193e-05</v>
+        <v>1.095799962058663e-05</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>1.150002935901284e-05</v>
+        <v>1.104100374504924e-05</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>1.145899295806885e-05</v>
+        <v>1.108302967622876e-05</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>1.129100564867258e-05</v>
+        <v>1.091702142730355e-05</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>1.145800342783332e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>1.166696893051267e-05</v>
+        <v>1.104100374504924e-05</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>1.137499930337071e-05</v>
+        <v>1.108401920646429e-05</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>1.137499930337071e-05</v>
+        <v>1.091696321964264e-05</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>1.154199708253145e-05</v>
+        <v>1.116597559303045e-05</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>1.145899295806885e-05</v>
+        <v>1.137499930337071e-05</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>1.166597940027714e-05</v>
+        <v>1.133402111008763e-05</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>1.170800533145666e-05</v>
+        <v>1.13330315798521e-05</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>1.158402301371098e-05</v>
+        <v>1.12500274553895e-05</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>1.166702713817358e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>1.179100945591927e-05</v>
+        <v>1.12500274553895e-05</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>1.174997305497527e-05</v>
+        <v>1.129199517890811e-05</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>1.133402111008763e-05</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>1.200003316625953e-05</v>
+        <v>1.116696512326598e-05</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>1.141603570431471e-05</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>1.18339667096734e-05</v>
+        <v>1.158402301371098e-05</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1.183402491733432e-05</v>
+        <v>1.145800342783332e-05</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>1.199997495859861e-05</v>
+        <v>1.154199708253145e-05</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1.183297717943788e-05</v>
+        <v>1.154094934463501e-05</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>1.191702904179692e-05</v>
+        <v>1.158303348347545e-05</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1.208396861329675e-05</v>
+        <v>1.137499930337071e-05</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>1.216598320752382e-05</v>
+        <v>1.199997495859861e-05</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>1.216703094542027e-05</v>
+        <v>1.212500501424074e-05</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>1.237500691786408e-05</v>
+        <v>1.191697083413601e-05</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>1.216703094542027e-05</v>
+        <v>1.199997495859861e-05</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1.224997686222196e-05</v>
+        <v>1.200003316625953e-05</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1.245900057256222e-05</v>
+        <v>1.200003316625953e-05</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>1.237500691786408e-05</v>
+        <v>1.225003506988287e-05</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>1.233298098668456e-05</v>
+        <v>1.195800723508e-05</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>1.237500691786408e-05</v>
+        <v>1.208402682095766e-05</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>1.2334028724581e-05</v>
+        <v>1.212500501424074e-05</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>1.24999787658453e-05</v>
+        <v>1.220800913870335e-05</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>1.237494871020317e-05</v>
+        <v>1.220899866893888e-05</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>1.24999787658453e-05</v>
+        <v>1.216703094542027e-05</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>1.254200469702482e-05</v>
+        <v>1.220899866893888e-05</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>1.262500882148743e-05</v>
+        <v>1.220800913870335e-05</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>1.254200469702482e-05</v>
+        <v>1.229200279340148e-05</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>1.250003697350621e-05</v>
+        <v>1.224997686222196e-05</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>1.279200660064816e-05</v>
+        <v>1.216703094542027e-05</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>1.262500882148743e-05</v>
+        <v>1.245801104232669e-05</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>1.266604522243142e-05</v>
+        <v>1.245900057256222e-05</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>1.262500882148743e-05</v>
+        <v>1.245795283466578e-05</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>1.279200660064816e-05</v>
+        <v>1.245900057256222e-05</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>1.299998257309198e-05</v>
+        <v>1.254200469702482e-05</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>1.491699367761612e-05</v>
+        <v>1.254200469702482e-05</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>1.312501262873411e-05</v>
+        <v>1.24999787658453e-05</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>1.283397432416677e-05</v>
+        <v>2.391700400039554e-05</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>1.291697844862938e-05</v>
+        <v>1.274998066946864e-05</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>1.308397622779012e-05</v>
+        <v>1.287501072511077e-05</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1.320894807577133e-05</v>
+        <v>1.270795473828912e-05</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>1.308298669755459e-05</v>
+        <v>1.266697654500604e-05</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>1.295795664191246e-05</v>
+        <v>1.254101516678929e-05</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>1.299998257309198e-05</v>
+        <v>1.270900247618556e-05</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>1.312501262873411e-05</v>
+        <v>1.270900247618556e-05</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>1.316698035225272e-05</v>
+        <v>1.25829828903079e-05</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>1.29590043798089e-05</v>
+        <v>1.266598701477051e-05</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>1.316698035225272e-05</v>
+        <v>1.270795473828912e-05</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>1.324998447671533e-05</v>
+        <v>1.279194839298725e-05</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>1.345894997939467e-05</v>
+        <v>1.283298479393125e-05</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>1.32079585455358e-05</v>
+        <v>1.283298479393125e-05</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>1.333403633907437e-05</v>
+        <v>1.30000407807529e-05</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>1.329102087765932e-05</v>
+        <v>1.291604712605476e-05</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>1.345900818705559e-05</v>
+        <v>1.291604712605476e-05</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>1.337501453235745e-05</v>
+        <v>1.29590043798089e-05</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>1.350004458799958e-05</v>
+        <v>1.299998257309198e-05</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>1.341698225587606e-05</v>
+        <v>1.29590043798089e-05</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>1.362495822831988e-05</v>
+        <v>1.29590043798089e-05</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>1.374998828396201e-05</v>
+        <v>1.304200850427151e-05</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>1.35839800350368e-05</v>
+        <v>1.304101897403598e-05</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>1.345796044915915e-05</v>
+        <v>1.31249544210732e-05</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>1.37080205604434e-05</v>
+        <v>1.31249544210732e-05</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>1.366698415949941e-05</v>
+        <v>1.316698035225272e-05</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>1.379102468490601e-05</v>
+        <v>1.316599082201719e-05</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>1.37080205604434e-05</v>
+        <v>1.304200850427151e-05</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>1.379201421514153e-05</v>
+        <v>1.316698035225272e-05</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>1.379201421514153e-05</v>
+        <v>1.333397813141346e-05</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>1.383299240842462e-05</v>
+        <v>1.320801675319672e-05</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>1.395901199430227e-05</v>
+        <v>1.333304680883884e-05</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>1.399999018758535e-05</v>
+        <v>1.433305442333221e-05</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>1.399999018758535e-05</v>
+        <v>1.370796235278249e-05</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>1.399999018758535e-05</v>
+        <v>1.37080205604434e-05</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>1.391599653288722e-05</v>
+        <v>1.362495822831988e-05</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>1.404201611876488e-05</v>
+        <v>1.387496013194323e-05</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>1.420901389792562e-05</v>
+        <v>1.383299240842462e-05</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>1.429195981472731e-05</v>
+        <v>1.383299240842462e-05</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>1.408299431204796e-05</v>
+        <v>1.387501833960414e-05</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>1.420901389792562e-05</v>
+        <v>1.395796425640583e-05</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>1.43329962156713e-05</v>
+        <v>1.395901199430227e-05</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>1.42499920912087e-05</v>
+        <v>1.395796425640583e-05</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>1.429195981472731e-05</v>
+        <v>1.391599653288722e-05</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>1.43329962156713e-05</v>
+        <v>1.40840420499444e-05</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>1.449999399483204e-05</v>
+        <v>1.404201611876488e-05</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>1.437496393918991e-05</v>
+        <v>1.412496203556657e-05</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>1.975003397092223e-05</v>
+        <v>1.408299431204796e-05</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>1.520902151241899e-05</v>
+        <v>1.420901389792562e-05</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>1.487502595409751e-05</v>
+        <v>1.395802246406674e-05</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>1.474999589845538e-05</v>
+        <v>1.42499920912087e-05</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>1.47090177051723e-05</v>
+        <v>1.404201611876488e-05</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>1.462502405047417e-05</v>
+        <v>1.404195791110396e-05</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>1.47920218296349e-05</v>
+        <v>1.433398574590683e-05</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>1.479097409173846e-05</v>
+        <v>1.420802436769009e-05</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>1.512502785772085e-05</v>
+        <v>1.437496393918991e-05</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>1.533300383016467e-05</v>
+        <v>1.42499920912087e-05</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>1.504202373325825e-05</v>
+        <v>1.437496393918991e-05</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>1.487502595409751e-05</v>
+        <v>1.429195981472731e-05</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>1.545797567814589e-05</v>
+        <v>1.454196171835065e-05</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>1.529103610664606e-05</v>
+        <v>1.449999399483204e-05</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>1.516699558123946e-05</v>
+        <v>1.441698987036943e-05</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>1.508399145677686e-05</v>
+        <v>1.437496393918991e-05</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>1.520896330475807e-05</v>
+        <v>1.47090177051723e-05</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>1.570797758176923e-05</v>
+        <v>1.479196362197399e-05</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>1.583294942975044e-05</v>
+        <v>1.48749677464366e-05</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>1.625000732019544e-05</v>
+        <v>1.50409759953618e-05</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>1.579202944412827e-05</v>
+        <v>1.48749677464366e-05</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>1.600000541657209e-05</v>
+        <v>1.487502595409751e-05</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>1.637497916817665e-05</v>
+        <v>1.487502595409751e-05</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>1.637497916817665e-05</v>
+        <v>1.479103229939938e-05</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>1.566699938848615e-05</v>
+        <v>1.47920218296349e-05</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>1.600000541657209e-05</v>
+        <v>1.487502595409751e-05</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>1.591601176187396e-05</v>
+        <v>1.470796996727586e-05</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>1.625000732019544e-05</v>
+        <v>1.495901960879564e-05</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>1.625000732019544e-05</v>
+        <v>1.504196552559733e-05</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>1.579098170623183e-05</v>
+        <v>1.487502595409751e-05</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>1.600000541657209e-05</v>
+        <v>1.487502595409751e-05</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>1.575000351294875e-05</v>
+        <v>1.508399145677686e-05</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>1.600000541657209e-05</v>
+        <v>1.48749677464366e-05</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>1.579103991389275e-05</v>
+        <v>1.512502785772085e-05</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>1.566600985825062e-05</v>
+        <v>1.49579718708992e-05</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>1.579202944412827e-05</v>
+        <v>1.508294371888041e-05</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>1.641595736145973e-05</v>
+        <v>1.524999970570207e-05</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>1.608399907127023e-05</v>
+        <v>1.529196742922068e-05</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>1.649995101615787e-05</v>
+        <v>1.520902151241899e-05</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>1.650000922381878e-05</v>
+        <v>1.520902151241899e-05</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>1.641700509935617e-05</v>
+        <v>1.524999970570207e-05</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>1.658400287851691e-05</v>
+        <v>1.520896330475807e-05</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>1.67079851962626e-05</v>
+        <v>1.529196742922068e-05</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>1.654197694733739e-05</v>
+        <v>1.537497155368328e-05</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>1.600000541657209e-05</v>
+        <v>1.537502976134419e-05</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>1.604098360985518e-05</v>
+        <v>1.529202563688159e-05</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>1.625000732019544e-05</v>
+        <v>1.537497155368328e-05</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>1.650000922381878e-05</v>
+        <v>1.524999970570207e-05</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>1.675001112744212e-05</v>
+        <v>1.554196933284402e-05</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>1.658400287851691e-05</v>
+        <v>1.554202754050493e-05</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>1.629203325137496e-05</v>
+        <v>1.562503166496754e-05</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>1.633301144465804e-05</v>
+        <v>1.550000160932541e-05</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>1.612497726455331e-05</v>
+        <v>1.575000351294875e-05</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>1.629203325137496e-05</v>
+        <v>1.570902531966567e-05</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>1.612497726455331e-05</v>
+        <v>1.570797758176923e-05</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>1.612497726455331e-05</v>
+        <v>1.575000351294875e-05</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>1.633400097489357e-05</v>
+        <v>1.562503166496754e-05</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>1.650000922381878e-05</v>
+        <v>1.575000351294875e-05</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>1.65420351549983e-05</v>
+        <v>1.583399716764688e-05</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>1.654098741710186e-05</v>
+        <v>1.583300763741136e-05</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>1.649995101615787e-05</v>
+        <v>1.595902722328901e-05</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>1.733395038172603e-05</v>
+        <v>1.583300763741136e-05</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>1.662503927946091e-05</v>
+        <v>1.595803769305348e-05</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>1.658301334828138e-05</v>
+        <v>1.600000541657209e-05</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>1.666601747274399e-05</v>
+        <v>1.595797948539257e-05</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>1.662503927946091e-05</v>
+        <v>1.616700319573283e-05</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>1.687498297542334e-05</v>
+        <v>1.604203134775162e-05</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>1.666700700297952e-05</v>
+        <v>1.616700319573283e-05</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>1.650000922381878e-05</v>
+        <v>1.616700319573283e-05</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>1.679197885096073e-05</v>
+        <v>1.608399907127023e-05</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>1.67079851962626e-05</v>
+        <v>1.620803959667683e-05</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>1.679197885096073e-05</v>
+        <v>1.629098551347852e-05</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>1.679203705862164e-05</v>
+        <v>1.61660136654973e-05</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>1.691700890660286e-05</v>
+        <v>1.625000732019544e-05</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>1.695903483778238e-05</v>
+        <v>1.629197504371405e-05</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>1.691596116870642e-05</v>
+        <v>1.629203325137496e-05</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>1.691695069894195e-05</v>
+        <v>1.64590310305357e-05</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>1.700001303106546e-05</v>
+        <v>1.629197504371405e-05</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>1.754198456183076e-05</v>
+        <v>1.645897282287478e-05</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>1.762498868629336e-05</v>
+        <v>1.641601556912065e-05</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>1.766701461747289e-05</v>
+        <v>1.641700509935617e-05</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>1.758302096277475e-05</v>
+        <v>1.654197694733739e-05</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>1.745799090713263e-05</v>
+        <v>1.662498107179999e-05</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>1.716695260256529e-05</v>
+        <v>1.670897472649813e-05</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>1.762504689395428e-05</v>
+        <v>1.658301334828138e-05</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>1.754198456183076e-05</v>
+        <v>1.645798329263926e-05</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>1.762504689395428e-05</v>
+        <v>1.662498107179999e-05</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>1.737498678267002e-05</v>
+        <v>1.662498107179999e-05</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>1.745799090713263e-05</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>1.737498678267002e-05</v>
+        <v>1.683301525190473e-05</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>1.733400858938694e-05</v>
+        <v>1.670897472649813e-05</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>1.758395228534937e-05</v>
+        <v>1.679197885096073e-05</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>1.750001683831215e-05</v>
+        <v>1.687498297542334e-05</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>1.762498868629336e-05</v>
+        <v>1.670897472649813e-05</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>1.73329608514905e-05</v>
+        <v>1.704198075458407e-05</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>1.758296275511384e-05</v>
+        <v>1.691596116870642e-05</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>1.745804911479354e-05</v>
+        <v>1.691700890660286e-05</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>1.758302096277475e-05</v>
+        <v>1.687498297542334e-05</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>1.766701461747289e-05</v>
+        <v>1.712498487904668e-05</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>1.741602318361402e-05</v>
+        <v>1.683394657447934e-05</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>1.758296275511384e-05</v>
+        <v>1.704198075458407e-05</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>1.791701652109623e-05</v>
+        <v>1.708301715552807e-05</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>1.783401239663363e-05</v>
+        <v>1.700001303106546e-05</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>1.804198836907744e-05</v>
+        <v>1.700001303106546e-05</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>1.795799471437931e-05</v>
+        <v>1.704198075458407e-05</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>1.837499439716339e-05</v>
+        <v>1.704099122434855e-05</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>1.862499630078673e-05</v>
+        <v>1.716602127999067e-05</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>1.874996814876795e-05</v>
+        <v>1.720798900350928e-05</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>1.870800042524934e-05</v>
+        <v>1.716602127999067e-05</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>1.887499820441008e-05</v>
+        <v>1.733301905915141e-05</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>1.837499439716339e-05</v>
+        <v>1.73329608514905e-05</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>1.879205228760839e-05</v>
+        <v>1.725001493468881e-05</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>1.874996814876795e-05</v>
+        <v>1.729099312797189e-05</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>1.895800232887268e-05</v>
+        <v>1.729198265820742e-05</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>1.895905006676912e-05</v>
+        <v>1.74159649759531e-05</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>2.858397783711553e-05</v>
+        <v>1.729198265820742e-05</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>1.937500201165676e-05</v>
+        <v>1.745799090713263e-05</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>1.883297227323055e-05</v>
+        <v>1.733301905915141e-05</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>1.904100645333529e-05</v>
+        <v>1.750001683831215e-05</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>1.879199407994747e-05</v>
+        <v>1.762498868629336e-05</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>1.949997385963798e-05</v>
+        <v>1.750001683831215e-05</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>1.933297608047724e-05</v>
+        <v>1.754198456183076e-05</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>1.904100645333529e-05</v>
+        <v>1.770799281075597e-05</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>1.999997766688466e-05</v>
+        <v>1.762498868629336e-05</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>1.970800803974271e-05</v>
+        <v>1.783395418897271e-05</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>1.970800803974271e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>1.895800232887268e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>1.90829741768539e-05</v>
+        <v>1.78330228663981e-05</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>1.829100074246526e-05</v>
+        <v>1.783401239663363e-05</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>1.908303238451481e-05</v>
+        <v>1.783401239663363e-05</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>1.879100454971194e-05</v>
+        <v>1.791701652109623e-05</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>1.854199217632413e-05</v>
+        <v>1.774996053427458e-05</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>1.874996814876795e-05</v>
+        <v>1.791701652109623e-05</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>1.862499630078673e-05</v>
+        <v>1.791701652109623e-05</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>1.850002445280552e-05</v>
+        <v>1.804198836907744e-05</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>1.866702223196626e-05</v>
+        <v>1.799996243789792e-05</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>1.862499630078673e-05</v>
+        <v>1.800002064555883e-05</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>1.874996814876795e-05</v>
+        <v>1.800002064555883e-05</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>1.862499630078673e-05</v>
+        <v>1.804204657673836e-05</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>1.85410026460886e-05</v>
+        <v>1.829199027270079e-05</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>1.858401810750365e-05</v>
+        <v>1.833401620388031e-05</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>1.870898995548487e-05</v>
+        <v>1.83750526048243e-05</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>1.858297036960721e-05</v>
+        <v>1.816602889448404e-05</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>1.870800042524934e-05</v>
+        <v>1.8457998521626e-05</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>1.879100454971194e-05</v>
+        <v>1.8457998521626e-05</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>1.870898995548487e-05</v>
+        <v>1.854199217632413e-05</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>1.870800042524934e-05</v>
+        <v>1.8416962120682e-05</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>1.887499820441008e-05</v>
+        <v>1.8457998521626e-05</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>1.879199407994747e-05</v>
+        <v>1.895899185910821e-05</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>1.8834020011127e-05</v>
+        <v>1.858297036960721e-05</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>1.89170241355896e-05</v>
+        <v>1.85410026460886e-05</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>1.891696592792869e-05</v>
+        <v>1.850002445280552e-05</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>1.891696592792869e-05</v>
+        <v>1.870800042524934e-05</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>1.89170241355896e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>1.899997005239129e-05</v>
+        <v>1.858395989984274e-05</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>1.904199598357081e-05</v>
+        <v>1.870800042524934e-05</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>1.899997005239129e-05</v>
+        <v>1.854199217632413e-05</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>1.912500010803342e-05</v>
+        <v>1.858297036960721e-05</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>1.916702603921294e-05</v>
+        <v>1.879199407994747e-05</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>1.912500010803342e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>1.920800423249602e-05</v>
+        <v>1.883297227323055e-05</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>1.924997195601463e-05</v>
+        <v>1.887499820441008e-05</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>1.937500201165676e-05</v>
+        <v>1.887499820441008e-05</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>1.950003206729889e-05</v>
+        <v>1.879199407994747e-05</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>1.929100835695863e-05</v>
+        <v>1.887499820441008e-05</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>1.933396561071277e-05</v>
+        <v>1.90829741768539e-05</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>1.949997385963798e-05</v>
+        <v>1.89170241355896e-05</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>1.945800613611937e-05</v>
+        <v>1.933396561071277e-05</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>1.95419997908175e-05</v>
+        <v>1.904100645333529e-05</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>1.975003397092223e-05</v>
+        <v>1.90829741768539e-05</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>1.958303619176149e-05</v>
+        <v>1.908402191475034e-05</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>1.958402572199702e-05</v>
+        <v>1.895899185910821e-05</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>1.966702984645963e-05</v>
+        <v>1.916702603921294e-05</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>2.958299592137337e-05</v>
+        <v>1.912500010803342e-05</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>2.170802326872945e-05</v>
+        <v>1.929199788719416e-05</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>2.012494951486588e-05</v>
+        <v>1.950003206729889e-05</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>1.995800994336605e-05</v>
+        <v>1.937500201165676e-05</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>2.037500962615013e-05</v>
+        <v>1.929199788719416e-05</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>2.000003587454557e-05</v>
+        <v>1.950003206729889e-05</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>2.037500962615013e-05</v>
+        <v>1.941702794283628e-05</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>2.029200550168753e-05</v>
+        <v>1.95419997908175e-05</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>2.666603541001678e-05</v>
+        <v>1.945794792845845e-05</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>2.049998147413135e-05</v>
+        <v>1.945899566635489e-05</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>2.058397512882948e-05</v>
+        <v>1.937500201165676e-05</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>2.033298369497061e-05</v>
+        <v>1.941696973517537e-05</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>2.070801565423608e-05</v>
+        <v>1.950003206729889e-05</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>2.054095966741443e-05</v>
+        <v>1.958297798410058e-05</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>2.09159916266799e-05</v>
+        <v>2.033298369497061e-05</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>2.095801755785942e-05</v>
+        <v>2.037500962615013e-05</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>2.116698306053877e-05</v>
+        <v>2.012500772252679e-05</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>2.049998147413135e-05</v>
+        <v>1.974997576326132e-05</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>2.070801565423608e-05</v>
+        <v>1.966598210856318e-05</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>5.208299262449145e-05</v>
+        <v>2.020801184698939e-05</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>2.354104071855545e-05</v>
+        <v>1.995800994336605e-05</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>2.083397703245282e-05</v>
+        <v>2.000003587454557e-05</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>2.058298559859395e-05</v>
+        <v>1.979200169444084e-05</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>2.045900328084826e-05</v>
+        <v>1.979200169444084e-05</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>2.054200740531087e-05</v>
+        <v>1.995899947360158e-05</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>2.054101787507534e-05</v>
+        <v>1.991697354242206e-05</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>2.062501152977347e-05</v>
+        <v>2.004200359806418e-05</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>2.062501152977347e-05</v>
+        <v>2.012494951486588e-05</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>2.083298750221729e-05</v>
+        <v>2.012500772252679e-05</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>2.070801565423608e-05</v>
+        <v>2.033298369497061e-05</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>2.066697925329208e-05</v>
+        <v>2.008397132158279e-05</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>2.066598972305655e-05</v>
+        <v>2.041697734966874e-05</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>2.070795744657516e-05</v>
+        <v>2.033298369497061e-05</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>2.062501152977347e-05</v>
+        <v>2.033298369497061e-05</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>2.091703936457634e-05</v>
+        <v>2.045801375061274e-05</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>2.087501343339682e-05</v>
+        <v>2.041703555732965e-05</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>2.108403714373708e-05</v>
+        <v>2.033403143286705e-05</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>2.083298750221729e-05</v>
+        <v>2.054200740531087e-05</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>2.170901279896498e-05</v>
+        <v>2.129096537828445e-05</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>2.104102168232203e-05</v>
+        <v>2.041697734966874e-05</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>2.112501533702016e-05</v>
+        <v>2.045795554295182e-05</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>2.116698306053877e-05</v>
+        <v>2.041598781943321e-05</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>2.129195490851998e-05</v>
+        <v>2.050003968179226e-05</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>2.108397893607616e-05</v>
+        <v>2.054200740531087e-05</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>2.112501533702016e-05</v>
+        <v>2.058403333649039e-05</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>2.116698306053877e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>2.129195490851998e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>2.116698306053877e-05</v>
+        <v>2.058397512882948e-05</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>2.120796125382185e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>2.12920131161809e-05</v>
+        <v>2.07500415854156e-05</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>2.12920131161809e-05</v>
+        <v>2.079200930893421e-05</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>2.12920131161809e-05</v>
+        <v>2.070795744657516e-05</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>2.30839941650629e-05</v>
+        <v>2.149998908862472e-05</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>2.104195300489664e-05</v>
+        <v>2.100004348903894e-05</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>2.141698496416211e-05</v>
+        <v>2.108397893607616e-05</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>2.133398083969951e-05</v>
+        <v>2.099998528137803e-05</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>2.150004729628563e-05</v>
+        <v>2.083397703245282e-05</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>2.158305142074823e-05</v>
+        <v>2.087501343339682e-05</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>2.166599733754992e-05</v>
+        <v>2.087501343339682e-05</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>2.145802136510611e-05</v>
+        <v>2.095795935019851e-05</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>2.154195681214333e-05</v>
+        <v>2.091703936457634e-05</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>2.162496093660593e-05</v>
+        <v>2.095900708809495e-05</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>2.162501914426684e-05</v>
+        <v>2.095900708809495e-05</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>2.166698686778545e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>2.166599733754992e-05</v>
+        <v>2.099998528137803e-05</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>2.162501914426684e-05</v>
+        <v>2.112501533702016e-05</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>2.170901279896498e-05</v>
+        <v>2.120796125382185e-05</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>2.174999099224806e-05</v>
+        <v>2.108298940584064e-05</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>2.174999099224806e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>2.19169887714088e-05</v>
+        <v>2.116599353030324e-05</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>2.687500091269612e-05</v>
+        <v>2.145901089534163e-05</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>2.900004619732499e-05</v>
+        <v>2.133304951712489e-05</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>2.662499900907278e-05</v>
+        <v>2.13750172406435e-05</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>2.916698576882482e-05</v>
+        <v>2.12920131161809e-05</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>2.883403794839978e-05</v>
+        <v>2.133299130946398e-05</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>2.433295594528317e-05</v>
+        <v>2.141698496416211e-05</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>2.804194809868932e-05</v>
+        <v>2.150004729628563e-05</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>2.887501614168286e-05</v>
+        <v>2.137495903298259e-05</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>2.800003858283162e-05</v>
+        <v>2.158398274332285e-05</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>2.979196142405272e-05</v>
+        <v>2.141698496416211e-05</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>3.033300163224339e-05</v>
+        <v>2.154201501980424e-05</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>2.408301224932075e-05</v>
+        <v>2.166698686778545e-05</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>2.333300653845072e-05</v>
+        <v>2.158299321308732e-05</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>2.30839941650629e-05</v>
+        <v>2.166704507544637e-05</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>2.266699448227882e-05</v>
+        <v>2.166599733754992e-05</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>2.258300082758069e-05</v>
+        <v>2.162501914426684e-05</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>2.316600875928998e-05</v>
+        <v>2.179201692342758e-05</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>2.254097489640117e-05</v>
+        <v>2.187502104789019e-05</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>2.304196823388338e-05</v>
+        <v>2.891698386520147e-05</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>2.27079726755619e-05</v>
+        <v>2.529099583625793e-05</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>2.237502485513687e-05</v>
+        <v>2.812501043081284e-05</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>2.31250305660069e-05</v>
+        <v>2.883299021050334e-05</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>2.26249685510993e-05</v>
+        <v>2.787500852718949e-05</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>2.291699638590217e-05</v>
+        <v>2.741697244346142e-05</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>2.337503246963024e-05</v>
+        <v>2.733402652665973e-05</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>2.26249685510993e-05</v>
+        <v>2.404203405603766e-05</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>2.283300273120403e-05</v>
+        <v>2.887501614168286e-05</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>2.283399226143956e-05</v>
+        <v>2.92079639621079e-05</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>2.270803088322282e-05</v>
+        <v>2.841698005795479e-05</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>3.016699338331819e-05</v>
+        <v>2.72920005954802e-05</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>2.50829616561532e-05</v>
+        <v>2.954102819785476e-05</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>2.999999560415745e-05</v>
+        <v>2.92909680865705e-05</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>2.495798980817199e-05</v>
+        <v>2.883304841816425e-05</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>2.883304841816425e-05</v>
+        <v>2.758303890004754e-05</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>3.033300163224339e-05</v>
+        <v>2.945901360362768e-05</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>2.808298449963331e-05</v>
+        <v>2.949999179691076e-05</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>2.845795825123787e-05</v>
+        <v>2.916698576882482e-05</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>3.049999941140413e-05</v>
+        <v>2.558401320129633e-05</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>3.024999750778079e-05</v>
+        <v>2.962496364489198e-05</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>3.029097570106387e-05</v>
+        <v>2.74160411208868e-05</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>2.837501233443618e-05</v>
+        <v>2.758298069238663e-05</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>2.887501614168286e-05</v>
+        <v>3.012502565979958e-05</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>3.008299972862005e-05</v>
+        <v>2.333300653845072e-05</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>2.608296927064657e-05</v>
+        <v>2.270896220579743e-05</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>2.362497616559267e-05</v>
+        <v>2.300000051036477e-05</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>2.391601447016001e-05</v>
+        <v>2.733402652665973e-05</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>2.379098441451788e-05</v>
+        <v>2.816703636199236e-05</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>2.770900027826428e-05</v>
+        <v>2.899998798966408e-05</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>2.97080259770155e-05</v>
+        <v>2.870900789275765e-05</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>2.916698576882482e-05</v>
+        <v>2.979196142405272e-05</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>2.858298830688e-05</v>
+        <v>2.954201772809029e-05</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>3.108300734311342e-05</v>
+        <v>3.070896491408348e-05</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>3.125000512227416e-05</v>
+        <v>2.833298640325665e-05</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>2.891704207286239e-05</v>
+        <v>2.629199298098683e-05</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>3.070803359150887e-05</v>
+        <v>2.908398164436221e-05</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>3.066699719056487e-05</v>
+        <v>2.874998608604074e-05</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>3.166601527482271e-05</v>
+        <v>2.812495222315192e-05</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>3.112503327429295e-05</v>
+        <v>3.054202534258366e-05</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>3.054202534258366e-05</v>
+        <v>3.045902121812105e-05</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>3.062497125938535e-05</v>
+        <v>2.949999179691076e-05</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>2.995901741087437e-05</v>
+        <v>2.912501804530621e-05</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>3.14170029014349e-05</v>
+        <v>3.075000131502748e-05</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>2.566701732575893e-05</v>
+        <v>2.841698005795479e-05</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>3.14170029014349e-05</v>
+        <v>2.870801836252213e-05</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>3.129203105345368e-05</v>
+        <v>3.054196713492274e-05</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>3.012496745213866e-05</v>
+        <v>3.075000131502748e-05</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>2.895796205848455e-05</v>
+        <v>3.004196332767606e-05</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>3.154098521918058e-05</v>
+        <v>2.637499710544944e-05</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>3.045803168788552e-05</v>
+        <v>3.08750313706696e-05</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>2.949999179691076e-05</v>
+        <v>3.112503327429295e-05</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>3.170798299834132e-05</v>
+        <v>2.979201963171363e-05</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>3.179197665303946e-05</v>
+        <v>2.679199678823352e-05</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>3.041699528694153e-05</v>
+        <v>2.954102819785476e-05</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>2.941599814221263e-05</v>
+        <v>2.954102819785476e-05</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>3.191601717844605e-05</v>
+        <v>2.862495603039861e-05</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>3.200001083314419e-05</v>
+        <v>3.133300924673676e-05</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>2.954102819785476e-05</v>
+        <v>3.125000512227416e-05</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>2.937501994892955e-05</v>
+        <v>3.112503327429295e-05</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>3.200001083314419e-05</v>
+        <v>2.891698386520147e-05</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>3.195798490196466e-05</v>
+        <v>2.679094905033708e-05</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>3.020802978426218e-05</v>
+        <v>3.145897062495351e-05</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>3.187498077750206e-05</v>
+        <v>3.125000512227416e-05</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>2.958299592137337e-05</v>
+        <v>2.962502185255289e-05</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>3.229198046028614e-05</v>
+        <v>2.833304461091757e-05</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>2.941599814221263e-05</v>
+        <v>3.133300924673676e-05</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>3.116700099781156e-05</v>
+        <v>3.095896681770682e-05</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>3.129203105345368e-05</v>
+        <v>3.058300353586674e-05</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>3.250001464039087e-05</v>
+        <v>3.100000321865082e-05</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>3.012496745213866e-05</v>
+        <v>3.158301115036011e-05</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>2.975005190819502e-05</v>
+        <v>2.916698576882482e-05</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>3.249995643272996e-05</v>
+        <v>2.912495983764529e-05</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>3.337499219924212e-05</v>
+        <v>2.774997847154737e-05</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>3.258301876485348e-05</v>
+        <v>3.033300163224339e-05</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>3.112503327429295e-05</v>
+        <v>2.662499900907278e-05</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>2.954201772809029e-05</v>
+        <v>2.333399606868625e-05</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>3.233301686123013e-05</v>
+        <v>2.308300463482738e-05</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>3.279198426753283e-05</v>
+        <v>2.854102058336139e-05</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>3.291602479293942e-05</v>
+        <v>2.429203595966101e-05</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>3.295799251645803e-05</v>
+        <v>2.437504008412361e-05</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>3.049999941140413e-05</v>
+        <v>2.695794682949781e-05</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>2.387497806921601e-05</v>
+        <v>2.787500852718949e-05</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>2.37500062212348e-05</v>
+        <v>2.495798980817199e-05</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>2.408295404165983e-05</v>
+        <v>2.500001573935151e-05</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>2.949999179691076e-05</v>
+        <v>2.483295975252986e-05</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>2.520903944969177e-05</v>
+        <v>2.462504198774695e-05</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>2.504204167053103e-05</v>
+        <v>2.508301986381412e-05</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>2.945802407339215e-05</v>
+        <v>2.445897553116083e-05</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>2.841599052771926e-05</v>
+        <v>2.516602398827672e-05</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>2.575002145022154e-05</v>
+        <v>2.491602208465338e-05</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>2.504204167053103e-05</v>
+        <v>2.487498568370938e-05</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>2.600002335384488e-05</v>
+        <v>2.845801645889878e-05</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>2.529204357415438e-05</v>
+        <v>2.641696482896805e-05</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>2.591701922938228e-05</v>
+        <v>2.475001383572817e-05</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>2.525001764297485e-05</v>
+        <v>2.541602589190006e-05</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>2.566701732575893e-05</v>
+        <v>2.491701161488891e-05</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>2.600002335384488e-05</v>
+        <v>3.133399877697229e-05</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>3.062497125938535e-05</v>
+        <v>2.949999179691076e-05</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>3.141694469377398e-05</v>
+        <v>3.045902121812105e-05</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>2.54589831456542e-05</v>
+        <v>3.166700480505824e-05</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>2.541695721447468e-05</v>
+        <v>3.27909947372973e-05</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>2.55000195465982e-05</v>
+        <v>2.991600194945931e-05</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>3.375002415850759e-05</v>
+        <v>3.020797157660127e-05</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>3.379205008968711e-05</v>
+        <v>3.137497697025537e-05</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>3.362499410286546e-05</v>
+        <v>2.991600194945931e-05</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>3.033300163224339e-05</v>
+        <v>3.091699909418821e-05</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>3.070896491408348e-05</v>
+        <v>3.304198617115617e-05</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>3.391597419977188e-05</v>
+        <v>2.816697815433145e-05</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>3.366702003404498e-05</v>
+        <v>2.433400368317962e-05</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>3.341701813042164e-05</v>
+        <v>2.408400177955627e-05</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>3.283395199105144e-05</v>
+        <v>2.433301415294409e-05</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>3.054202534258366e-05</v>
+        <v>2.429098822176456e-05</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>3.404205199331045e-05</v>
+        <v>2.42090318351984e-05</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>3.137503517791629e-05</v>
+        <v>3.024999750778079e-05</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>2.475001383572817e-05</v>
+        <v>3.358401590958238e-05</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>2.491596387699246e-05</v>
+        <v>3.354204818606377e-05</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>2.491695340722799e-05</v>
+        <v>3.087497316300869e-05</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>2.48750438913703e-05</v>
+        <v>3.183301305398345e-05</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>2.495798980817199e-05</v>
+        <v>3.366702003404498e-05</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>3.129197284579277e-05</v>
+        <v>3.374996595084667e-05</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>3.450002986937761e-05</v>
+        <v>3.375002415850759e-05</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>3.399996785447001e-05</v>
+        <v>3.354198997840285e-05</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>3.145798109471798e-05</v>
+        <v>3.162497887387872e-05</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>3.458402352407575e-05</v>
+        <v>3.100000321865082e-05</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>3.441597800701857e-05</v>
+        <v>3.370799822732806e-05</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>3.454199759289622e-05</v>
+        <v>3.383302828297019e-05</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>3.987498348578811e-05</v>
+        <v>3.391696373000741e-05</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>3.441702574491501e-05</v>
+        <v>3.400002606213093e-05</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>3.270804882049561e-05</v>
+        <v>3.404199378564954e-05</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>3.133300924673676e-05</v>
+        <v>3.100000321865082e-05</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>3.491598181426525e-05</v>
+        <v>3.095797728747129e-05</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>3.208301495760679e-05</v>
+        <v>3.374996595084667e-05</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>3.241602098569274e-05</v>
+        <v>3.429199568927288e-05</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>3.374996595084667e-05</v>
+        <v>3.229104913771152e-05</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>3.50000336766243e-05</v>
+        <v>3.308296436443925e-05</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>3.487500362098217e-05</v>
+        <v>3.108300734311342e-05</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>3.237498458474874e-05</v>
+        <v>3.441702574491501e-05</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>2.979201963171363e-05</v>
+        <v>3.425002796575427e-05</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>3.512500552460551e-05</v>
+        <v>3.270799061283469e-05</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>3.516598371788859e-05</v>
+        <v>3.275001654401422e-05</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>3.566604573279619e-05</v>
+        <v>3.283395199105144e-05</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>3.604200901463628e-05</v>
+        <v>3.424996975809336e-05</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>2.987496554851532e-05</v>
+        <v>3.479199949651957e-05</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>3.499997546896338e-05</v>
+        <v>3.216700861230493e-05</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>3.533303970471025e-05</v>
+        <v>3.220798680558801e-05</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>3.525003558024764e-05</v>
+        <v>3.44169675372541e-05</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>3.554200520738959e-05</v>
+        <v>3.445800393819809e-05</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>3.541703335940838e-05</v>
+        <v>3.600004129111767e-05</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>3.320799442008138e-05</v>
+        <v>3.900000592693686e-05</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>3.145798109471798e-05</v>
+        <v>3.604200901463628e-05</v>
       </c>
     </row>
     <row r="886">
@@ -7530,7 +7530,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>3.483297768980265e-05</v>
+        <v>3.041699528694153e-05</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>3.333302447572351e-05</v>
+        <v>2.829101867973804e-05</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>3.162497887387872e-05</v>
+        <v>2.741703065112233e-05</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>3.362499410286546e-05</v>
+        <v>2.808298449963331e-05</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>3.60840349458158e-05</v>
+        <v>2.745800884440541e-05</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>3.579194890335202e-05</v>
+        <v>2.770801074802876e-05</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>4.591699689626694e-05</v>
+        <v>2.762500662356615e-05</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>3.420794382691383e-05</v>
+        <v>2.754200249910355e-05</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>3.0792027246207e-05</v>
+        <v>2.745800884440541e-05</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>3.604200901463628e-05</v>
+        <v>2.762500662356615e-05</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>3.575003938749433e-05</v>
+        <v>2.758298069238663e-05</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>3.608397673815489e-05</v>
+        <v>2.770801074802876e-05</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>3.616703907027841e-05</v>
+        <v>2.754200249910355e-05</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>3.595801535993814e-05</v>
+        <v>2.758298069238663e-05</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>3.616599133238196e-05</v>
+        <v>2.754200249910355e-05</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>3.620801726356149e-05</v>
+        <v>2.808298449963331e-05</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>3.32500203512609e-05</v>
+        <v>2.808298449963331e-05</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>3.241701051592827e-05</v>
+        <v>2.820894587785006e-05</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>3.591703716665506e-05</v>
+        <v>2.741703065112233e-05</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>3.570894477888942e-05</v>
+        <v>2.845900598913431e-05</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>3.650004509836435e-05</v>
+        <v>2.766598481684923e-05</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>3.654195461422205e-05</v>
+        <v>2.862501423805952e-05</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>3.662501694634557e-05</v>
+        <v>2.845801645889878e-05</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>3.649998689070344e-05</v>
+        <v>2.799998037517071e-05</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>3.658299101516604e-05</v>
+        <v>2.874998608604074e-05</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>3.674998879432678e-05</v>
+        <v>2.83340341411531e-05</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>3.25420405715704e-05</v>
+        <v>2.824998227879405e-05</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>3.475003177300096e-05</v>
+        <v>2.904102439060807e-05</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>3.662501694634557e-05</v>
+        <v>2.849998418241739e-05</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>3.487500362098217e-05</v>
+        <v>2.924998989328742e-05</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>3.67500470019877e-05</v>
+        <v>2.820801455527544e-05</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>3.691698657348752e-05</v>
+        <v>2.883299021050334e-05</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>3.704201662912965e-05</v>
+        <v>2.862495603039861e-05</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>3.724999260157347e-05</v>
+        <v>2.883299021050334e-05</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>3.695901250466704e-05</v>
+        <v>2.858304651454091e-05</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>3.699999069795012e-05</v>
+        <v>2.845801645889878e-05</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>3.704102709889412e-05</v>
+        <v>2.854201011359692e-05</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>3.491702955216169e-05</v>
+        <v>2.820801455527544e-05</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>3.254198236390948e-05</v>
+        <v>2.908299211412668e-05</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>3.712496254593134e-05</v>
+        <v>2.870801836252213e-05</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>3.691599704325199e-05</v>
+        <v>2.866698196157813e-05</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>3.708299482241273e-05</v>
+        <v>2.887501614168286e-05</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>3.295799251645803e-05</v>
+        <v>2.874998608604074e-05</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>3.516598371788859e-05</v>
+        <v>2.879201201722026e-05</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>3.699999069795012e-05</v>
+        <v>2.891599433496594e-05</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>3.720796667039394e-05</v>
+        <v>2.908403985202312e-05</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>3.516697324812412e-05</v>
+        <v>2.858298830688e-05</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>3.737496444955468e-05</v>
+        <v>2.900004619732499e-05</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>3.683398244902492e-05</v>
+        <v>3.729102900251746e-05</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>3.745796857401729e-05</v>
+        <v>2.941698767244816e-05</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>3.73750226572156e-05</v>
+        <v>2.887501614168286e-05</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>3.741600085049868e-05</v>
+        <v>2.866698196157813e-05</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>3.758299862965941e-05</v>
+        <v>2.91660544462502e-05</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>3.745901631191373e-05</v>
+        <v>2.916698576882482e-05</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>3.745796857401729e-05</v>
+        <v>2.912495983764529e-05</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>3.858300624415278e-05</v>
+        <v>2.908398164436221e-05</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>3.62499849870801e-05</v>
+        <v>2.920901170000434e-05</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>3.766600275412202e-05</v>
+        <v>2.908299211412668e-05</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>3.683299291878939e-05</v>
+        <v>2.916704397648573e-05</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>3.774999640882015e-05</v>
+        <v>2.92079639621079e-05</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>3.779103280976415e-05</v>
+        <v>2.945895539596677e-05</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>3.787502646446228e-05</v>
+        <v>2.875004429370165e-05</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>3.783399006351829e-05</v>
+        <v>2.933299401775002e-05</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>3.770797047764063e-05</v>
+        <v>3.850000211969018e-05</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>3.799999831244349e-05</v>
+        <v>2.879201201722026e-05</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>3.699999069795012e-05</v>
+        <v>2.974999370053411e-05</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>2.862501423805952e-05</v>
+        <v>2.96669895760715e-05</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>2.804200630635023e-05</v>
+        <v>2.96669895760715e-05</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>3.129098331555724e-05</v>
+        <v>3.008299972862005e-05</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>3.020797157660127e-05</v>
+        <v>2.999999560415745e-05</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>2.887501614168286e-05</v>
+        <v>2.979201963171363e-05</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>2.929201582446694e-05</v>
+        <v>3.02919652312994e-05</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>2.979201963171363e-05</v>
+        <v>3.020797157660127e-05</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>3.954203566536307e-05</v>
+        <v>2.974999370053411e-05</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>2.979196142405272e-05</v>
+        <v>3.008299972862005e-05</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>2.912501804530621e-05</v>
+        <v>3.000005381181836e-05</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>3.020797157660127e-05</v>
+        <v>3.033399116247892e-05</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>4.145799903199077e-05</v>
+        <v>2.912501804530621e-05</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>3.070797538384795e-05</v>
+        <v>2.962496364489198e-05</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>2.991699147969484e-05</v>
+        <v>2.970901550725102e-05</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>3.083399496972561e-05</v>
+        <v>2.974999370053411e-05</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>3.033300163224339e-05</v>
+        <v>2.979196142405272e-05</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>3.004097379744053e-05</v>
+        <v>3.020797157660127e-05</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>2.983299782499671e-05</v>
+        <v>2.974999370053411e-05</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>3.075000131502748e-05</v>
+        <v>2.966600004583597e-05</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>4.316697595641017e-05</v>
+        <v>3.012496745213866e-05</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>3.791699418798089e-05</v>
+        <v>3.037502756342292e-05</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>3.966700751334429e-05</v>
+        <v>2.991699147969484e-05</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>3.758299862965941e-05</v>
+        <v>2.96669895760715e-05</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>3.93329537473619e-05</v>
+        <v>2.987502375617623e-05</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>3.983295755460858e-05</v>
+        <v>3.033300163224339e-05</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>3.975001163780689e-05</v>
+        <v>3.029202343896031e-05</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>3.945804201066494e-05</v>
+        <v>3.054202534258366e-05</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>3.333296626806259e-05</v>
+        <v>8.854200132191181e-05</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>2.904096618294716e-05</v>
+        <v>3.92080401070416e-05</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>2.90830503217876e-05</v>
+        <v>3.091699909418821e-05</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>2.908299211412668e-05</v>
+        <v>3.045803168788552e-05</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>2.929195761680603e-05</v>
+        <v>2.970895729959011e-05</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>3.56250093318522e-05</v>
+        <v>2.987502375617623e-05</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>3.666698466986418e-05</v>
+        <v>2.962502185255289e-05</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>4.000001354143023e-05</v>
+        <v>3.004103200510144e-05</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>5.070795305073261e-05</v>
+        <v>2.983404556289315e-05</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>3.67500470019877e-05</v>
+        <v>2.987502375617623e-05</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>3.999995533376932e-05</v>
+        <v>3.0374969355762e-05</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>3.129203105345368e-05</v>
+        <v>4.829198587685823e-05</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>3.10409814119339e-05</v>
+        <v>3.249995643272996e-05</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>3.312499029561877e-05</v>
+        <v>2.879201201722026e-05</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>3.0792027246207e-05</v>
+        <v>4.458299372345209e-05</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>3.158301115036011e-05</v>
+        <v>3.483297768980265e-05</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>3.070896491408348e-05</v>
+        <v>3.929203376173973e-05</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>4.074996104463935e-05</v>
+        <v>3.674998879432678e-05</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>3.191700670868158e-05</v>
+        <v>3.641698276624084e-05</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>3.170798299834132e-05</v>
+        <v>3.850000211969018e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>3.14170029014349e-05</v>
+        <v>3.966700751334429e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>3.091699909418821e-05</v>
+        <v>3.975001163780689e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/bst_list/search.xlsx
+++ b/outputs/bst_list/search.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.04198295250535e-06</v>
+        <v>1.957989297807217e-06</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.249756552278996e-07</v>
+        <v>8.750357665121555e-07</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.839974619448185e-07</v>
+        <v>7.090275175869465e-07</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.839974619448185e-07</v>
+        <v>8.33999365568161e-07</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.910421118140221e-07</v>
+        <v>9.589712135493755e-07</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.330098353326321e-07</v>
+        <v>1.00000761449337e-06</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.33999365568161e-07</v>
+        <v>1.083011738955975e-06</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.124987076967955e-06</v>
+        <v>2.290995325893164e-06</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.910421118140221e-07</v>
+        <v>8.750357665121555e-07</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.249756552278996e-07</v>
+        <v>7.500057108700275e-07</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.830079317092896e-07</v>
+        <v>7.090275175869465e-07</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.249756552278996e-07</v>
+        <v>9.160139597952366e-07</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.420297384262085e-07</v>
+        <v>7.079797796905041e-07</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.249756552278996e-07</v>
+        <v>5.829497240483761e-07</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.249756552278996e-07</v>
+        <v>6.25033862888813e-07</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.660120561718941e-07</v>
+        <v>8.330098353326321e-07</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.079797796905041e-07</v>
+        <v>1.04197533801198e-06</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.92031642049551e-07</v>
+        <v>9.580398909747601e-07</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.500057108700275e-07</v>
+        <v>1.00000761449337e-06</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.919734343886375e-07</v>
+        <v>1.04197533801198e-06</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.33999365568161e-07</v>
+        <v>1.040985807776451e-06</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.910421118140221e-07</v>
+        <v>1.040985807776451e-06</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.834002073854208e-06</v>
+        <v>1.084001269191504e-06</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.791988663375378e-06</v>
+        <v>8.749775588512421e-07</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.749962732195854e-06</v>
+        <v>1.207983586937189e-06</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.62499088421464e-06</v>
+        <v>1.250009518116713e-06</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.917018719017506e-06</v>
+        <v>1.207983586937189e-06</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.709042746573687e-06</v>
+        <v>1.250009518116713e-06</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.790999133139849e-06</v>
+        <v>1.333013642579317e-06</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.999964635819197e-06</v>
+        <v>1.292035449296236e-06</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.958986442536116e-06</v>
+        <v>1.457985490560532e-06</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.874992787837982e-06</v>
+        <v>1.417007297277451e-06</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.374996595084667e-06</v>
+        <v>1.417007297277451e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.00002284348011e-06</v>
+        <v>1.457985490560532e-06</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.374996595084667e-06</v>
+        <v>1.582957338541746e-06</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.291002940386534e-06</v>
+        <v>1.541979145258665e-06</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.415974788367748e-06</v>
+        <v>1.541979145258665e-06</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.499968443065882e-06</v>
+        <v>1.58301554620266e-06</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.291992470622063e-06</v>
+        <v>1.58301554620266e-06</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.541994374245405e-06</v>
+        <v>1.291977241635323e-06</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.00003045797348e-06</v>
+        <v>1.375039573758841e-06</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.582972567528486e-06</v>
+        <v>1.750013325363398e-06</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.584020305424929e-06</v>
+        <v>1.749955117702484e-06</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.249974153935909e-06</v>
+        <v>2.00001522898674e-06</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.875000402331352e-06</v>
+        <v>1.916021574288607e-06</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.833032678812742e-06</v>
+        <v>1.707987394183874e-06</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.292000085115433e-06</v>
+        <v>2.00001522898674e-06</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.04199818149209e-06</v>
+        <v>1.917011104524136e-06</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.292000085115433e-06</v>
+        <v>1.917011104524136e-06</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.333967808634043e-06</v>
+        <v>2.084008883684874e-06</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.333036486059427e-06</v>
+        <v>2.124987076967955e-06</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.541012458503246e-06</v>
+        <v>2.042041160166264e-06</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.667032044380903e-06</v>
+        <v>2.417014911770821e-06</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.749977961182594e-06</v>
+        <v>2.374988980591297e-06</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.332985892891884e-06</v>
+        <v>1.874985173344612e-06</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.00003807246685e-06</v>
+        <v>2.207991201430559e-06</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.00003807246685e-06</v>
+        <v>2.333021257072687e-06</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.082983989268541e-06</v>
+        <v>2.207991201430559e-06</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.082983989268541e-06</v>
+        <v>2.250017132610083e-06</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.209003575146198e-06</v>
+        <v>2.207991201430559e-06</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.208014044910669e-06</v>
+        <v>2.291984856128693e-06</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.375011824071407e-06</v>
+        <v>2.333021257072687e-06</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.415990017354488e-06</v>
+        <v>2.374988980591297e-06</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.458015948534012e-06</v>
+        <v>2.500019036233425e-06</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.916001439094543e-06</v>
+        <v>2.874992787837982e-06</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.04201341047883e-06</v>
+        <v>2.707995008677244e-06</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.959009286016226e-06</v>
+        <v>2.541986759752035e-06</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.082991603761911e-06</v>
+        <v>2.62499088421464e-06</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.082991603761911e-06</v>
+        <v>2.667016815394163e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.166985258460045e-06</v>
+        <v>2.707995008677244e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.249989382922649e-06</v>
+        <v>2.66695860773325e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.375019438564777e-06</v>
+        <v>2.750020939856768e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.332993507385254e-06</v>
+        <v>2.791988663375378e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.595801535993814e-05</v>
+        <v>3.00002284348011e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.675001112744212e-05</v>
+        <v>2.749962732195854e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.791021976619959e-06</v>
+        <v>3.249966539442539e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.916960511356592e-06</v>
+        <v>3.250024747103453e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.499960828572512e-06</v>
+        <v>3.124994691461325e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.542044967412949e-06</v>
+        <v>2.457993105053902e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.540997229516506e-06</v>
+        <v>2.542044967412949e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.708984538912773e-06</v>
+        <v>3.082968760281801e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.541986759752035e-06</v>
+        <v>3.208988346159458e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.62499088421464e-06</v>
+        <v>3.332970663905144e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.500019036233425e-06</v>
+        <v>3.250024747103453e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.58302316069603e-06</v>
+        <v>3.583962097764015e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.62499088421464e-06</v>
+        <v>3.291992470622063e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.707995008677244e-06</v>
+        <v>3.415974788367748e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.707995008677244e-06</v>
+        <v>2.834014594554901e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.62499088421464e-06</v>
+        <v>3.084016498178244e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.750020939856768e-06</v>
+        <v>3.374996595084667e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.750020939856768e-06</v>
+        <v>3.499968443065882e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.790999133139849e-06</v>
+        <v>3.291992470622063e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.999964635819197e-06</v>
+        <v>3.750028554350138e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.917018719017506e-06</v>
+        <v>3.541994374245405e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.833025064319372e-06</v>
+        <v>3.542052581906319e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.999964635819197e-06</v>
+        <v>3.582972567528486e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.00002284348011e-06</v>
+        <v>3.708992153406143e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.00002284348011e-06</v>
+        <v>3.875000402331352e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.999964635819197e-06</v>
+        <v>3.62499849870801e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.00002284348011e-06</v>
+        <v>3.832974471151829e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.082968760281801e-06</v>
+        <v>3.792054485529661e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.00002284348011e-06</v>
+        <v>3.667024429887533e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.041001036763191e-06</v>
+        <v>3.833964001387358e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.291992470622063e-06</v>
+        <v>3.915978595614433e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.042048774659634e-06</v>
+        <v>4.166970029473305e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.165972884744406e-06</v>
+        <v>3.750028554350138e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.124994691461325e-06</v>
+        <v>4.04199818149209e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.165972884744406e-06</v>
+        <v>3.958004526793957e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.665976691991091e-06</v>
+        <v>4.041008651256561e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.458990249782801e-06</v>
+        <v>4.082976374775171e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.417022526264191e-06</v>
+        <v>4.458997864276171e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.458000719547272e-06</v>
+        <v>3.665976691991091e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.333028871566057e-06</v>
+        <v>4.375004209578037e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.541004844009876e-06</v>
+        <v>4.415982402861118e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.374996595084667e-06</v>
+        <v>4.332978278398514e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.417022526264191e-06</v>
+        <v>3.708002623170614e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.499968443065882e-06</v>
+        <v>4.00003045797348e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.62499849870801e-06</v>
+        <v>4.499976057559252e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.708002623170614e-06</v>
+        <v>4.708010237663984e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.541994374245405e-06</v>
+        <v>4.415982402861118e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.584020305424929e-06</v>
+        <v>4.415982402861118e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.541004844009876e-06</v>
+        <v>4.417030140757561e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.500026650726795e-06</v>
+        <v>4.417030140757561e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.749970346689224e-06</v>
+        <v>3.62499849870801e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.62499849870801e-06</v>
+        <v>4.62500611320138e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.791996277868748e-06</v>
+        <v>4.750036168843508e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.62499849870801e-06</v>
+        <v>4.583969712257385e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.666034899652004e-06</v>
+        <v>4.959001671522856e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.374946001917124e-06</v>
+        <v>4.875008016824722e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.00003045797348e-06</v>
+        <v>5.00003807246685e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.084024112671614e-06</v>
+        <v>4.082976374775171e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.916968125849962e-06</v>
+        <v>4.999979864805937e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.875000402331352e-06</v>
+        <v>5.083042196929455e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.958004526793957e-06</v>
+        <v>5.125009920448065e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.875000402331352e-06</v>
+        <v>4.875008016824722e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.958994057029486e-06</v>
+        <v>5.166977643966675e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.04199818149209e-06</v>
+        <v>5.04200579598546e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.04199818149209e-06</v>
+        <v>5.125009920448065e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.125002305954695e-06</v>
+        <v>5.125009920448065e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.999972250312567e-06</v>
+        <v>5.292007699608803e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.208006430417299e-06</v>
+        <v>5.375011824071407e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.125002305954695e-06</v>
+        <v>4.542001988738775e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.083034582436085e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.291010554879904e-06</v>
+        <v>5.250039976090193e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.166970029473305e-06</v>
+        <v>4.708010237663984e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.166038706898689e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.29095234721899e-06</v>
+        <v>5.416979547590017e-06</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.458008334040642e-06</v>
+        <v>5.624955520033836e-06</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.333036486059427e-06</v>
+        <v>5.500041879713535e-06</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.417030140757561e-06</v>
+        <v>5.167035851627588e-06</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.458008334040642e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.374946001917124e-06</v>
+        <v>5.792011506855488e-06</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.375004209578037e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.58303838968277e-06</v>
+        <v>5.582987796515226e-06</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.417030140757561e-06</v>
+        <v>5.709007382392883e-06</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.66697383671999e-06</v>
+        <v>5.582987796515226e-06</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.500034265220165e-06</v>
+        <v>5.834037438035011e-06</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.582980182021856e-06</v>
+        <v>5.665991920977831e-06</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.541012458503246e-06</v>
+        <v>6.082991603761911e-06</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.792003892362118e-06</v>
+        <v>5.832989700138569e-06</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.541012458503246e-06</v>
+        <v>5.958019755780697e-06</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.499976057559252e-06</v>
+        <v>6.166985258460045e-06</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.665984306484461e-06</v>
+        <v>6.125017534941435e-06</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.66697383671999e-06</v>
+        <v>5.915993824601173e-06</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.833040293306112e-06</v>
+        <v>5.542009603232145e-06</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.667032044380903e-06</v>
+        <v>6.041023880243301e-06</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.708010237663984e-06</v>
+        <v>6.209011189639568e-06</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.916975740343332e-06</v>
+        <v>6.375019438564777e-06</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.792003892362118e-06</v>
+        <v>6.291957106441259e-06</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.792003892362118e-06</v>
+        <v>5.749985575675964e-06</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.790956154465675e-06</v>
+        <v>6.375019438564777e-06</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.083042196929455e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.375011824071407e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.082983989268541e-06</v>
+        <v>6.416987162083387e-06</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250039976090193e-06</v>
+        <v>6.624963134527206e-06</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.417037755250931e-06</v>
+        <v>6.916990969330072e-06</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.333975423127413e-06</v>
+        <v>7.041962817311287e-06</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.292007699608803e-06</v>
+        <v>6.916990969330072e-06</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.499983672052622e-06</v>
+        <v>6.542017217725515e-06</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.415990017354488e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.208945367485285e-06</v>
+        <v>6.834045052528381e-06</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.249981768429279e-06</v>
+        <v>7.166003342717886e-06</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.332985892891884e-06</v>
+        <v>6.916001439094543e-06</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.417037755250931e-06</v>
+        <v>6.792019121348858e-06</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.499983672052622e-06</v>
+        <v>7.124966941773891e-06</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.499983672052622e-06</v>
+        <v>7.292022928595543e-06</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.416048225015402e-06</v>
+        <v>6.999995093792677e-06</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.417037755250931e-06</v>
+        <v>5.58304600417614e-06</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.375011824071407e-06</v>
+        <v>6.834045052528381e-06</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.458015948534012e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.417037755250931e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.542009603232145e-06</v>
+        <v>6.875023245811462e-06</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.542009603232145e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.749985575675964e-06</v>
+        <v>7.041962817311287e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.665991920977831e-06</v>
+        <v>7.166003342717886e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.833979230374098e-06</v>
+        <v>7.457972969859838e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.66698145121336e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.58304600417614e-06</v>
+        <v>5.916983354836702e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.832989700138569e-06</v>
+        <v>7.416994776576757e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.62501372769475e-06</v>
+        <v>7.459020707756281e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.833047907799482e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.709007382392883e-06</v>
+        <v>6.709014996886253e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.915993824601173e-06</v>
+        <v>7.041031494736671e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5.833979230374098e-06</v>
+        <v>7.6669966802001e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5.915993824601173e-06</v>
+        <v>7.62502895668149e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.832989700138569e-06</v>
+        <v>7.416005246341228e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5.833979230374098e-06</v>
+        <v>6.166985258460045e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6.082991603761911e-06</v>
+        <v>7.707974873483181e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6.08398113399744e-06</v>
+        <v>7.499998901039362e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>6.124959327280521e-06</v>
+        <v>7.707974873483181e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5.916983354836702e-06</v>
+        <v>6.125017534941435e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6.209011189639568e-06</v>
+        <v>7.62502895668149e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6.333051715046167e-06</v>
+        <v>7.833004929125309e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6.08398113399744e-06</v>
+        <v>8.124974556267262e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.04201341047883e-06</v>
+        <v>7.624970749020576e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6.249989382922649e-06</v>
+        <v>7.209018804132938e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6.207963451743126e-06</v>
+        <v>8.165952749550343e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6.292015314102173e-06</v>
+        <v>8.040980901569128e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.250047590583563e-06</v>
+        <v>7.916009053587914e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>6.208021659404039e-06</v>
+        <v>7.082999218255281e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>6.124959327280521e-06</v>
+        <v>6.249989382922649e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>6.416987162083387e-06</v>
+        <v>6.124959327280521e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>6.374961230903864e-06</v>
+        <v>6.249989382922649e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6.209011189639568e-06</v>
+        <v>6.166985258460045e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6.375019438564777e-06</v>
+        <v>6.292015314102173e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6.333983037620783e-06</v>
+        <v>6.166985258460045e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6.291957106441259e-06</v>
+        <v>6.125017534941435e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6.582995411008596e-06</v>
+        <v>6.415997631847858e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6.415997631847858e-06</v>
+        <v>6.291025783866644e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6.332993507385254e-06</v>
+        <v>6.249989382922649e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6.458023563027382e-06</v>
+        <v>6.457965355366468e-06</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6.415997631847858e-06</v>
+        <v>6.459013093262911e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6.582995411008596e-06</v>
+        <v>6.375019438564777e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>6.500049494206905e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6.582995411008596e-06</v>
+        <v>6.624963134527206e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>6.70895678922534e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>6.499991286545992e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6.707967258989811e-06</v>
+        <v>6.667047273367643e-06</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6.790971383452415e-06</v>
+        <v>6.66698906570673e-06</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7.124966941773891e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>6.832997314631939e-06</v>
+        <v>6.624963134527206e-06</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>6.790971383452415e-06</v>
+        <v>7.291964720934629e-06</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>6.957969162613153e-06</v>
+        <v>6.792019121348858e-06</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>6.792019121348858e-06</v>
+        <v>7.583003025501966e-06</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>6.875023245811462e-06</v>
+        <v>6.750051397830248e-06</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7.166992872953415e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>6.916001439094543e-06</v>
+        <v>7.62502895668149e-06</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>6.958027370274067e-06</v>
+        <v>6.916990969330072e-06</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>6.916001439094543e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7.125025149434805e-06</v>
+        <v>6.917049176990986e-06</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>6.999995093792677e-06</v>
+        <v>6.875023245811462e-06</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7.0420210249722e-06</v>
+        <v>7.665948942303658e-06</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>7.166003342717886e-06</v>
+        <v>6.874965038150549e-06</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>7.124966941773891e-06</v>
+        <v>6.958958692848682e-06</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>7.125025149434805e-06</v>
+        <v>1.78330228663981e-05</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>7.291964720934629e-06</v>
+        <v>8.500006515532732e-06</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>7.125025149434805e-06</v>
+        <v>7.542024832218885e-06</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>7.416994776576757e-06</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>1.85410026460886e-05</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>9.957992006093264e-06</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>8.459028322249651e-06</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>7.458031177520752e-06</v>
+        <v>7.792026735842228e-06</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>7.416005246341228e-06</v>
+        <v>7.833994459360838e-06</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>7.833994459360838e-06</v>
+        <v>8.208036888390779e-06</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>7.583992555737495e-06</v>
+        <v>7.916998583823442e-06</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>8.125032763928175e-06</v>
+        <v>8.250004611909389e-06</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>7.708033081144094e-06</v>
+        <v>7.874972652643919e-06</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>7.750000804662704e-06</v>
+        <v>8.375034667551517e-06</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>7.70896440371871e-06</v>
+        <v>7.833004929125309e-06</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>7.833004929125309e-06</v>
+        <v>8.04202863946557e-06</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>7.583003025501966e-06</v>
+        <v>8.417002391070127e-06</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>7.624970749020576e-06</v>
+        <v>8.000002708286047e-06</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>7.833994459360838e-06</v>
+        <v>8.458038792014122e-06</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>8.500006515532732e-06</v>
+        <v>8.166010957211256e-06</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>7.70896440371871e-06</v>
+        <v>7.957976777106524e-06</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>7.834052667021751e-06</v>
+        <v>8.166010957211256e-06</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>7.833004929125309e-06</v>
+        <v>8.04202863946557e-06</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>8.000002708286047e-06</v>
+        <v>8.66700429469347e-06</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>7.833004929125309e-06</v>
+        <v>8.208968210965395e-06</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>8.040980901569128e-06</v>
+        <v>8.707982487976551e-06</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>8.584000170230865e-06</v>
+        <v>8.332950528711081e-06</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>8.167000487446785e-06</v>
+        <v>8.541974239051342e-06</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>8.166010957211256e-06</v>
+        <v>8.416012860834599e-06</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>8.250004611909389e-06</v>
+        <v>8.333998266607523e-06</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>8.124974556267262e-06</v>
+        <v>8.292030543088913e-06</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>8.167000487446785e-06</v>
+        <v>8.457980584353209e-06</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>8.209026418626308e-06</v>
+        <v>8.792034350335598e-06</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>8.250004611909389e-06</v>
+        <v>8.290982805192471e-06</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>8.417002391070127e-06</v>
+        <v>8.874980267137289e-06</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>8.583010639995337e-06</v>
+        <v>8.374976459890604e-06</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>8.457980584353209e-06</v>
+        <v>8.832954335957766e-06</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>8.291972335427999e-06</v>
+        <v>8.542032446712255e-06</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>9.084003977477551e-06</v>
+        <v>8.458970114588737e-06</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>8.458038792014122e-06</v>
+        <v>8.707982487976551e-06</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>8.542032446712255e-06</v>
+        <v>8.750008419156075e-06</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>8.790986612439156e-06</v>
+        <v>8.957984391599894e-06</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>8.584000170230865e-06</v>
+        <v>8.62503657117486e-06</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>8.500006515532732e-06</v>
+        <v>9.084003977477551e-06</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>8.707982487976551e-06</v>
+        <v>8.791976142674685e-06</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>8.542032446712255e-06</v>
+        <v>8.750008419156075e-06</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>8.582952432334423e-06</v>
+        <v>9.415962267667055e-06</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>8.750008419156075e-06</v>
+        <v>8.958973921835423e-06</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>8.583010639995337e-06</v>
+        <v>8.917006198316813e-06</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>8.62503657117486e-06</v>
+        <v>8.833012543618679e-06</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>8.958973921835423e-06</v>
+        <v>9.457988198846579e-06</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>8.791976142674685e-06</v>
+        <v>9.084003977477551e-06</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>8.707982487976551e-06</v>
+        <v>9.29197994992137e-06</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>9.33394767343998e-06</v>
+        <v>8.916016668081284e-06</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>8.874980267137289e-06</v>
+        <v>9.666022378951311e-06</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>9.833020158112049e-06</v>
+        <v>9.25001222640276e-06</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>9.499955922365189e-06</v>
+        <v>9.834009688347578e-06</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>9.124982170760632e-06</v>
+        <v>9.374984074383974e-06</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>9.917013812810183e-06</v>
+        <v>9.62504418566823e-06</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>9.207986295223236e-06</v>
+        <v>9.624985978007317e-06</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>9.417010005563498e-06</v>
+        <v>9.457988198846579e-06</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>9.166018571704626e-06</v>
+        <v>9.500014130026102e-06</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>9.20804450288415e-06</v>
+        <v>9.500014130026102e-06</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>9.25001222640276e-06</v>
+        <v>9.500014130026102e-06</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>9.207986295223236e-06</v>
+        <v>9.499955922365189e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>9.62504418566823e-06</v>
+        <v>9.500014130026102e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>9.25001222640276e-06</v>
+        <v>9.624985978007317e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>9.375042282044888e-06</v>
+        <v>9.582960046827793e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>9.707990102469921e-06</v>
+        <v>9.500014130026102e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>9.750016033649445e-06</v>
+        <v>9.707990102469921e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>9.25001222640276e-06</v>
+        <v>9.542040061205626e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>9.790994226932526e-06</v>
+        <v>9.707990102469921e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>9.374984074383974e-06</v>
+        <v>9.832961950451136e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>1.00419856607914e-05</v>
+        <v>9.750016033649445e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>9.459035936743021e-06</v>
+        <v>9.66701190918684e-06</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>9.457988198846579e-06</v>
+        <v>9.791052434593439e-06</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>9.583018254488707e-06</v>
+        <v>9.792041964828968e-06</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>9.542040061205626e-06</v>
+        <v>9.874987881630659e-06</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>9.707990102469921e-06</v>
+        <v>9.874987881630659e-06</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>9.70897963270545e-06</v>
+        <v>9.957992006093264e-06</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>9.749957825988531e-06</v>
+        <v>9.917013812810183e-06</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>9.66701190918684e-06</v>
+        <v>9.791983757168055e-06</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>9.875046089291573e-06</v>
+        <v>9.957992006093264e-06</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>9.750016033649445e-06</v>
+        <v>1.00419856607914e-05</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>9.832961950451136e-06</v>
+        <v>9.916024282574654e-06</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>9.874987881630659e-06</v>
+        <v>9.917013812810183e-06</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>9.833020158112049e-06</v>
+        <v>1.025001984089613e-05</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>9.665964171290398e-06</v>
+        <v>1.004204386845231e-05</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>1.058401539921761e-05</v>
+        <v>1.062499359250069e-05</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>1.008302206173539e-05</v>
+        <v>1.024996163323522e-05</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>9.833020158112049e-06</v>
+        <v>1.0166026186198e-05</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>9.91596607491374e-06</v>
+        <v>1.0124989785254e-05</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>9.874987881630659e-06</v>
+        <v>1.049996353685856e-05</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>9.917013812810183e-06</v>
+        <v>1.029198756441474e-05</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>9.874987881630659e-06</v>
+        <v>1.033296575769782e-05</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>9.917013812810183e-06</v>
+        <v>1.041701762005687e-05</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>1.00419856607914e-05</v>
+        <v>1.041701762005687e-05</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>1.008395338431001e-05</v>
+        <v>1.037499168887734e-05</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>1.004204386845231e-05</v>
+        <v>1.045799581333995e-05</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>1.0124989785254e-05</v>
+        <v>1.058302586898208e-05</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>1.008395338431001e-05</v>
+        <v>1.054198946803808e-05</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>1.016701571643353e-05</v>
+        <v>1.050002174451947e-05</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>1.033302396535873e-05</v>
+        <v>1.062499359250069e-05</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>1.037499168887734e-05</v>
+        <v>1.083395909518003e-05</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>1.033302396535873e-05</v>
+        <v>1.07080559246242e-05</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>1.045799581333995e-05</v>
+        <v>1.075002364814281e-05</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>1.033296575769782e-05</v>
+        <v>1.070799771696329e-05</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>1.049996353685856e-05</v>
+        <v>1.06669613160193e-05</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>1.050002174451947e-05</v>
+        <v>1.100002555176616e-05</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>1.033296575769782e-05</v>
+        <v>1.091696321964264e-05</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>1.062499359250069e-05</v>
+        <v>1.083401730284095e-05</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>1.07499654404819e-05</v>
+        <v>1.099996734410524e-05</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>1.062499359250069e-05</v>
+        <v>1.104199327528477e-05</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>1.058302586898208e-05</v>
+        <v>1.087499549612403e-05</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>1.06669613160193e-05</v>
+        <v>1.099996734410524e-05</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1.070898724719882e-05</v>
+        <v>1.099996734410524e-05</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>1.291697844862938e-05</v>
+        <v>1.108401920646429e-05</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>1.083395909518003e-05</v>
+        <v>1.100002555176616e-05</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>1.087499549612403e-05</v>
+        <v>1.108302967622876e-05</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>1.141702523455024e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>1.095799962058663e-05</v>
+        <v>1.124996924772859e-05</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>1.095799962058663e-05</v>
+        <v>1.120899105444551e-05</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>1.104100374504924e-05</v>
+        <v>1.108297146856785e-05</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>1.108302967622876e-05</v>
+        <v>1.129100564867258e-05</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>1.091702142730355e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>1.112499739974737e-05</v>
+        <v>1.12500274553895e-05</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>1.104100374504924e-05</v>
+        <v>1.129199517890811e-05</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>1.108401920646429e-05</v>
+        <v>1.133402111008763e-05</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>1.091696321964264e-05</v>
+        <v>1.137499930337071e-05</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>1.116597559303045e-05</v>
+        <v>1.141702523455024e-05</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>1.137499930337071e-05</v>
+        <v>1.133402111008763e-05</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>1.133402111008763e-05</v>
+        <v>1.150002935901284e-05</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>1.13330315798521e-05</v>
+        <v>1.137499930337071e-05</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>1.12500274553895e-05</v>
+        <v>1.149997115135193e-05</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>1.112499739974737e-05</v>
+        <v>1.150002935901284e-05</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>1.12500274553895e-05</v>
+        <v>1.158297527581453e-05</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>1.129199517890811e-05</v>
+        <v>1.158297527581453e-05</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>1.133402111008763e-05</v>
+        <v>1.145899295806885e-05</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>1.116696512326598e-05</v>
+        <v>1.166702713817358e-05</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1.141603570431471e-05</v>
+        <v>1.170800533145666e-05</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>1.158402301371098e-05</v>
+        <v>1.174997305497527e-05</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1.145800342783332e-05</v>
+        <v>1.170800533145666e-05</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>1.154199708253145e-05</v>
+        <v>1.174997305497527e-05</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1.154094934463501e-05</v>
+        <v>1.18750031106174e-05</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>1.158303348347545e-05</v>
+        <v>1.199997495859861e-05</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1.137499930337071e-05</v>
+        <v>1.195800723508e-05</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>1.199997495859861e-05</v>
+        <v>1.224997686222196e-05</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>1.212500501424074e-05</v>
+        <v>1.229200279340148e-05</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>1.191697083413601e-05</v>
+        <v>1.224997686222196e-05</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>1.199997495859861e-05</v>
+        <v>1.216697273775935e-05</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1.200003316625953e-05</v>
+        <v>1.212500501424074e-05</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1.200003316625953e-05</v>
+        <v>1.220899866893888e-05</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>1.225003506988287e-05</v>
+        <v>1.237500691786408e-05</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>1.195800723508e-05</v>
+        <v>1.212500501424074e-05</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>1.208402682095766e-05</v>
+        <v>4.900002386420965e-05</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>1.212500501424074e-05</v>
+        <v>1.229200279340148e-05</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>1.220800913870335e-05</v>
+        <v>1.250003697350621e-05</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>1.220899866893888e-05</v>
+        <v>1.254200469702482e-05</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>1.216703094542027e-05</v>
+        <v>1.245900057256222e-05</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>1.220899866893888e-05</v>
+        <v>1.241697464138269e-05</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>1.220800913870335e-05</v>
+        <v>1.233303919434547e-05</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>1.229200279340148e-05</v>
+        <v>1.254200469702482e-05</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>1.224997686222196e-05</v>
+        <v>1.24999787658453e-05</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>1.216703094542027e-05</v>
+        <v>1.250003697350621e-05</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>1.245801104232669e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>1.245900057256222e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>1.245795283466578e-05</v>
+        <v>1.908303238451481e-05</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>1.245900057256222e-05</v>
+        <v>1.279200660064816e-05</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>1.254200469702482e-05</v>
+        <v>1.245801104232669e-05</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>1.254200469702482e-05</v>
+        <v>1.241697464138269e-05</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>1.24999787658453e-05</v>
+        <v>1.245795283466578e-05</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>2.391700400039554e-05</v>
+        <v>1.241598511114717e-05</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>1.274998066946864e-05</v>
+        <v>1.325004268437624e-05</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>1.287501072511077e-05</v>
+        <v>1.233397051692009e-05</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1.270795473828912e-05</v>
+        <v>1.24999787658453e-05</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>1.266697654500604e-05</v>
+        <v>1.24999787658453e-05</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>1.254101516678929e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>1.270900247618556e-05</v>
+        <v>1.308298669755459e-05</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>1.270900247618556e-05</v>
+        <v>1.241703284904361e-05</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>1.25829828903079e-05</v>
+        <v>1.270900247618556e-05</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>1.266598701477051e-05</v>
+        <v>1.270801294595003e-05</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>1.270795473828912e-05</v>
+        <v>1.275003887712955e-05</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>1.279194839298725e-05</v>
+        <v>1.270801294595003e-05</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>1.283298479393125e-05</v>
+        <v>1.275003887712955e-05</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>1.283298479393125e-05</v>
+        <v>1.341599272564054e-05</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>1.30000407807529e-05</v>
+        <v>1.304200850427151e-05</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>1.291604712605476e-05</v>
+        <v>1.329201040789485e-05</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>1.291604712605476e-05</v>
+        <v>1.308403443545103e-05</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>1.29590043798089e-05</v>
+        <v>1.304200850427151e-05</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>1.299998257309198e-05</v>
+        <v>1.291598891839385e-05</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>1.29590043798089e-05</v>
+        <v>2.012500772252679e-05</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>1.29590043798089e-05</v>
+        <v>1.687498297542334e-05</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>1.304200850427151e-05</v>
+        <v>1.354201231151819e-05</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>1.304101897403598e-05</v>
+        <v>1.36250164359808e-05</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>1.31249544210732e-05</v>
+        <v>1.366698415949941e-05</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>1.31249544210732e-05</v>
+        <v>1.36250164359808e-05</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>1.316698035225272e-05</v>
+        <v>1.362495822831988e-05</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>1.316599082201719e-05</v>
+        <v>1.358403824269772e-05</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>1.304200850427151e-05</v>
+        <v>1.379195600748062e-05</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>1.316698035225272e-05</v>
+        <v>1.370796235278249e-05</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>1.333397813141346e-05</v>
+        <v>1.379201421514153e-05</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>1.320801675319672e-05</v>
+        <v>1.379201421514153e-05</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>1.333304680883884e-05</v>
+        <v>1.387501833960414e-05</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>1.433305442333221e-05</v>
+        <v>1.404195791110396e-05</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>1.370796235278249e-05</v>
+        <v>1.42089556902647e-05</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>1.37080205604434e-05</v>
+        <v>2.695899456739426e-05</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>1.362495822831988e-05</v>
+        <v>1.512496965005994e-05</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>1.387496013194323e-05</v>
+        <v>1.470796996727586e-05</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>1.383299240842462e-05</v>
+        <v>1.43329962156713e-05</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>1.383299240842462e-05</v>
+        <v>1.43329962156713e-05</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>1.387501833960414e-05</v>
+        <v>2.083298750221729e-05</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>1.395796425640583e-05</v>
+        <v>1.416599843651056e-05</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>1.395901199430227e-05</v>
+        <v>1.420796616002917e-05</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>1.395796425640583e-05</v>
+        <v>1.42089556902647e-05</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>1.391599653288722e-05</v>
+        <v>1.412502024322748e-05</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>1.40840420499444e-05</v>
+        <v>1.43329962156713e-05</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>1.404201611876488e-05</v>
+        <v>1.429195981472731e-05</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>1.412496203556657e-05</v>
+        <v>1.43329962156713e-05</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>1.408299431204796e-05</v>
+        <v>1.433398574590683e-05</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>1.420901389792562e-05</v>
+        <v>1.437502214685082e-05</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>1.395802246406674e-05</v>
+        <v>1.42499920912087e-05</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>1.42499920912087e-05</v>
+        <v>1.445802627131343e-05</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>1.404201611876488e-05</v>
+        <v>1.441704807803035e-05</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>1.404195791110396e-05</v>
+        <v>1.458299811929464e-05</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>1.433398574590683e-05</v>
+        <v>1.462502405047417e-05</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>1.420802436769009e-05</v>
+        <v>1.454196171835065e-05</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>1.437496393918991e-05</v>
+        <v>1.462502405047417e-05</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>1.42499920912087e-05</v>
+        <v>1.445901580154896e-05</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>1.437496393918991e-05</v>
+        <v>1.454201992601156e-05</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>1.429195981472731e-05</v>
+        <v>1.474999589845538e-05</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>1.454196171835065e-05</v>
+        <v>1.462502405047417e-05</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>1.449999399483204e-05</v>
+        <v>1.458299811929464e-05</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>1.441698987036943e-05</v>
+        <v>1.466699177399278e-05</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>1.437496393918991e-05</v>
+        <v>1.474999589845538e-05</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>1.47090177051723e-05</v>
+        <v>1.491699367761612e-05</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>1.479196362197399e-05</v>
+        <v>1.487502595409751e-05</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>1.48749677464366e-05</v>
+        <v>1.516600605100393e-05</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>1.50409759953618e-05</v>
+        <v>1.504202373325825e-05</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>1.48749677464366e-05</v>
+        <v>1.491699367761612e-05</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>1.487502595409751e-05</v>
+        <v>1.508300192654133e-05</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>1.487502595409751e-05</v>
+        <v>1.495896140113473e-05</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>1.479103229939938e-05</v>
+        <v>1.508399145677686e-05</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>1.47920218296349e-05</v>
+        <v>1.491699367761612e-05</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>1.487502595409751e-05</v>
+        <v>1.504196552559733e-05</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>1.470796996727586e-05</v>
+        <v>1.512502785772085e-05</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>1.495901960879564e-05</v>
+        <v>1.520803198218346e-05</v>
       </c>
     </row>
     <row r="502">
@@ -4458,7 +4458,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>1.487502595409751e-05</v>
+        <v>1.524999970570207e-05</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>1.487502595409751e-05</v>
+        <v>1.533300383016467e-05</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>1.508399145677686e-05</v>
+        <v>1.524999970570207e-05</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>1.48749677464366e-05</v>
+        <v>1.524999970570207e-05</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>1.512502785772085e-05</v>
+        <v>1.520797377452254e-05</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>1.49579718708992e-05</v>
+        <v>1.545797567814589e-05</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>1.508294371888041e-05</v>
+        <v>1.545797567814589e-05</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>1.524999970570207e-05</v>
+        <v>1.545902341604233e-05</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>1.529196742922068e-05</v>
+        <v>1.554196933284402e-05</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>1.520902151241899e-05</v>
+        <v>1.554097980260849e-05</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>1.520902151241899e-05</v>
+        <v>1.558300573378801e-05</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>1.524999970570207e-05</v>
+        <v>1.550000160932541e-05</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>1.520896330475807e-05</v>
+        <v>1.550000160932541e-05</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>1.529196742922068e-05</v>
+        <v>1.558399526402354e-05</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>1.537497155368328e-05</v>
+        <v>1.566699938848615e-05</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>1.537502976134419e-05</v>
+        <v>1.554196933284402e-05</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>1.529202563688159e-05</v>
+        <v>1.566699938848615e-05</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>1.537497155368328e-05</v>
+        <v>1.562497345730662e-05</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>1.524999970570207e-05</v>
+        <v>1.574994530528784e-05</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>1.554196933284402e-05</v>
+        <v>1.587497536092997e-05</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>1.554202754050493e-05</v>
+        <v>1.587497536092997e-05</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>1.562503166496754e-05</v>
+        <v>1.59589690156281e-05</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>1.550000160932541e-05</v>
+        <v>1.587497536092997e-05</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>1.575000351294875e-05</v>
+        <v>1.595902722328901e-05</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>1.570902531966567e-05</v>
+        <v>1.612503547221422e-05</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>1.570797758176923e-05</v>
+        <v>1.620798138901591e-05</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>1.575000351294875e-05</v>
+        <v>1.595902722328901e-05</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>1.562503166496754e-05</v>
+        <v>1.616700319573283e-05</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>1.575000351294875e-05</v>
+        <v>1.60419731400907e-05</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>1.583399716764688e-05</v>
+        <v>1.595797948539257e-05</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>1.583300763741136e-05</v>
+        <v>1.616700319573283e-05</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>1.595902722328901e-05</v>
+        <v>1.612503547221422e-05</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>1.583300763741136e-05</v>
+        <v>1.641601556912065e-05</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>1.595803769305348e-05</v>
+        <v>1.662503927946091e-05</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>1.600000541657209e-05</v>
+        <v>1.616700319573283e-05</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>1.595797948539257e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>1.616700319573283e-05</v>
+        <v>1.620902912691236e-05</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>1.604203134775162e-05</v>
+        <v>1.633400097489357e-05</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>1.616700319573283e-05</v>
+        <v>1.633301144465804e-05</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>1.616700319573283e-05</v>
+        <v>1.641700509935617e-05</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>1.608399907127023e-05</v>
+        <v>1.654098741710186e-05</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>1.620803959667683e-05</v>
+        <v>1.658295514062047e-05</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>1.629098551347852e-05</v>
+        <v>1.65420351549983e-05</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>1.61660136654973e-05</v>
+        <v>1.658301334828138e-05</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>1.625000732019544e-05</v>
+        <v>1.662498107179999e-05</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>1.629197504371405e-05</v>
+        <v>1.641601556912065e-05</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>1.629203325137496e-05</v>
+        <v>1.670903293415904e-05</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>1.64590310305357e-05</v>
+        <v>1.683295704424381e-05</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>1.629197504371405e-05</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>1.645897282287478e-05</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>1.641601556912065e-05</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>1.641700509935617e-05</v>
+        <v>1.679104752838612e-05</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>1.654197694733739e-05</v>
+        <v>1.683400478214025e-05</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>1.662498107179999e-05</v>
+        <v>1.687498297542334e-05</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>1.670897472649813e-05</v>
+        <v>1.700001303106546e-05</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>1.658301334828138e-05</v>
+        <v>1.687498297542334e-05</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>1.645798329263926e-05</v>
+        <v>1.699995482340455e-05</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>1.662498107179999e-05</v>
+        <v>1.687498297542334e-05</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>1.662498107179999e-05</v>
+        <v>1.70840066857636e-05</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>1.675001112744212e-05</v>
+        <v>1.704203896224499e-05</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>1.683301525190473e-05</v>
+        <v>1.704198075458407e-05</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>1.670897472649813e-05</v>
+        <v>1.704099122434855e-05</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>1.679197885096073e-05</v>
+        <v>1.712498487904668e-05</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>1.687498297542334e-05</v>
+        <v>1.695798709988594e-05</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>1.670897472649813e-05</v>
+        <v>1.712498487904668e-05</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>1.704198075458407e-05</v>
+        <v>1.720798900350928e-05</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>1.691596116870642e-05</v>
+        <v>1.72080472111702e-05</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>1.691700890660286e-05</v>
+        <v>3.120797919109464e-05</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>1.687498297542334e-05</v>
+        <v>1.974997576326132e-05</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>1.712498487904668e-05</v>
+        <v>1.783401239663363e-05</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>1.683394657447934e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>1.704198075458407e-05</v>
+        <v>1.71670108102262e-05</v>
       </c>
     </row>
     <row r="575">
@@ -5042,7 +5042,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>1.700001303106546e-05</v>
+        <v>1.737504499033093e-05</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>1.700001303106546e-05</v>
+        <v>1.71670108102262e-05</v>
       </c>
     </row>
     <row r="578">
@@ -5066,7 +5066,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>1.704099122434855e-05</v>
+        <v>1.733400858938694e-05</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>1.716602127999067e-05</v>
+        <v>1.737504499033093e-05</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>1.720798900350928e-05</v>
+        <v>1.820898614823818e-05</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>1.716602127999067e-05</v>
+        <v>1.737504499033093e-05</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>1.733301905915141e-05</v>
+        <v>1.737498678267002e-05</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>1.73329608514905e-05</v>
+        <v>1.754198456183076e-05</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>1.725001493468881e-05</v>
+        <v>1.745804911479354e-05</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>1.729099312797189e-05</v>
+        <v>1.754099503159523e-05</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>1.729198265820742e-05</v>
+        <v>1.758401049301028e-05</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>1.74159649759531e-05</v>
+        <v>1.762498868629336e-05</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>1.729198265820742e-05</v>
+        <v>1.758296275511384e-05</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>1.745799090713263e-05</v>
+        <v>1.758302096277475e-05</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>1.733301905915141e-05</v>
+        <v>1.754198456183076e-05</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>1.750001683831215e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>1.762498868629336e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>1.750001683831215e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>1.754198456183076e-05</v>
+        <v>1.795799471437931e-05</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>1.770799281075597e-05</v>
+        <v>1.766701461747289e-05</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>1.762498868629336e-05</v>
+        <v>1.79160269908607e-05</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>1.783395418897271e-05</v>
+        <v>1.78330228663981e-05</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>1.775001874193549e-05</v>
+        <v>1.77919864654541e-05</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>1.775001874193549e-05</v>
+        <v>1.791701652109623e-05</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>1.78330228663981e-05</v>
+        <v>1.791695831343532e-05</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>1.783401239663363e-05</v>
+        <v>1.800002064555883e-05</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>1.783401239663363e-05</v>
+        <v>1.808296656236053e-05</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>1.791701652109623e-05</v>
+        <v>1.766701461747289e-05</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>1.774996053427458e-05</v>
+        <v>1.808302477002144e-05</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>1.791701652109623e-05</v>
+        <v>1.800002064555883e-05</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>1.791701652109623e-05</v>
+        <v>1.812499249354005e-05</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>1.804198836907744e-05</v>
+        <v>1.808296656236053e-05</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>1.799996243789792e-05</v>
+        <v>1.816701842471957e-05</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>1.800002064555883e-05</v>
+        <v>1.812499249354005e-05</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>1.800002064555883e-05</v>
+        <v>1.833296846598387e-05</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>1.804204657673836e-05</v>
+        <v>1.820799661800265e-05</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>1.829199027270079e-05</v>
+        <v>1.824996434152126e-05</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>1.833401620388031e-05</v>
+        <v>1.833302667364478e-05</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>1.83750526048243e-05</v>
+        <v>1.833302667364478e-05</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>1.816602889448404e-05</v>
+        <v>1.837499439716339e-05</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>1.8457998521626e-05</v>
+        <v>1.837499439716339e-05</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>1.8457998521626e-05</v>
+        <v>1.837499439716339e-05</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>1.854199217632413e-05</v>
+        <v>1.841597259044647e-05</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>1.8416962120682e-05</v>
+        <v>1.858302857726812e-05</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>1.8457998521626e-05</v>
+        <v>1.837499439716339e-05</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>1.895899185910821e-05</v>
+        <v>1.85410026460886e-05</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>1.858297036960721e-05</v>
+        <v>1.854199217632413e-05</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>1.85410026460886e-05</v>
+        <v>1.866696402430534e-05</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>1.850002445280552e-05</v>
+        <v>1.870800042524934e-05</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>1.870800042524934e-05</v>
+        <v>1.866702223196626e-05</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>1.862499630078673e-05</v>
+        <v>1.85410026460886e-05</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>1.858395989984274e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>1.870800042524934e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>1.854199217632413e-05</v>
+        <v>1.870800042524934e-05</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>1.858297036960721e-05</v>
+        <v>1.866702223196626e-05</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>1.879199407994747e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>1.874996814876795e-05</v>
+        <v>1.883303048089147e-05</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>1.883297227323055e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>1.887499820441008e-05</v>
+        <v>1.895800232887268e-05</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>1.887499820441008e-05</v>
+        <v>1.883303048089147e-05</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>1.879199407994747e-05</v>
+        <v>1.887499820441008e-05</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>1.887499820441008e-05</v>
+        <v>1.883297227323055e-05</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>1.90829741768539e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>1.89170241355896e-05</v>
+        <v>1.904205419123173e-05</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>1.933396561071277e-05</v>
+        <v>1.908396370708942e-05</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>1.904100645333529e-05</v>
+        <v>1.90829741768539e-05</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>1.90829741768539e-05</v>
+        <v>1.945794792845845e-05</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>1.908402191475034e-05</v>
+        <v>1.920899376273155e-05</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>1.895899185910821e-05</v>
+        <v>1.929199788719416e-05</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>1.916702603921294e-05</v>
+        <v>1.949997385963798e-05</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>1.912500010803342e-05</v>
+        <v>1.937500201165676e-05</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>1.929199788719416e-05</v>
+        <v>1.916702603921294e-05</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>1.950003206729889e-05</v>
+        <v>1.933303428813815e-05</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>1.937500201165676e-05</v>
+        <v>1.987500581890345e-05</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>1.929199788719416e-05</v>
+        <v>1.941702794283628e-05</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>1.950003206729889e-05</v>
+        <v>1.995800994336605e-05</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>1.941702794283628e-05</v>
+        <v>1.958303619176149e-05</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>1.95419997908175e-05</v>
+        <v>1.958297798410058e-05</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>1.945794792845845e-05</v>
+        <v>1.96250039152801e-05</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>1.945899566635489e-05</v>
+        <v>1.95419997908175e-05</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>1.937500201165676e-05</v>
+        <v>1.95419997908175e-05</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>1.941696973517537e-05</v>
+        <v>1.958297798410058e-05</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>1.950003206729889e-05</v>
+        <v>1.966702984645963e-05</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>1.958297798410058e-05</v>
+        <v>1.96250039152801e-05</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>2.033298369497061e-05</v>
+        <v>1.970800803974271e-05</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>2.037500962615013e-05</v>
+        <v>1.987494761124253e-05</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>2.012500772252679e-05</v>
+        <v>1.970794983208179e-05</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>1.974997576326132e-05</v>
+        <v>1.991604221984744e-05</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>1.966598210856318e-05</v>
+        <v>1.987500581890345e-05</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>2.020801184698939e-05</v>
+        <v>1.995800994336605e-05</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>1.995800994336605e-05</v>
+        <v>2.008298179134727e-05</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>2.000003587454557e-05</v>
+        <v>1.999997766688466e-05</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>1.979200169444084e-05</v>
+        <v>2.004095586016774e-05</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>1.979200169444084e-05</v>
+        <v>2.000003587454557e-05</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>1.995899947360158e-05</v>
+        <v>2.004101406782866e-05</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>1.991697354242206e-05</v>
+        <v>2.037500962615013e-05</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>2.004200359806418e-05</v>
+        <v>2.020801184698939e-05</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>2.012494951486588e-05</v>
+        <v>2.033298369497061e-05</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>2.012500772252679e-05</v>
+        <v>2.033304190263152e-05</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>2.033298369497061e-05</v>
+        <v>2.029200550168753e-05</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>2.008397132158279e-05</v>
+        <v>2.0291015971452e-05</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>2.041697734966874e-05</v>
+        <v>2.029200550168753e-05</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>2.033298369497061e-05</v>
+        <v>2.041697734966874e-05</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>2.033298369497061e-05</v>
+        <v>2.058298559859395e-05</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>2.045801375061274e-05</v>
+        <v>2.058298559859395e-05</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>2.041703555732965e-05</v>
+        <v>2.041598781943321e-05</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>2.033403143286705e-05</v>
+        <v>2.0249979570508e-05</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>2.054200740531087e-05</v>
+        <v>2.037500962615013e-05</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>2.129096537828445e-05</v>
+        <v>2.079200930893421e-05</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>2.041697734966874e-05</v>
+        <v>2.050003968179226e-05</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>2.045795554295182e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>2.041598781943321e-05</v>
+        <v>2.066598972305655e-05</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>2.050003968179226e-05</v>
+        <v>2.070795744657516e-05</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>2.054200740531087e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>2.058403333649039e-05</v>
+        <v>2.070801565423608e-05</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>2.062501152977347e-05</v>
+        <v>2.066697925329208e-05</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>2.062501152977347e-05</v>
+        <v>2.091703936457634e-05</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>2.058397512882948e-05</v>
+        <v>2.079200930893421e-05</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>2.062501152977347e-05</v>
+        <v>2.083298750221729e-05</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>2.07500415854156e-05</v>
+        <v>2.083298750221729e-05</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>2.079200930893421e-05</v>
+        <v>2.091698115691543e-05</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>2.070795744657516e-05</v>
+        <v>2.099998528137803e-05</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>2.149998908862472e-05</v>
+        <v>2.091698115691543e-05</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>2.100004348903894e-05</v>
+        <v>2.099998528137803e-05</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>2.108397893607616e-05</v>
+        <v>2.104201121255755e-05</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>2.099998528137803e-05</v>
+        <v>2.104201121255755e-05</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>2.083397703245282e-05</v>
+        <v>2.091703936457634e-05</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>2.087501343339682e-05</v>
+        <v>2.108403714373708e-05</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>2.087501343339682e-05</v>
+        <v>2.120801946148276e-05</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>2.095795935019851e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>2.091703936457634e-05</v>
+        <v>2.641597529873252e-05</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>2.095900708809495e-05</v>
+        <v>2.549996133893728e-05</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>2.095900708809495e-05</v>
+        <v>2.691696863621473e-05</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>2.116698306053877e-05</v>
+        <v>2.654199488461018e-05</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>2.099998528137803e-05</v>
+        <v>2.829101867973804e-05</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>2.112501533702016e-05</v>
+        <v>2.80410167761147e-05</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>2.120796125382185e-05</v>
+        <v>2.804200630635023e-05</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>2.108298940584064e-05</v>
+        <v>2.654199488461018e-05</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>2.116698306053877e-05</v>
+        <v>2.841599052771926e-05</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>2.116599353030324e-05</v>
+        <v>2.804200630635023e-05</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>2.145901089534163e-05</v>
+        <v>2.591696102172136e-05</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>2.133304951712489e-05</v>
+        <v>2.849998418241739e-05</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>2.13750172406435e-05</v>
+        <v>2.79580126516521e-05</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>2.12920131161809e-05</v>
+        <v>2.670899266377091e-05</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>2.133299130946398e-05</v>
+        <v>2.874998608604074e-05</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>2.141698496416211e-05</v>
+        <v>2.687500091269612e-05</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>2.150004729628563e-05</v>
+        <v>2.683402271941304e-05</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>2.137495903298259e-05</v>
+        <v>2.883299021050334e-05</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>2.158398274332285e-05</v>
+        <v>2.854201011359692e-05</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>2.141698496416211e-05</v>
+        <v>2.654100535437465e-05</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>2.154201501980424e-05</v>
+        <v>2.891698386520147e-05</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>2.166698686778545e-05</v>
+        <v>2.850004239007831e-05</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>2.158299321308732e-05</v>
+        <v>2.591696102172136e-05</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>2.166704507544637e-05</v>
+        <v>2.579198917374015e-05</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>2.166599733754992e-05</v>
+        <v>2.691702684387565e-05</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>2.162501914426684e-05</v>
+        <v>2.920901170000434e-05</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>2.179201692342758e-05</v>
+        <v>2.90420139208436e-05</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>2.187502104789019e-05</v>
+        <v>2.924998989328742e-05</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>2.891698386520147e-05</v>
+        <v>2.65840208157897e-05</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>2.529099583625793e-05</v>
+        <v>2.899998798966408e-05</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>2.812501043081284e-05</v>
+        <v>2.404098631814122e-05</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>2.883299021050334e-05</v>
+        <v>2.79580126516521e-05</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>2.787500852718949e-05</v>
+        <v>2.895802026614547e-05</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>2.741697244346142e-05</v>
+        <v>2.800003858283162e-05</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>2.733402652665973e-05</v>
+        <v>2.724997466430068e-05</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>2.404203405603766e-05</v>
+        <v>2.749997656792402e-05</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>2.887501614168286e-05</v>
+        <v>2.829200820997357e-05</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>2.92079639621079e-05</v>
+        <v>2.725003287196159e-05</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>2.841698005795479e-05</v>
+        <v>4.837499000132084e-05</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>2.72920005954802e-05</v>
+        <v>2.899998798966408e-05</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>2.954102819785476e-05</v>
+        <v>2.816598862409592e-05</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>2.92909680865705e-05</v>
+        <v>2.979201963171363e-05</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>2.883304841816425e-05</v>
+        <v>2.954201772809029e-05</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>2.758303890004754e-05</v>
+        <v>2.829200820997357e-05</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>2.945901360362768e-05</v>
+        <v>2.74579506367445e-05</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>2.949999179691076e-05</v>
+        <v>2.954102819785476e-05</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>2.916698576882482e-05</v>
+        <v>2.712500281631947e-05</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>2.558401320129633e-05</v>
+        <v>2.725003287196159e-05</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>2.962496364489198e-05</v>
+        <v>2.974999370053411e-05</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>2.74160411208868e-05</v>
+        <v>2.725003287196159e-05</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>2.758298069238663e-05</v>
+        <v>2.779200440272689e-05</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>3.012502565979958e-05</v>
+        <v>3.100000321865082e-05</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>2.333300653845072e-05</v>
+        <v>2.308300463482738e-05</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>2.270896220579743e-05</v>
+        <v>2.329103881493211e-05</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>2.300000051036477e-05</v>
+        <v>2.316699828952551e-05</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>2.733402652665973e-05</v>
+        <v>2.308300463482738e-05</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>2.816703636199236e-05</v>
+        <v>2.879201201722026e-05</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>2.899998798966408e-05</v>
+        <v>2.849998418241739e-05</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>2.870900789275765e-05</v>
+        <v>2.658297307789326e-05</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>2.979196142405272e-05</v>
+        <v>3.033300163224339e-05</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>2.954201772809029e-05</v>
+        <v>2.866698196157813e-05</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>3.070896491408348e-05</v>
+        <v>3.0374969355762e-05</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>2.833298640325665e-05</v>
+        <v>2.895802026614547e-05</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>2.629199298098683e-05</v>
+        <v>2.96669895760715e-05</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>2.908398164436221e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>2.874998608604074e-05</v>
+        <v>3.041699528694153e-05</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>2.812495222315192e-05</v>
+        <v>2.958299592137337e-05</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>3.054202534258366e-05</v>
+        <v>3.041705349460244e-05</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>3.045902121812105e-05</v>
+        <v>2.991699147969484e-05</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>2.949999179691076e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>2.912501804530621e-05</v>
+        <v>2.941698767244816e-05</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>3.075000131502748e-05</v>
+        <v>2.887495793402195e-05</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>2.841698005795479e-05</v>
+        <v>3.08750313706696e-05</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>2.870801836252213e-05</v>
+        <v>3.091600956395268e-05</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>3.054196713492274e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>3.075000131502748e-05</v>
+        <v>2.645800122991204e-05</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>3.004196332767606e-05</v>
+        <v>3.091699909418821e-05</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>2.637499710544944e-05</v>
+        <v>3.08750313706696e-05</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>3.08750313706696e-05</v>
+        <v>2.937501994892955e-05</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>3.112503327429295e-05</v>
+        <v>2.845900598913431e-05</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>2.979201963171363e-05</v>
+        <v>2.962502185255289e-05</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>2.679199678823352e-05</v>
+        <v>3.100000321865082e-05</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>2.954102819785476e-05</v>
+        <v>3.100000321865082e-05</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>2.954102819785476e-05</v>
+        <v>2.637499710544944e-05</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>2.862495603039861e-05</v>
+        <v>2.362503437325358e-05</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>3.133300924673676e-05</v>
+        <v>2.354203024879098e-05</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>3.125000512227416e-05</v>
+        <v>2.583302557468414e-05</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>3.112503327429295e-05</v>
+        <v>2.354197204113007e-05</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>2.891698386520147e-05</v>
+        <v>2.43749818764627e-05</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>2.679094905033708e-05</v>
+        <v>2.633302938193083e-05</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>3.145897062495351e-05</v>
+        <v>3.024999750778079e-05</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>3.125000512227416e-05</v>
+        <v>3.154098521918058e-05</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>2.962502185255289e-05</v>
+        <v>3.075000131502748e-05</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>2.833304461091757e-05</v>
+        <v>2.858397783711553e-05</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>3.133300924673676e-05</v>
+        <v>3.108300734311342e-05</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>3.095896681770682e-05</v>
+        <v>3.162503708153963e-05</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>3.058300353586674e-05</v>
+        <v>2.987496554851532e-05</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>3.100000321865082e-05</v>
+        <v>2.658303128555417e-05</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>3.158301115036011e-05</v>
+        <v>3.183400258421898e-05</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>2.916698576882482e-05</v>
+        <v>3.175000892952085e-05</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>2.912495983764529e-05</v>
+        <v>3.154197474941611e-05</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>2.774997847154737e-05</v>
+        <v>2.691603731364012e-05</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>3.033300163224339e-05</v>
+        <v>3.195804310962558e-05</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>2.662499900907278e-05</v>
+        <v>3.158301115036011e-05</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>2.333399606868625e-05</v>
+        <v>3.162497887387872e-05</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>2.308300463482738e-05</v>
+        <v>2.329098060727119e-05</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>2.854102058336139e-05</v>
+        <v>2.316699828952551e-05</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>2.429203595966101e-05</v>
+        <v>2.358399797230959e-05</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>2.437504008412361e-05</v>
+        <v>2.820801455527544e-05</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>2.695794682949781e-05</v>
+        <v>2.408301224932075e-05</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>2.787500852718949e-05</v>
+        <v>2.44579860009253e-05</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>2.495798980817199e-05</v>
+        <v>3.008299972862005e-05</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>2.500001573935151e-05</v>
+        <v>2.487498568370938e-05</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>2.483295975252986e-05</v>
+        <v>2.470897743478417e-05</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>2.462504198774695e-05</v>
+        <v>2.500001573935151e-05</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>2.508301986381412e-05</v>
+        <v>2.462498378008604e-05</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>2.445897553116083e-05</v>
+        <v>2.44579860009253e-05</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>2.516602398827672e-05</v>
+        <v>2.495798980817199e-05</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>2.491602208465338e-05</v>
+        <v>2.487498568370938e-05</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>2.487498568370938e-05</v>
+        <v>2.516701351851225e-05</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>2.845801645889878e-05</v>
+        <v>2.558401320129633e-05</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>2.641696482896805e-05</v>
+        <v>2.462498378008604e-05</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>2.475001383572817e-05</v>
+        <v>2.537498949095607e-05</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>2.541602589190006e-05</v>
+        <v>2.999999560415745e-05</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>2.491701161488891e-05</v>
+        <v>2.533401129767299e-05</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>3.133399877697229e-05</v>
+        <v>2.466700971126556e-05</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>2.949999179691076e-05</v>
+        <v>2.454203786328435e-05</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>3.045902121812105e-05</v>
+        <v>2.545799361541867e-05</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>3.166700480505824e-05</v>
+        <v>2.895802026614547e-05</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>3.27909947372973e-05</v>
+        <v>3.012496745213866e-05</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>2.991600194945931e-05</v>
+        <v>3.275001654401422e-05</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>3.020797157660127e-05</v>
+        <v>3.287498839199543e-05</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>3.137497697025537e-05</v>
+        <v>3.129098331555724e-05</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>2.991600194945931e-05</v>
+        <v>3.116700099781156e-05</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>3.091699909418821e-05</v>
+        <v>3.375002415850759e-05</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>3.304198617115617e-05</v>
+        <v>3.300001844763756e-05</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>2.816697815433145e-05</v>
+        <v>3.141601337119937e-05</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>2.433400368317962e-05</v>
+        <v>2.774997847154737e-05</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>2.408400177955627e-05</v>
+        <v>2.487498568370938e-05</v>
       </c>
     </row>
     <row r="846">
@@ -7210,7 +7210,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>2.429098822176456e-05</v>
+        <v>2.400000812485814e-05</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>2.42090318351984e-05</v>
+        <v>2.412503818050027e-05</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>3.024999750778079e-05</v>
+        <v>2.416601637378335e-05</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>3.358401590958238e-05</v>
+        <v>3.054196713492274e-05</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>3.354204818606377e-05</v>
+        <v>3.345799632370472e-05</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>3.087497316300869e-05</v>
+        <v>3.308302257210016e-05</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>3.183301305398345e-05</v>
+        <v>3.341701813042164e-05</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>3.366702003404498e-05</v>
+        <v>3.354198997840285e-05</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>3.374996595084667e-05</v>
+        <v>3.283296246081591e-05</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>3.375002415850759e-05</v>
+        <v>2.891704207286239e-05</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>3.354198997840285e-05</v>
+        <v>3.341695992276073e-05</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>3.162497887387872e-05</v>
+        <v>3.883300814777613e-05</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>3.100000321865082e-05</v>
+        <v>3.270903835073113e-05</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>3.370799822732806e-05</v>
+        <v>3.275001654401422e-05</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>3.383302828297019e-05</v>
+        <v>3.158301115036011e-05</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>3.391696373000741e-05</v>
+        <v>3.358401590958238e-05</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>3.400002606213093e-05</v>
+        <v>3.374996595084667e-05</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>3.404199378564954e-05</v>
+        <v>3.387505421414971e-05</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>3.100000321865082e-05</v>
+        <v>2.999999560415745e-05</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>3.095797728747129e-05</v>
+        <v>3.083300543949008e-05</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>3.374996595084667e-05</v>
+        <v>3.391597419977188e-05</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>3.429199568927288e-05</v>
+        <v>3.391597419977188e-05</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>3.229104913771152e-05</v>
+        <v>3.483297768980265e-05</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>3.308296436443925e-05</v>
+        <v>3.404205199331045e-05</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>3.108300734311342e-05</v>
+        <v>3.345799632370472e-05</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>3.441702574491501e-05</v>
+        <v>3.15000070258975e-05</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>3.425002796575427e-05</v>
+        <v>3.125000512227416e-05</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>3.270799061283469e-05</v>
+        <v>3.412505611777306e-05</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>3.275001654401422e-05</v>
+        <v>3.441702574491501e-05</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>3.283395199105144e-05</v>
+        <v>3.404100425541401e-05</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>3.424996975809336e-05</v>
+        <v>3.175000892952085e-05</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>3.479199949651957e-05</v>
+        <v>3.041699528694153e-05</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>3.216700861230493e-05</v>
+        <v>3.158301115036011e-05</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>3.220798680558801e-05</v>
+        <v>2.837495412677526e-05</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>3.44169675372541e-05</v>
+        <v>2.62079993262887e-05</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>3.445800393819809e-05</v>
+        <v>2.604199107736349e-05</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>3.600004129111767e-05</v>
+        <v>2.62079993262887e-05</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>3.900000592693686e-05</v>
+        <v>2.662499900907278e-05</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>3.604200901463628e-05</v>
+        <v>3.054196713492274e-05</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>3.549997927621007e-05</v>
+        <v>2.995796967297792e-05</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>3.041699528694153e-05</v>
+        <v>3.429205389693379e-05</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>2.829101867973804e-05</v>
+        <v>3.429100615903735e-05</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>2.741703065112233e-05</v>
+        <v>3.454199759289622e-05</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>2.808298449963331e-05</v>
+        <v>3.187503898516297e-05</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>2.745800884440541e-05</v>
+        <v>3.112503327429295e-05</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>2.770801074802876e-05</v>
+        <v>3.483297768980265e-05</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>2.762500662356615e-05</v>
+        <v>3.300001844763756e-05</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>2.754200249910355e-05</v>
+        <v>3.112497506663203e-05</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>2.745800884440541e-05</v>
+        <v>3.295805072411895e-05</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>2.762500662356615e-05</v>
+        <v>3.487500362098217e-05</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>2.758298069238663e-05</v>
+        <v>3.495800774544477e-05</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>2.770801074802876e-05</v>
+        <v>3.487500362098217e-05</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>2.754200249910355e-05</v>
+        <v>2.891704207286239e-05</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>2.758298069238663e-05</v>
+        <v>3.475003177300096e-05</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>2.754200249910355e-05</v>
+        <v>3.466696944087744e-05</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>2.808298449963331e-05</v>
+        <v>3.287498839199543e-05</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>2.808298449963331e-05</v>
+        <v>3.504101186990738e-05</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>2.820894587785006e-05</v>
+        <v>3.495800774544477e-05</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>2.741703065112233e-05</v>
+        <v>3.508297959342599e-05</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>2.845900598913431e-05</v>
+        <v>3.504101186990738e-05</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>2.766598481684923e-05</v>
+        <v>3.549997927621007e-05</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>2.862501423805952e-05</v>
+        <v>3.516598371788859e-05</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>2.845801645889878e-05</v>
+        <v>3.487494541332126e-05</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>2.799998037517071e-05</v>
+        <v>3.50830378010869e-05</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>2.874998608604074e-05</v>
+        <v>3.408303018659353e-05</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>2.83340341411531e-05</v>
+        <v>3.191595897078514e-05</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>2.824998227879405e-05</v>
+        <v>3.504101186990738e-05</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>2.904102439060807e-05</v>
+        <v>3.15000070258975e-05</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>2.849998418241739e-05</v>
+        <v>3.170798299834132e-05</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>2.924998989328742e-05</v>
+        <v>3.541598562151194e-05</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>2.820801455527544e-05</v>
+        <v>3.499997546896338e-05</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>2.883299021050334e-05</v>
+        <v>4.833302227780223e-05</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>2.862495603039861e-05</v>
+        <v>3.337499219924212e-05</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>2.883299021050334e-05</v>
+        <v>3.412499791011214e-05</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>2.858304651454091e-05</v>
+        <v>3.57080134563148e-05</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>2.845801645889878e-05</v>
+        <v>3.220798680558801e-05</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>2.854201011359692e-05</v>
+        <v>3.333302447572351e-05</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>2.820801455527544e-05</v>
+        <v>3.595801535993814e-05</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>2.908299211412668e-05</v>
+        <v>3.587501123547554e-05</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>2.870801836252213e-05</v>
+        <v>3.574998117983341e-05</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>2.866698196157813e-05</v>
+        <v>3.254099283367395e-05</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>2.887501614168286e-05</v>
+        <v>3.179203486070037e-05</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>2.874998608604074e-05</v>
+        <v>3.595900489017367e-05</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>2.879201201722026e-05</v>
+        <v>3.474997356534004e-05</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>2.891599433496594e-05</v>
+        <v>3.591703716665506e-05</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>2.908403985202312e-05</v>
+        <v>3.612501313909888e-05</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>2.858298830688e-05</v>
+        <v>3.587501123547554e-05</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>2.900004619732499e-05</v>
+        <v>3.595801535993814e-05</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>3.729102900251746e-05</v>
+        <v>3.599998308345675e-05</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>2.941698767244816e-05</v>
+        <v>3.620801726356149e-05</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>2.887501614168286e-05</v>
+        <v>3.637501504272223e-05</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>2.866698196157813e-05</v>
+        <v>3.620795905590057e-05</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>2.91660544462502e-05</v>
+        <v>3.608298720791936e-05</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>2.916698576882482e-05</v>
+        <v>3.629102138802409e-05</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>2.912495983764529e-05</v>
+        <v>3.587501123547554e-05</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>2.908398164436221e-05</v>
+        <v>3.62499849870801e-05</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>2.920901170000434e-05</v>
+        <v>3.641698276624084e-05</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>2.908299211412668e-05</v>
+        <v>3.549997927621007e-05</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>2.916704397648573e-05</v>
+        <v>3.345799632370472e-05</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>2.92079639621079e-05</v>
+        <v>3.27499583363533e-05</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>2.945895539596677e-05</v>
+        <v>3.63329891115427e-05</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>2.875004429370165e-05</v>
+        <v>3.450002986937761e-05</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>2.933299401775002e-05</v>
+        <v>3.608304541558027e-05</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>3.850000211969018e-05</v>
+        <v>3.57080134563148e-05</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>2.879201201722026e-05</v>
+        <v>3.67090106010437e-05</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>2.974999370053411e-05</v>
+        <v>3.679102519527078e-05</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>2.96669895760715e-05</v>
+        <v>3.200001083314419e-05</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>2.96669895760715e-05</v>
+        <v>2.708396641537547e-05</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>3.008299972862005e-05</v>
+        <v>3.070797538384795e-05</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>2.999999560415745e-05</v>
+        <v>2.904096618294716e-05</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>2.979201963171363e-05</v>
+        <v>2.820894587785006e-05</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>3.02919652312994e-05</v>
+        <v>3.870803629979491e-05</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>3.020797157660127e-05</v>
+        <v>3.166700480505824e-05</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>2.974999370053411e-05</v>
+        <v>2.833298640325665e-05</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>3.008299972862005e-05</v>
+        <v>2.841698005795479e-05</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>3.000005381181836e-05</v>
+        <v>2.824998227879405e-05</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>3.033399116247892e-05</v>
+        <v>2.891698386520147e-05</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>2.912501804530621e-05</v>
+        <v>2.904096618294716e-05</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>2.962496364489198e-05</v>
+        <v>2.891698386520147e-05</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>2.970901550725102e-05</v>
+        <v>2.84170382656157e-05</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>2.974999370053411e-05</v>
+        <v>2.908398164436221e-05</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>2.979196142405272e-05</v>
+        <v>2.924998989328742e-05</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>3.020797157660127e-05</v>
+        <v>2.891704207286239e-05</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>2.974999370053411e-05</v>
+        <v>2.924998989328742e-05</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>2.966600004583597e-05</v>
+        <v>2.933398354798555e-05</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>3.012496745213866e-05</v>
+        <v>2.86659924313426e-05</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>3.037502756342292e-05</v>
+        <v>2.854201011359692e-05</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>2.991699147969484e-05</v>
+        <v>3.062497125938535e-05</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>2.96669895760715e-05</v>
+        <v>2.991699147969484e-05</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>2.987502375617623e-05</v>
+        <v>3.854196984320879e-05</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>3.033300163224339e-05</v>
+        <v>2.97080259770155e-05</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>3.029202343896031e-05</v>
+        <v>2.916698576882482e-05</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>3.054202534258366e-05</v>
+        <v>3.94159578718245e-05</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>8.854200132191181e-05</v>
+        <v>2.929201582446694e-05</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>3.92080401070416e-05</v>
+        <v>2.962496364489198e-05</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>3.091699909418821e-05</v>
+        <v>4.233303479850292e-05</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>3.045803168788552e-05</v>
+        <v>3.437499981373549e-05</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>2.970895729959011e-05</v>
+        <v>3.041699528694153e-05</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>2.987502375617623e-05</v>
+        <v>2.991699147969484e-05</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>2.962502185255289e-05</v>
+        <v>3.058399306610227e-05</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>3.004103200510144e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>2.983404556289315e-05</v>
+        <v>3.054196713492274e-05</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>2.987502375617623e-05</v>
+        <v>3.004202153533697e-05</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>3.0374969355762e-05</v>
+        <v>3.125000512227416e-05</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>4.829198587685823e-05</v>
+        <v>3.054196713492274e-05</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>3.249995643272996e-05</v>
+        <v>4.40410221926868e-05</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>2.879201201722026e-05</v>
+        <v>3.033399116247892e-05</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>4.458299372345209e-05</v>
+        <v>2.941698767244816e-05</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>3.483297768980265e-05</v>
+        <v>2.970895729959011e-05</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>3.929203376173973e-05</v>
+        <v>2.991704968735576e-05</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>3.674998879432678e-05</v>
+        <v>2.96669895760715e-05</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>3.641698276624084e-05</v>
+        <v>3.012502565979958e-05</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>3.850000211969018e-05</v>
+        <v>2.991699147969484e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>3.966700751334429e-05</v>
+        <v>3.004202153533697e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>3.975001163780689e-05</v>
+        <v>3.01670515909791e-05</v>
       </c>
     </row>
   </sheetData>
